--- a/Output/FedAcqTrends/Platform/Electronics_Comms_and_Sensors/Fed_Electronics_Comms_and_Sensors_Contracts.xlsx
+++ b/Output/FedAcqTrends/Platform/Electronics_Comms_and_Sensors/Fed_Electronics_Comms_and_Sensors_Contracts.xlsx
@@ -239,10 +239,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -278,11 +279,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,82 +595,82 @@
         <v>1</v>
       </c>
       <c r="O1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Q1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="R1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="S1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="T1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="U1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="V1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="W1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="X1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="Y1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Z1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="AA1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AB1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="AC1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AD1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="AE1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AF1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AG1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AH1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="AI1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AJ1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="AK1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AL1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="AM1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AN1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="AO1" t="s">
         <v>28</v>
@@ -750,85 +752,85 @@
       <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="1" t="n">
-        <v>5696246</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>1238000</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>11071000</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>2748000</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>67932000</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>58180000</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>58096000</v>
-      </c>
-      <c r="V2" s="1" t="n">
-        <v>109575381.73</v>
-      </c>
-      <c r="W2" s="1" t="n">
-        <v>129870539.95</v>
-      </c>
-      <c r="X2" s="1" t="n">
-        <v>353065000</v>
-      </c>
-      <c r="Y2" s="1" t="n">
-        <v>196704000</v>
-      </c>
-      <c r="Z2" s="1" t="n">
-        <v>337238000</v>
-      </c>
-      <c r="AA2" s="1" t="n">
-        <v>281168134.53</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>217789000</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>118937000</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>372292000</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>159553080</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>242306809</v>
-      </c>
-      <c r="AG2" s="1" t="n">
-        <v>196000000</v>
-      </c>
-      <c r="AH2" s="1" t="n">
-        <v>2228539947.04</v>
-      </c>
-      <c r="AI2" s="1" t="n">
-        <v>4227306744</v>
-      </c>
-      <c r="AJ2" s="1" t="n">
-        <v>2068219441.5</v>
-      </c>
-      <c r="AK2" s="1" t="n">
+      <c r="O2" s="4" t="n">
         <v>10072839383.8344</v>
       </c>
-      <c r="AL2" s="1" t="n">
+      <c r="P2" s="4" t="n">
         <v>9817086220.22</v>
       </c>
-      <c r="AM2" s="1" t="n">
+      <c r="Q2" s="4" t="n">
         <v>10874743943.14</v>
       </c>
-      <c r="AN2" s="1" t="n">
+      <c r="R2" s="4" t="n">
         <v>11546708570.19</v>
       </c>
-      <c r="AO2" s="1" t="n">
+      <c r="S2" s="4" t="n">
+        <v>14282880642.79</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>15577844730.04</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>14607001236.64</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>16933899095.58</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>17170170285.67</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>16946725461.77</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>17754996441.3538</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>17781772614.1039</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>18187791891.5274</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>15977659307.3254</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>15763663503.1713</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>15512925649.0854</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>16047939845.7225</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>15966417108.2005</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>17077753975.83</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>17567020054.19</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>17546672181.27</v>
+      </c>
+      <c r="AJ2" s="4" t="n">
+        <v>16176194780.42</v>
+      </c>
+      <c r="AK2" s="4" t="n">
+        <v>17222609729.85</v>
+      </c>
+      <c r="AL2" s="4" t="n">
+        <v>16908797626.95</v>
+      </c>
+      <c r="AM2" s="4" t="n">
+        <v>17635398813.76</v>
+      </c>
+      <c r="AN2" s="4" t="n">
+        <v>6730597375.9</v>
+      </c>
+      <c r="AO2" s="4" t="n">
         <v>14282880642.79</v>
       </c>
       <c r="AP2" s="1" t="n">
@@ -909,83 +911,85 @@
       <c r="N3" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="n">
-        <v>1973000</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>5497000</v>
-      </c>
-      <c r="R3" s="1" t="n">
-        <v>9490000</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>12387000</v>
-      </c>
-      <c r="T3" s="1" t="n">
-        <v>11738000</v>
-      </c>
-      <c r="U3" s="1" t="n">
-        <v>6441000</v>
-      </c>
-      <c r="V3" s="1" t="n">
-        <v>16194000</v>
-      </c>
-      <c r="W3" s="1" t="n">
-        <v>17284000</v>
-      </c>
-      <c r="X3" s="1" t="n">
-        <v>356000</v>
-      </c>
-      <c r="Y3" s="1" t="n">
-        <v>42386000</v>
-      </c>
-      <c r="Z3" s="1" t="n">
-        <v>20184000</v>
-      </c>
-      <c r="AA3" s="1" t="n">
-        <v>108100000</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>243261000</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>102520000</v>
-      </c>
-      <c r="AD3" s="1" t="n">
-        <v>89908000</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>106705000</v>
-      </c>
-      <c r="AF3" s="1" t="n">
-        <v>53460000</v>
-      </c>
-      <c r="AG3" s="1" t="n">
-        <v>51772000</v>
-      </c>
-      <c r="AH3" s="1" t="n">
-        <v>25242614</v>
-      </c>
-      <c r="AI3" s="1" t="n">
-        <v>163746294</v>
-      </c>
-      <c r="AJ3" s="1" t="n">
-        <v>258475862</v>
-      </c>
-      <c r="AK3" s="1" t="n">
+      <c r="O3" s="4" t="n">
         <v>1450699942.0516</v>
       </c>
-      <c r="AL3" s="1" t="n">
+      <c r="P3" s="4" t="n">
         <v>1527999782.26</v>
       </c>
-      <c r="AM3" s="1" t="n">
+      <c r="Q3" s="4" t="n">
         <v>1608767664.83</v>
       </c>
-      <c r="AN3" s="1" t="n">
+      <c r="R3" s="4" t="n">
         <v>2582137089.6</v>
       </c>
-      <c r="AO3" s="1" t="n">
+      <c r="S3" s="4" t="n">
+        <v>2525495641.4</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>2968219706</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3003664704.71</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>3319029384.35</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3496763724.18</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>3609710283.63</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>4194449798.4403</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>3757377069.6606</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>3106977692.7088</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>2859840836.5541</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>3136724721.812</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>3137629676.2549</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>3233496783.2393</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>3150141350.2824</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>3575655285.58</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>3727943011.03</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>3544090671.3</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
+        <v>3356068305.19</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>3571244215.92</v>
+      </c>
+      <c r="AL3" s="4" t="n">
+        <v>3639989639.37</v>
+      </c>
+      <c r="AM3" s="4" t="n">
+        <v>4067312234.83</v>
+      </c>
+      <c r="AN3" s="4" t="n">
+        <v>1375408283.44</v>
+      </c>
+      <c r="AO3" s="4" t="n">
         <v>2525495641.4</v>
       </c>
       <c r="AP3" s="1" t="n">
@@ -1066,83 +1070,85 @@
       <c r="N4" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1" t="n">
-        <v>514000</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>1503000</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>11455000</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>13989000</v>
-      </c>
-      <c r="T4" s="1" t="n">
-        <v>7768000</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>15585000</v>
-      </c>
-      <c r="V4" s="1" t="n">
-        <v>10358000</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>11340000</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>20216000</v>
-      </c>
-      <c r="Y4" s="1" t="n">
-        <v>2118000</v>
-      </c>
-      <c r="Z4" s="1" t="n">
-        <v>1677000</v>
-      </c>
-      <c r="AA4" s="1" t="n">
-        <v>8008000</v>
-      </c>
-      <c r="AB4" s="1" t="n">
-        <v>2384000</v>
-      </c>
-      <c r="AC4" s="1" t="n">
-        <v>742000</v>
-      </c>
-      <c r="AD4" s="1" t="n">
-        <v>35000</v>
-      </c>
-      <c r="AE4" s="1" t="n">
-        <v>3525000</v>
-      </c>
-      <c r="AF4" s="1" t="n">
-        <v>8232000</v>
-      </c>
-      <c r="AG4" s="1" t="n">
-        <v>4334000</v>
-      </c>
-      <c r="AH4" s="1" t="n">
-        <v>3610210</v>
-      </c>
-      <c r="AI4" s="1" t="n">
-        <v>1378785</v>
-      </c>
-      <c r="AJ4" s="1" t="n">
-        <v>1001641.52</v>
-      </c>
-      <c r="AK4" s="1" t="n">
+      <c r="O4" s="4" t="n">
         <v>218729865.0995</v>
       </c>
-      <c r="AL4" s="1" t="n">
+      <c r="P4" s="4" t="n">
         <v>210876624.8381</v>
       </c>
-      <c r="AM4" s="1" t="n">
+      <c r="Q4" s="4" t="n">
         <v>666115923.2688</v>
       </c>
-      <c r="AN4" s="1" t="n">
+      <c r="R4" s="4" t="n">
         <v>420077655.0412</v>
       </c>
-      <c r="AO4" s="1" t="n">
+      <c r="S4" s="4" t="n">
+        <v>968762260.0305</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>1342218719.0591</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1498281538.9096</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1510153887.1767</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1486588500.8591</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1971206354.158</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>2507642688.7302</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>3027753056.4936</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>4231405071.6753</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>4025683961.6315</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>5002151896.4255</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>5787702455.7844</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>6156964898.1525</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>7058399054.5767</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>6876741175.1143</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>7421368540.379</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>9290974118.0568</v>
+      </c>
+      <c r="AJ4" s="4" t="n">
+        <v>9756469993.2564</v>
+      </c>
+      <c r="AK4" s="4" t="n">
+        <v>11178091502.4477</v>
+      </c>
+      <c r="AL4" s="4" t="n">
+        <v>12985115874.5924</v>
+      </c>
+      <c r="AM4" s="4" t="n">
+        <v>14586171167.71</v>
+      </c>
+      <c r="AN4" s="4" t="n">
+        <v>5289733472.63</v>
+      </c>
+      <c r="AO4" s="4" t="n">
         <v>968762260.0305</v>
       </c>
       <c r="AP4" s="1" t="n">
@@ -1223,83 +1229,85 @@
       <c r="N5" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1" t="n">
-        <v>9233000</v>
-      </c>
-      <c r="Q5" s="1" t="n">
-        <v>15258000</v>
-      </c>
-      <c r="R5" s="1" t="n">
-        <v>17312000</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>14913000</v>
-      </c>
-      <c r="T5" s="1" t="n">
-        <v>11182000</v>
-      </c>
-      <c r="U5" s="1" t="n">
-        <v>9301000</v>
-      </c>
-      <c r="V5" s="1" t="n">
-        <v>6985000</v>
-      </c>
-      <c r="W5" s="1" t="n">
-        <v>3571000</v>
-      </c>
-      <c r="X5" s="1" t="n">
-        <v>5611000</v>
-      </c>
-      <c r="Y5" s="1" t="n">
-        <v>2185000</v>
-      </c>
-      <c r="Z5" s="1" t="n">
-        <v>2545000</v>
-      </c>
-      <c r="AA5" s="1" t="n">
-        <v>1819000</v>
-      </c>
-      <c r="AB5" s="1" t="n">
-        <v>3310000</v>
-      </c>
-      <c r="AC5" s="1" t="n">
-        <v>4250000</v>
-      </c>
-      <c r="AD5" s="1" t="n">
-        <v>4434000</v>
-      </c>
-      <c r="AE5" s="1" t="n">
-        <v>8536000</v>
-      </c>
-      <c r="AF5" s="1" t="n">
-        <v>28324000</v>
-      </c>
-      <c r="AG5" s="1" t="n">
-        <v>128953462.4</v>
-      </c>
-      <c r="AH5" s="1" t="n">
-        <v>342177914</v>
-      </c>
-      <c r="AI5" s="1" t="n">
-        <v>975507552.72</v>
-      </c>
-      <c r="AJ5" s="1" t="n">
-        <v>2131346448.68</v>
-      </c>
-      <c r="AK5" s="1" t="n">
+      <c r="O5" s="4" t="n">
         <v>8252587012.1779</v>
       </c>
-      <c r="AL5" s="1" t="n">
+      <c r="P5" s="4" t="n">
         <v>10729897668.9633</v>
       </c>
-      <c r="AM5" s="1" t="n">
+      <c r="Q5" s="4" t="n">
         <v>13744560275.3797</v>
       </c>
-      <c r="AN5" s="1" t="n">
+      <c r="R5" s="4" t="n">
         <v>16684514722.2965</v>
       </c>
-      <c r="AO5" s="1" t="n">
+      <c r="S5" s="4" t="n">
+        <v>15912250341.5154</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>14916116100.4392</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>13757617443.8876</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>12718080992.4991</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>12157970443.1929</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>12769235301.5787</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>13261830508.272</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>12873878381.4937</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>12843643518.0069</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>12038456984.5758</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>13900898747.7926</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>13813541438.0412</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>15422749342.8683</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>16746013659.1383</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>18801648636.4727</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>21655287191.5622</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>25216329308.6351</v>
+      </c>
+      <c r="AJ5" s="4" t="n">
+        <v>26723221962.8182</v>
+      </c>
+      <c r="AK5" s="4" t="n">
+        <v>28602784406.9759</v>
+      </c>
+      <c r="AL5" s="4" t="n">
+        <v>31262689054.7069</v>
+      </c>
+      <c r="AM5" s="4" t="n">
+        <v>33009613644.7544</v>
+      </c>
+      <c r="AN5" s="4" t="n">
+        <v>12250058008.67</v>
+      </c>
+      <c r="AO5" s="4" t="n">
         <v>15912250341.5154</v>
       </c>
       <c r="AP5" s="1" t="n">
@@ -1380,59 +1388,85 @@
       <c r="N6" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1" t="n">
-        <v>59000</v>
-      </c>
-      <c r="AC6" s="1" t="n">
-        <v>154000</v>
-      </c>
-      <c r="AD6" s="1" t="n">
-        <v>235000</v>
-      </c>
-      <c r="AE6" s="1" t="n">
-        <v>81000</v>
-      </c>
-      <c r="AF6" s="1" t="n">
-        <v>28000</v>
-      </c>
-      <c r="AG6" s="1" t="n">
-        <v>2897000</v>
-      </c>
-      <c r="AH6" s="1" t="n">
-        <v>265404784</v>
-      </c>
-      <c r="AI6" s="1" t="n">
-        <v>402520054</v>
-      </c>
-      <c r="AJ6" s="1" t="n">
-        <v>698401561.94</v>
-      </c>
-      <c r="AK6" s="1" t="n">
+      <c r="O6" s="4" t="n">
         <v>2469115876.5578</v>
       </c>
-      <c r="AL6" s="1" t="n">
+      <c r="P6" s="4" t="n">
         <v>2957079941.9691</v>
       </c>
-      <c r="AM6" s="1" t="n">
+      <c r="Q6" s="4" t="n">
         <v>3372195978.8545</v>
       </c>
-      <c r="AN6" s="1" t="n">
+      <c r="R6" s="4" t="n">
         <v>4722912985.9254</v>
       </c>
-      <c r="AO6" s="1" t="n">
+      <c r="S6" s="4" t="n">
+        <v>5950105051.1956</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>7481083982.2187</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>8915518635.0487</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13392530403.0344</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>16210147013.8808</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>17382929075.1794</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>17871194253.6597</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>17167866922.7434</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>16535675154.3662</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>14731386587.0295</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15145398585.0443</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>15592872419.5479</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>16972053903.0648</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>18366218993.1074</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>19084208895.6813</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>19069745171.6557</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>18528849455.7907</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
+        <v>16512253065.582</v>
+      </c>
+      <c r="AK6" s="4" t="n">
+        <v>16596310651.8013</v>
+      </c>
+      <c r="AL6" s="4" t="n">
+        <v>17630851869.4813</v>
+      </c>
+      <c r="AM6" s="4" t="n">
+        <v>17666969989.6125</v>
+      </c>
+      <c r="AN6" s="4" t="n">
+        <v>6208913818.51</v>
+      </c>
+      <c r="AO6" s="4" t="n">
         <v>5950105051.1956</v>
       </c>
       <c r="AP6" s="1" t="n">
@@ -1513,67 +1547,85 @@
       <c r="N7" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1" t="n">
-        <v>57000</v>
-      </c>
-      <c r="Y7" s="1" t="n">
-        <v>361000</v>
-      </c>
-      <c r="Z7" s="1" t="n">
-        <v>3426000</v>
-      </c>
-      <c r="AA7" s="1" t="n">
-        <v>3249000</v>
-      </c>
-      <c r="AB7" s="1" t="n">
-        <v>6069000</v>
-      </c>
-      <c r="AC7" s="1" t="n">
-        <v>12968000</v>
-      </c>
-      <c r="AD7" s="1" t="n">
-        <v>9151000</v>
-      </c>
-      <c r="AE7" s="1" t="n">
-        <v>4487000</v>
-      </c>
-      <c r="AF7" s="1" t="n">
-        <v>9025000</v>
-      </c>
-      <c r="AG7" s="1" t="n">
-        <v>17055000</v>
-      </c>
-      <c r="AH7" s="1" t="n">
-        <v>977749186.84</v>
-      </c>
-      <c r="AI7" s="1" t="n">
-        <v>1494318877.07</v>
-      </c>
-      <c r="AJ7" s="1" t="n">
-        <v>2569562405.94</v>
-      </c>
-      <c r="AK7" s="1" t="n">
+      <c r="O7" s="4" t="n">
         <v>9333619396.5111</v>
       </c>
-      <c r="AL7" s="1" t="n">
+      <c r="P7" s="4" t="n">
         <v>9759002592.0137</v>
       </c>
-      <c r="AM7" s="1" t="n">
+      <c r="Q7" s="4" t="n">
         <v>11372629962.698</v>
       </c>
-      <c r="AN7" s="1" t="n">
+      <c r="R7" s="4" t="n">
         <v>14021861727.3539</v>
       </c>
-      <c r="AO7" s="1" t="n">
+      <c r="S7" s="4" t="n">
+        <v>18721996221.3565</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>19829547583.9476</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>22863910210.5971</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>25971624472.5273</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>28610520750.5389</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>26982168897.6875</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>26736769140.7311</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>23796568649.6446</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>20274444113.9638</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>17247758473.2576</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>16829872433.4924</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>15933021165.6062</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>17658634442.5864</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>18235285684.2313</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>21690787138.7769</v>
+      </c>
+      <c r="AH7" s="4" t="n">
+        <v>24020628963.9968</v>
+      </c>
+      <c r="AI7" s="4" t="n">
+        <v>23909810775.4842</v>
+      </c>
+      <c r="AJ7" s="4" t="n">
+        <v>21746728397.8181</v>
+      </c>
+      <c r="AK7" s="4" t="n">
+        <v>23937628224.6384</v>
+      </c>
+      <c r="AL7" s="4" t="n">
+        <v>24769555515.7009</v>
+      </c>
+      <c r="AM7" s="4" t="n">
+        <v>25292364242.83</v>
+      </c>
+      <c r="AN7" s="4" t="n">
+        <v>9496289623.93</v>
+      </c>
+      <c r="AO7" s="4" t="n">
         <v>18721996221.3565</v>
       </c>
       <c r="AP7" s="1" t="n">
@@ -1654,83 +1706,85 @@
       <c r="N8" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1" t="n">
-        <v>2669000</v>
-      </c>
-      <c r="Q8" s="1" t="n">
-        <v>425000</v>
-      </c>
-      <c r="R8" s="1" t="n">
-        <v>6820000</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>9343000</v>
-      </c>
-      <c r="T8" s="1" t="n">
-        <v>16331000</v>
-      </c>
-      <c r="U8" s="1" t="n">
-        <v>35053000</v>
-      </c>
-      <c r="V8" s="1" t="n">
-        <v>20080000</v>
-      </c>
-      <c r="W8" s="1" t="n">
-        <v>41491000</v>
-      </c>
-      <c r="X8" s="1" t="n">
-        <v>85048000</v>
-      </c>
-      <c r="Y8" s="1" t="n">
-        <v>9597000</v>
-      </c>
-      <c r="Z8" s="1" t="n">
-        <v>2311000</v>
-      </c>
-      <c r="AA8" s="1" t="n">
-        <v>709000</v>
-      </c>
-      <c r="AB8" s="1" t="n">
-        <v>2028000</v>
-      </c>
-      <c r="AC8" s="1" t="n">
-        <v>3315000</v>
-      </c>
-      <c r="AD8" s="1" t="n">
-        <v>17401000</v>
-      </c>
-      <c r="AE8" s="1" t="n">
-        <v>1963000</v>
-      </c>
-      <c r="AF8" s="1" t="n">
-        <v>4334000</v>
-      </c>
-      <c r="AG8" s="1" t="n">
-        <v>3682000</v>
-      </c>
-      <c r="AH8" s="1" t="n">
-        <v>86389046</v>
-      </c>
-      <c r="AI8" s="1" t="n">
-        <v>100488358</v>
-      </c>
-      <c r="AJ8" s="1" t="n">
-        <v>96392104</v>
-      </c>
-      <c r="AK8" s="1" t="n">
+      <c r="O8" s="4" t="n">
         <v>2054406242.5715</v>
       </c>
-      <c r="AL8" s="1" t="n">
+      <c r="P8" s="4" t="n">
         <v>2415938443.5675</v>
       </c>
-      <c r="AM8" s="1" t="n">
+      <c r="Q8" s="4" t="n">
         <v>2245790096.7845</v>
       </c>
-      <c r="AN8" s="1" t="n">
+      <c r="R8" s="4" t="n">
         <v>1707966095.6414</v>
       </c>
-      <c r="AO8" s="1" t="n">
+      <c r="S8" s="4" t="n">
+        <v>1518551910.6403</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>787657763.3674</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>497061404.6351</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>362786401.5815</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>193293778.7964</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>125238067.1179</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>63485770.7324</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>7100555.5297</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>36377594.4479</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>2034511.5154</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>5765041.16</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>18221149.0562</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>6100269.1602</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>2079916.9324</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>749335.1679</v>
+      </c>
+      <c r="AH8" s="4" t="n">
+        <v>392160.4502</v>
+      </c>
+      <c r="AI8" s="4" t="n">
+        <v>354721.4375</v>
+      </c>
+      <c r="AJ8" s="4" t="n">
+        <v>-7237891.7148</v>
+      </c>
+      <c r="AK8" s="4" t="n">
+        <v>19000</v>
+      </c>
+      <c r="AL8" s="4" t="n">
+        <v>50115.8203</v>
+      </c>
+      <c r="AM8" s="4" t="n">
+        <v>54398.75</v>
+      </c>
+      <c r="AN8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="4" t="n">
         <v>1518551910.6403</v>
       </c>
       <c r="AP8" s="1" t="n">
@@ -1807,67 +1861,81 @@
       </c>
       <c r="M9"/>
       <c r="N9"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1" t="n">
-        <v>-171000</v>
-      </c>
-      <c r="Y9" s="1" t="n">
-        <v>2060000</v>
-      </c>
-      <c r="Z9" s="1" t="n">
-        <v>131120975</v>
-      </c>
-      <c r="AA9" s="1" t="n">
-        <v>19702439894</v>
-      </c>
-      <c r="AB9" s="1" t="n">
-        <v>19319790733</v>
-      </c>
-      <c r="AC9" s="1" t="n">
-        <v>19388422483</v>
-      </c>
-      <c r="AD9" s="1" t="n">
-        <v>18242606124</v>
-      </c>
-      <c r="AE9" s="1" t="n">
-        <v>17660760039</v>
-      </c>
-      <c r="AF9" s="1" t="n">
-        <v>18709858904</v>
-      </c>
-      <c r="AG9" s="1" t="n">
-        <v>18190557208</v>
-      </c>
-      <c r="AH9" s="1" t="n">
-        <v>18437513898</v>
-      </c>
-      <c r="AI9" s="1" t="n">
-        <v>17486361803</v>
-      </c>
-      <c r="AJ9" s="1" t="n">
-        <v>19580940257</v>
-      </c>
-      <c r="AK9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1" t="n">
+      <c r="O9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>1990813.07</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>236000</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>248000</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4" t="n">
+        <v>-8375.61</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>1810263.7657</v>
+      </c>
+      <c r="AG9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="4" t="n">
+        <v>364860</v>
+      </c>
+      <c r="AN9" s="4" t="n">
+        <v>-31061.2</v>
+      </c>
+      <c r="AO9" s="4" t="n">
         <v>1990813.07</v>
       </c>
       <c r="AP9" s="1" t="n">
@@ -1944,85 +2012,85 @@
       <c r="N10" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="1" t="str">
+      <c r="O10" s="4" t="str">
         <f>Sum(O2:O9)</f>
       </c>
-      <c r="P10" s="1" t="str">
+      <c r="P10" s="4" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="1" t="str">
+      <c r="Q10" s="4" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="1" t="str">
+      <c r="R10" s="4" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="1" t="str">
+      <c r="S10" s="4" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="1" t="str">
+      <c r="T10" s="4" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="1" t="str">
+      <c r="U10" s="4" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="1" t="str">
+      <c r="V10" s="4" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="1" t="str">
+      <c r="W10" s="4" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="1" t="str">
+      <c r="X10" s="4" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="1" t="str">
+      <c r="Y10" s="4" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="1" t="str">
+      <c r="Z10" s="4" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="1" t="str">
+      <c r="AA10" s="4" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="1" t="str">
+      <c r="AB10" s="4" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="1" t="str">
+      <c r="AC10" s="4" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="1" t="str">
+      <c r="AD10" s="4" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="1" t="str">
+      <c r="AE10" s="4" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="1" t="str">
+      <c r="AF10" s="4" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="1" t="str">
+      <c r="AG10" s="4" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="1" t="str">
+      <c r="AH10" s="4" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="1" t="str">
+      <c r="AI10" s="4" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="1" t="str">
+      <c r="AJ10" s="4" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="1" t="str">
+      <c r="AK10" s="4" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="1" t="str">
+      <c r="AL10" s="4" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="1" t="str">
+      <c r="AM10" s="4" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="1" t="str">
+      <c r="AN10" s="4" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="1" t="str">
+      <c r="AO10" s="4" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
       <c r="AP10" s="1" t="str">
@@ -2104,82 +2172,82 @@
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="Q13" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="R13" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="S13" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="T13" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="U13" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="V13" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="W13" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="X13" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="Y13" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="Z13" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="AA13" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AB13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="AC13" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="AE13" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AH13" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="AI13" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AJ13" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="AK13" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AL13" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="AM13" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AN13" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="AO13" t="s">
         <v>29</v>
@@ -2258,85 +2326,85 @@
       <c r="N14" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="1" t="n">
-        <v>4250989.0228132</v>
-      </c>
-      <c r="P14" s="1" t="n">
-        <v>34966027.6347972</v>
-      </c>
-      <c r="Q14" s="1" t="n">
-        <v>7904061.26372306</v>
-      </c>
-      <c r="R14" s="1" t="n">
-        <v>182693528.040622</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>149926801.936874</v>
-      </c>
-      <c r="T14" s="1" t="n">
-        <v>144523715.535465</v>
-      </c>
-      <c r="U14" s="1" t="n">
-        <v>263771778.009588</v>
-      </c>
-      <c r="V14" s="1" t="n">
-        <v>305753072.820321</v>
-      </c>
-      <c r="W14" s="1" t="n">
-        <v>813028570.468513</v>
-      </c>
-      <c r="X14" s="1" t="n">
-        <v>438729348.947718</v>
-      </c>
-      <c r="Y14" s="1" t="n">
-        <v>722982835.804612</v>
-      </c>
-      <c r="Z14" s="1" t="n">
-        <v>581534973.97123</v>
-      </c>
-      <c r="AA14" s="1" t="n">
-        <v>434901083.422071</v>
-      </c>
-      <c r="AB14" s="1" t="n">
-        <v>231705068.500303</v>
-      </c>
-      <c r="AC14" s="1" t="n">
-        <v>708649375.205938</v>
-      </c>
-      <c r="AD14" s="1" t="n">
-        <v>297217220.8957</v>
-      </c>
-      <c r="AE14" s="1" t="n">
-        <v>441996297.028801</v>
-      </c>
-      <c r="AF14" s="1" t="n">
-        <v>350919917.76514</v>
-      </c>
-      <c r="AG14" s="1" t="n">
-        <v>3920418957.18778</v>
-      </c>
-      <c r="AH14" s="1" t="n">
-        <v>7344539348.91792</v>
-      </c>
-      <c r="AI14" s="1" t="n">
-        <v>3549382076.4432</v>
-      </c>
-      <c r="AJ14" s="1" t="n">
+      <c r="O14" s="4" t="n">
         <v>16934189547.7143</v>
       </c>
-      <c r="AK14" s="1" t="n">
+      <c r="P14" s="4" t="n">
         <v>16113644133.7298</v>
       </c>
-      <c r="AL14" s="1" t="n">
+      <c r="Q14" s="4" t="n">
         <v>17573206162.9921</v>
       </c>
-      <c r="AM14" s="1" t="n">
+      <c r="R14" s="4" t="n">
         <v>18307659621.6707</v>
       </c>
-      <c r="AN14" s="1" t="n">
+      <c r="S14" s="4" t="n">
         <v>22106139725.3833</v>
       </c>
-      <c r="AO14" s="1" t="n">
+      <c r="T14" s="4" t="n">
+        <v>23398394330.302</v>
+      </c>
+      <c r="U14" s="4" t="n">
+        <v>21249870578.5085</v>
+      </c>
+      <c r="V14" s="4" t="n">
+        <v>23974960137.9296</v>
+      </c>
+      <c r="W14" s="4" t="n">
+        <v>23815051538.7279</v>
+      </c>
+      <c r="X14" s="4" t="n">
+        <v>23267200269.1801</v>
+      </c>
+      <c r="Y14" s="4" t="n">
+        <v>24167622823.3906</v>
+      </c>
+      <c r="Z14" s="4" t="n">
+        <v>23727820117.9787</v>
+      </c>
+      <c r="AA14" s="4" t="n">
+        <v>23837059878.135</v>
+      </c>
+      <c r="AB14" s="4" t="n">
+        <v>20567255836.5308</v>
+      </c>
+      <c r="AC14" s="4" t="n">
+        <v>19928235334.1859</v>
+      </c>
+      <c r="AD14" s="4" t="n">
+        <v>19410238150.3937</v>
+      </c>
+      <c r="AE14" s="4" t="n">
+        <v>19920398798.1004</v>
+      </c>
+      <c r="AF14" s="4" t="n">
+        <v>19490205367.7244</v>
+      </c>
+      <c r="AG14" s="4" t="n">
+        <v>20394066005.8523</v>
+      </c>
+      <c r="AH14" s="4" t="n">
+        <v>20597503975.5676</v>
+      </c>
+      <c r="AI14" s="4" t="n">
+        <v>20308355673.1773</v>
+      </c>
+      <c r="AJ14" s="4" t="n">
+        <v>18099249283.6203</v>
+      </c>
+      <c r="AK14" s="4" t="n">
+        <v>18010485477.1586</v>
+      </c>
+      <c r="AL14" s="4" t="n">
+        <v>16908797626.95</v>
+      </c>
+      <c r="AM14" s="4" t="n">
+        <v>17176678640.1172</v>
+      </c>
+      <c r="AN14" s="4" t="n">
+        <v>6414772186.96733</v>
+      </c>
+      <c r="AO14" s="4" t="n">
         <v>23398394330.302</v>
       </c>
       <c r="AP14" s="1" t="n">
@@ -2414,85 +2482,85 @@
       <c r="N15" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="1" t="n">
-        <v>6774799.14540424</v>
-      </c>
-      <c r="P15" s="1" t="n">
-        <v>17361417.569188</v>
-      </c>
-      <c r="Q15" s="1" t="n">
-        <v>27296048.541751</v>
-      </c>
-      <c r="R15" s="1" t="n">
-        <v>33313088.5567801</v>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>30248209.0260403</v>
-      </c>
-      <c r="T15" s="1" t="n">
-        <v>16023086.8177488</v>
-      </c>
-      <c r="U15" s="1" t="n">
-        <v>38982480.4225874</v>
-      </c>
-      <c r="V15" s="1" t="n">
-        <v>40691569.563513</v>
-      </c>
-      <c r="W15" s="1" t="n">
-        <v>819787.209399942</v>
-      </c>
-      <c r="X15" s="1" t="n">
-        <v>94537895.4393301</v>
-      </c>
-      <c r="Y15" s="1" t="n">
-        <v>43271178.0934541</v>
-      </c>
-      <c r="Z15" s="1" t="n">
-        <v>223581277.413862</v>
-      </c>
-      <c r="AA15" s="1" t="n">
-        <v>485765913.12847</v>
-      </c>
-      <c r="AB15" s="1" t="n">
-        <v>199722572.644771</v>
-      </c>
-      <c r="AC15" s="1" t="n">
-        <v>171137838.110987</v>
-      </c>
-      <c r="AD15" s="1" t="n">
-        <v>198771239.989072</v>
-      </c>
-      <c r="AE15" s="1" t="n">
-        <v>97517367.0796834</v>
-      </c>
-      <c r="AF15" s="1" t="n">
-        <v>92692989.7068205</v>
-      </c>
-      <c r="AG15" s="1" t="n">
-        <v>44406483.5301771</v>
-      </c>
-      <c r="AH15" s="1" t="n">
-        <v>284493454.663408</v>
-      </c>
-      <c r="AI15" s="1" t="n">
-        <v>443584260.628858</v>
-      </c>
-      <c r="AJ15" s="1" t="n">
+      <c r="O15" s="4" t="n">
         <v>2438878141.44896</v>
       </c>
-      <c r="AK15" s="1" t="n">
+      <c r="P15" s="4" t="n">
         <v>2508039980.03416</v>
       </c>
-      <c r="AL15" s="1" t="n">
+      <c r="Q15" s="4" t="n">
         <v>2599712323.36435</v>
       </c>
-      <c r="AM15" s="1" t="n">
+      <c r="R15" s="4" t="n">
         <v>4094057336.38519</v>
       </c>
-      <c r="AN15" s="1" t="n">
+      <c r="S15" s="4" t="n">
         <v>3908802497.26215</v>
       </c>
-      <c r="AO15" s="1" t="n">
+      <c r="T15" s="4" t="n">
+        <v>4458355847.26505</v>
+      </c>
+      <c r="U15" s="4" t="n">
+        <v>4369650224.73042</v>
+      </c>
+      <c r="V15" s="4" t="n">
+        <v>4699071178.89809</v>
+      </c>
+      <c r="W15" s="4" t="n">
+        <v>4850016448.56147</v>
+      </c>
+      <c r="X15" s="4" t="n">
+        <v>4955992959.96183</v>
+      </c>
+      <c r="Y15" s="4" t="n">
+        <v>5709372064.09389</v>
+      </c>
+      <c r="Z15" s="4" t="n">
+        <v>5013806506.19783</v>
+      </c>
+      <c r="AA15" s="4" t="n">
+        <v>4072028850.05684</v>
+      </c>
+      <c r="AB15" s="4" t="n">
+        <v>3681332603.59352</v>
+      </c>
+      <c r="AC15" s="4" t="n">
+        <v>3965409970.99137</v>
+      </c>
+      <c r="AD15" s="4" t="n">
+        <v>3925896418.34846</v>
+      </c>
+      <c r="AE15" s="4" t="n">
+        <v>4013757906.23185</v>
+      </c>
+      <c r="AF15" s="4" t="n">
+        <v>3845377547.02842</v>
+      </c>
+      <c r="AG15" s="4" t="n">
+        <v>4270008223.06606</v>
+      </c>
+      <c r="AH15" s="4" t="n">
+        <v>4371049885.15483</v>
+      </c>
+      <c r="AI15" s="4" t="n">
+        <v>4101897678.78484</v>
+      </c>
+      <c r="AJ15" s="4" t="n">
+        <v>3755043611.49352</v>
+      </c>
+      <c r="AK15" s="4" t="n">
+        <v>3734616477.70695</v>
+      </c>
+      <c r="AL15" s="4" t="n">
+        <v>3639989639.37</v>
+      </c>
+      <c r="AM15" s="4" t="n">
+        <v>3961516035.13391</v>
+      </c>
+      <c r="AN15" s="4" t="n">
+        <v>1310868903.54299</v>
+      </c>
+      <c r="AO15" s="4" t="n">
         <v>4458355847.26505</v>
       </c>
       <c r="AP15" s="1" t="n">
@@ -2570,85 +2638,85 @@
       <c r="N16" t="s">
         <v>54</v>
       </c>
-      <c r="O16" s="1" t="n">
-        <v>1764950.20817931</v>
-      </c>
-      <c r="P16" s="1" t="n">
-        <v>4746991.19637794</v>
-      </c>
-      <c r="Q16" s="1" t="n">
-        <v>32947970.0785836</v>
-      </c>
-      <c r="R16" s="1" t="n">
-        <v>37621441.4967947</v>
-      </c>
-      <c r="S16" s="1" t="n">
-        <v>20017727.6975874</v>
-      </c>
-      <c r="T16" s="1" t="n">
-        <v>38770347.4700535</v>
-      </c>
-      <c r="U16" s="1" t="n">
-        <v>24933959.0105694</v>
-      </c>
-      <c r="V16" s="1" t="n">
-        <v>26697662.5115851</v>
-      </c>
-      <c r="W16" s="1" t="n">
-        <v>46552860.1832282</v>
-      </c>
-      <c r="X16" s="1" t="n">
-        <v>4723995.24702735</v>
-      </c>
-      <c r="Y16" s="1" t="n">
-        <v>3595212.32970286</v>
-      </c>
-      <c r="Z16" s="1" t="n">
-        <v>16562801.7532859</v>
-      </c>
-      <c r="AA16" s="1" t="n">
-        <v>4760590.21749591</v>
-      </c>
-      <c r="AB16" s="1" t="n">
-        <v>1445514.5230435</v>
-      </c>
-      <c r="AC16" s="1" t="n">
-        <v>66621.7058980796</v>
-      </c>
-      <c r="AD16" s="1" t="n">
-        <v>6566408.51845256</v>
-      </c>
-      <c r="AE16" s="1" t="n">
-        <v>15016142.2708558</v>
-      </c>
-      <c r="AF16" s="1" t="n">
-        <v>7759627.16119447</v>
-      </c>
-      <c r="AG16" s="1" t="n">
-        <v>6351035.23373137</v>
-      </c>
-      <c r="AH16" s="1" t="n">
-        <v>2395506.47716086</v>
-      </c>
-      <c r="AI16" s="1" t="n">
-        <v>1718970.62118847</v>
-      </c>
-      <c r="AJ16" s="1" t="n">
+      <c r="O16" s="4" t="n">
         <v>367722829.104708</v>
       </c>
-      <c r="AK16" s="1" t="n">
+      <c r="P16" s="4" t="n">
         <v>346130288.818736</v>
       </c>
-      <c r="AL16" s="1" t="n">
+      <c r="Q16" s="4" t="n">
         <v>1076420052.67064</v>
       </c>
-      <c r="AM16" s="1" t="n">
+      <c r="R16" s="4" t="n">
         <v>666045971.145293</v>
       </c>
-      <c r="AN16" s="1" t="n">
+      <c r="S16" s="4" t="n">
         <v>1499388982.97263</v>
       </c>
-      <c r="AO16" s="1" t="n">
+      <c r="T16" s="4" t="n">
+        <v>2016053145.36839</v>
+      </c>
+      <c r="U16" s="4" t="n">
+        <v>2179659484.9417</v>
+      </c>
+      <c r="V16" s="4" t="n">
+        <v>2138071039.80271</v>
+      </c>
+      <c r="W16" s="4" t="n">
+        <v>2061900445.70419</v>
+      </c>
+      <c r="X16" s="4" t="n">
+        <v>2706390276.84373</v>
+      </c>
+      <c r="Y16" s="4" t="n">
+        <v>3413335670.17283</v>
+      </c>
+      <c r="Z16" s="4" t="n">
+        <v>4040203496.31272</v>
+      </c>
+      <c r="AA16" s="4" t="n">
+        <v>5545712017.36451</v>
+      </c>
+      <c r="AB16" s="4" t="n">
+        <v>5182065180.09388</v>
+      </c>
+      <c r="AC16" s="4" t="n">
+        <v>6323660749.87945</v>
+      </c>
+      <c r="AD16" s="4" t="n">
+        <v>7241747014.82032</v>
+      </c>
+      <c r="AE16" s="4" t="n">
+        <v>7642675467.14385</v>
+      </c>
+      <c r="AF16" s="4" t="n">
+        <v>8616187727.57695</v>
+      </c>
+      <c r="AG16" s="4" t="n">
+        <v>8212128692.62144</v>
+      </c>
+      <c r="AH16" s="4" t="n">
+        <v>8701627683.18516</v>
+      </c>
+      <c r="AI16" s="4" t="n">
+        <v>10753287289.4948</v>
+      </c>
+      <c r="AJ16" s="4" t="n">
+        <v>10916336315.9951</v>
+      </c>
+      <c r="AK16" s="4" t="n">
+        <v>11689451124.138</v>
+      </c>
+      <c r="AL16" s="4" t="n">
+        <v>12985115874.5924</v>
+      </c>
+      <c r="AM16" s="4" t="n">
+        <v>14206765459.8212</v>
+      </c>
+      <c r="AN16" s="4" t="n">
+        <v>5041519089.85043</v>
+      </c>
+      <c r="AO16" s="4" t="n">
         <v>2016053145.36839</v>
       </c>
       <c r="AP16" s="1" t="n">
@@ -2726,85 +2794,85 @@
       <c r="N17" t="s">
         <v>55</v>
       </c>
-      <c r="O17" s="1" t="n">
-        <v>31703862.3971198</v>
-      </c>
-      <c r="P17" s="1" t="n">
-        <v>48190014.4207149</v>
-      </c>
-      <c r="Q17" s="1" t="n">
-        <v>49794435.4430763</v>
-      </c>
-      <c r="R17" s="1" t="n">
-        <v>40106409.1101365</v>
-      </c>
-      <c r="S17" s="1" t="n">
-        <v>28815426.2505693</v>
-      </c>
-      <c r="T17" s="1" t="n">
-        <v>23137824.9482815</v>
-      </c>
-      <c r="U17" s="1" t="n">
-        <v>16814414.3356659</v>
-      </c>
-      <c r="V17" s="1" t="n">
-        <v>8407173.97079987</v>
-      </c>
-      <c r="W17" s="1" t="n">
-        <v>12920859.6402895</v>
-      </c>
-      <c r="X17" s="1" t="n">
-        <v>4873432.30158393</v>
-      </c>
-      <c r="Y17" s="1" t="n">
-        <v>5456061.64525569</v>
-      </c>
-      <c r="Z17" s="1" t="n">
-        <v>3762204.84380957</v>
-      </c>
-      <c r="AA17" s="1" t="n">
-        <v>6609712.08888904</v>
-      </c>
-      <c r="AB17" s="1" t="n">
-        <v>8279564.31662383</v>
-      </c>
-      <c r="AC17" s="1" t="n">
-        <v>8440018.398631</v>
-      </c>
-      <c r="AD17" s="1" t="n">
-        <v>15900954.0747549</v>
-      </c>
-      <c r="AE17" s="1" t="n">
-        <v>51666328.1923859</v>
-      </c>
-      <c r="AF17" s="1" t="n">
-        <v>230879277.657847</v>
-      </c>
-      <c r="AG17" s="1" t="n">
-        <v>601955007.608617</v>
-      </c>
-      <c r="AH17" s="1" t="n">
-        <v>1694850655.51199</v>
-      </c>
-      <c r="AI17" s="1" t="n">
-        <v>3657717712.07657</v>
-      </c>
-      <c r="AJ17" s="1" t="n">
+      <c r="O17" s="4" t="n">
         <v>13874029694.895</v>
       </c>
-      <c r="AK17" s="1" t="n">
+      <c r="P17" s="4" t="n">
         <v>17611921577.3921</v>
       </c>
-      <c r="AL17" s="1" t="n">
+      <c r="Q17" s="4" t="n">
         <v>22210729061.9274</v>
       </c>
-      <c r="AM17" s="1" t="n">
+      <c r="R17" s="4" t="n">
         <v>26453808427.8966</v>
       </c>
-      <c r="AN17" s="1" t="n">
+      <c r="S17" s="4" t="n">
         <v>24627975139.7618</v>
       </c>
-      <c r="AO17" s="1" t="n">
+      <c r="T17" s="4" t="n">
+        <v>22404457897.9281</v>
+      </c>
+      <c r="U17" s="4" t="n">
+        <v>20014209995.2673</v>
+      </c>
+      <c r="V17" s="4" t="n">
+        <v>18006218361.4708</v>
+      </c>
+      <c r="W17" s="4" t="n">
+        <v>16863122956.481</v>
+      </c>
+      <c r="X17" s="4" t="n">
+        <v>17531667443.1501</v>
+      </c>
+      <c r="Y17" s="4" t="n">
+        <v>18051646404.4537</v>
+      </c>
+      <c r="Z17" s="4" t="n">
+        <v>17178774978.5153</v>
+      </c>
+      <c r="AA17" s="4" t="n">
+        <v>16832977934.7635</v>
+      </c>
+      <c r="AB17" s="4" t="n">
+        <v>15496514221.2867</v>
+      </c>
+      <c r="AC17" s="4" t="n">
+        <v>17573350353.9308</v>
+      </c>
+      <c r="AD17" s="4" t="n">
+        <v>17283917623.1415</v>
+      </c>
+      <c r="AE17" s="4" t="n">
+        <v>19144346279.1249</v>
+      </c>
+      <c r="AF17" s="4" t="n">
+        <v>20441858877.637</v>
+      </c>
+      <c r="AG17" s="4" t="n">
+        <v>22452722053.1312</v>
+      </c>
+      <c r="AH17" s="4" t="n">
+        <v>25391037446.5515</v>
+      </c>
+      <c r="AI17" s="4" t="n">
+        <v>29185145712.0378</v>
+      </c>
+      <c r="AJ17" s="4" t="n">
+        <v>29900125618.6658</v>
+      </c>
+      <c r="AK17" s="4" t="n">
+        <v>29911264393.0662</v>
+      </c>
+      <c r="AL17" s="4" t="n">
+        <v>31262689054.7069</v>
+      </c>
+      <c r="AM17" s="4" t="n">
+        <v>32150989699.6475</v>
+      </c>
+      <c r="AN17" s="4" t="n">
+        <v>11675238766.1942</v>
+      </c>
+      <c r="AO17" s="4" t="n">
         <v>22404457897.9281</v>
       </c>
       <c r="AP17" s="1" t="n">
@@ -2882,61 +2950,85 @@
       <c r="N18" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1" t="n">
-        <v>117816.620315545</v>
-      </c>
-      <c r="AB18" s="1" t="n">
-        <v>300012.44817884</v>
-      </c>
-      <c r="AC18" s="1" t="n">
-        <v>447317.16817282</v>
-      </c>
-      <c r="AD18" s="1" t="n">
-        <v>150887.685104867</v>
-      </c>
-      <c r="AE18" s="1" t="n">
-        <v>51075.3138464485</v>
-      </c>
-      <c r="AF18" s="1" t="n">
-        <v>5186811.23349801</v>
-      </c>
-      <c r="AG18" s="1" t="n">
-        <v>466896699.744576</v>
-      </c>
-      <c r="AH18" s="1" t="n">
-        <v>699339923.587898</v>
-      </c>
-      <c r="AI18" s="1" t="n">
-        <v>1198564299.49809</v>
-      </c>
-      <c r="AJ18" s="1" t="n">
+      <c r="O18" s="4" t="n">
         <v>4151011911.89489</v>
       </c>
-      <c r="AK18" s="1" t="n">
+      <c r="P18" s="4" t="n">
         <v>4853714512.73782</v>
       </c>
-      <c r="AL18" s="1" t="n">
+      <c r="Q18" s="4" t="n">
         <v>5449350850.76698</v>
       </c>
-      <c r="AM18" s="1" t="n">
+      <c r="R18" s="4" t="n">
         <v>7488323000.74824</v>
       </c>
-      <c r="AN18" s="1" t="n">
+      <c r="S18" s="4" t="n">
         <v>9209196445.17487</v>
       </c>
-      <c r="AO18" s="1" t="n">
+      <c r="T18" s="4" t="n">
+        <v>11236814595.8282</v>
+      </c>
+      <c r="U18" s="4" t="n">
+        <v>12970055527.8823</v>
+      </c>
+      <c r="V18" s="4" t="n">
+        <v>18961101678.1462</v>
+      </c>
+      <c r="W18" s="4" t="n">
+        <v>22483497843.2402</v>
+      </c>
+      <c r="X18" s="4" t="n">
+        <v>23866091002.0377</v>
+      </c>
+      <c r="Y18" s="4" t="n">
+        <v>24325788155.0474</v>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v>22908630483.1696</v>
+      </c>
+      <c r="AA18" s="4" t="n">
+        <v>21671782981.1783</v>
+      </c>
+      <c r="AB18" s="4" t="n">
+        <v>18962990193.6489</v>
+      </c>
+      <c r="AC18" s="4" t="n">
+        <v>19146632200.8262</v>
+      </c>
+      <c r="AD18" s="4" t="n">
+        <v>19510269948.9812</v>
+      </c>
+      <c r="AE18" s="4" t="n">
+        <v>21067506821.5703</v>
+      </c>
+      <c r="AF18" s="4" t="n">
+        <v>22419643529.193</v>
+      </c>
+      <c r="AG18" s="4" t="n">
+        <v>22790152407.5611</v>
+      </c>
+      <c r="AH18" s="4" t="n">
+        <v>22359463971.3839</v>
+      </c>
+      <c r="AI18" s="4" t="n">
+        <v>21445118543.0262</v>
+      </c>
+      <c r="AJ18" s="4" t="n">
+        <v>18475258769.1351</v>
+      </c>
+      <c r="AK18" s="4" t="n">
+        <v>17355535349.0138</v>
+      </c>
+      <c r="AL18" s="4" t="n">
+        <v>17630851869.4813</v>
+      </c>
+      <c r="AM18" s="4" t="n">
+        <v>17207428607.7043</v>
+      </c>
+      <c r="AN18" s="4" t="n">
+        <v>5917568003.23081</v>
+      </c>
+      <c r="AO18" s="4" t="n">
         <v>11236814595.8282</v>
       </c>
       <c r="AP18" s="1" t="n">
@@ -3014,69 +3106,85 @@
       <c r="N19" t="s">
         <v>57</v>
       </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1" t="n">
-        <v>131258.064426395</v>
-      </c>
-      <c r="X19" s="1" t="n">
-        <v>805175.77156604</v>
-      </c>
-      <c r="Y19" s="1" t="n">
-        <v>7344780.82382946</v>
-      </c>
-      <c r="Z19" s="1" t="n">
-        <v>6719848.0140392</v>
-      </c>
-      <c r="AA19" s="1" t="n">
-        <v>12119136.7575431</v>
-      </c>
-      <c r="AB19" s="1" t="n">
-        <v>25263385.8959948</v>
-      </c>
-      <c r="AC19" s="1" t="n">
-        <v>17418720.8763807</v>
-      </c>
-      <c r="AD19" s="1" t="n">
-        <v>8358432.63043876</v>
-      </c>
-      <c r="AE19" s="1" t="n">
-        <v>16462668.1237213</v>
-      </c>
-      <c r="AF19" s="1" t="n">
-        <v>30535404.0687983</v>
-      </c>
-      <c r="AG19" s="1" t="n">
-        <v>1720043857.66286</v>
-      </c>
-      <c r="AH19" s="1" t="n">
-        <v>2596235489.19152</v>
-      </c>
-      <c r="AI19" s="1" t="n">
-        <v>4409763570.02575</v>
-      </c>
-      <c r="AJ19" s="1" t="n">
+      <c r="O19" s="4" t="n">
         <v>15691432574.6525</v>
       </c>
-      <c r="AK19" s="1" t="n">
+      <c r="P19" s="4" t="n">
         <v>16018306383.4119</v>
       </c>
-      <c r="AL19" s="1" t="n">
+      <c r="Q19" s="4" t="n">
         <v>18377772570.5426</v>
       </c>
-      <c r="AM19" s="1" t="n">
+      <c r="R19" s="4" t="n">
         <v>22232090660.8196</v>
       </c>
-      <c r="AN19" s="1" t="n">
+      <c r="S19" s="4" t="n">
         <v>28976722186.3838</v>
       </c>
-      <c r="AO19" s="1" t="n">
+      <c r="T19" s="4" t="n">
+        <v>29784580717.1234</v>
+      </c>
+      <c r="U19" s="4" t="n">
+        <v>33261798573.3523</v>
+      </c>
+      <c r="V19" s="4" t="n">
+        <v>36770542798.8906</v>
+      </c>
+      <c r="W19" s="4" t="n">
+        <v>39682834525.6764</v>
+      </c>
+      <c r="X19" s="4" t="n">
+        <v>37045476948.0739</v>
+      </c>
+      <c r="Y19" s="4" t="n">
+        <v>36393369846.2622</v>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v>31753903989.0795</v>
+      </c>
+      <c r="AA19" s="4" t="n">
+        <v>26571842322.739</v>
+      </c>
+      <c r="AB19" s="4" t="n">
+        <v>22202192092.2761</v>
+      </c>
+      <c r="AC19" s="4" t="n">
+        <v>21276123943.6182</v>
+      </c>
+      <c r="AD19" s="4" t="n">
+        <v>19935874268.6885</v>
+      </c>
+      <c r="AE19" s="4" t="n">
+        <v>21919763141.4324</v>
+      </c>
+      <c r="AF19" s="4" t="n">
+        <v>22259813239.0173</v>
+      </c>
+      <c r="AG19" s="4" t="n">
+        <v>25902899482.7529</v>
+      </c>
+      <c r="AH19" s="4" t="n">
+        <v>28164423963.5025</v>
+      </c>
+      <c r="AI19" s="4" t="n">
+        <v>27672993277.0508</v>
+      </c>
+      <c r="AJ19" s="4" t="n">
+        <v>24332017740.7678</v>
+      </c>
+      <c r="AK19" s="4" t="n">
+        <v>25032693201.5562</v>
+      </c>
+      <c r="AL19" s="4" t="n">
+        <v>24769555515.7009</v>
+      </c>
+      <c r="AM19" s="4" t="n">
+        <v>24634476216.6031</v>
+      </c>
+      <c r="AN19" s="4" t="n">
+        <v>9050687651.75201</v>
+      </c>
+      <c r="AO19" s="4" t="n">
         <v>29784580717.1234</v>
       </c>
       <c r="AP19" s="1" t="n">
@@ -3154,85 +3262,85 @@
       <c r="N20" t="s">
         <v>58</v>
       </c>
-      <c r="O20" s="1" t="n">
-        <v>9164692.81251086</v>
-      </c>
-      <c r="P20" s="1" t="n">
-        <v>1342296.24648079</v>
-      </c>
-      <c r="Q20" s="1" t="n">
-        <v>19616338.3619328</v>
-      </c>
-      <c r="R20" s="1" t="n">
-        <v>25126680.0989744</v>
-      </c>
-      <c r="S20" s="1" t="n">
-        <v>42084128.6083033</v>
-      </c>
-      <c r="T20" s="1" t="n">
-        <v>87200320.1711764</v>
-      </c>
-      <c r="U20" s="1" t="n">
-        <v>48336927.6822005</v>
-      </c>
-      <c r="V20" s="1" t="n">
-        <v>97681897.2899629</v>
-      </c>
-      <c r="W20" s="1" t="n">
-        <v>195846243.216422</v>
-      </c>
-      <c r="X20" s="1" t="n">
-        <v>21405185.2623803</v>
-      </c>
-      <c r="Y20" s="1" t="n">
-        <v>4954404.11087854</v>
-      </c>
-      <c r="Z20" s="1" t="n">
-        <v>1466411.89349147</v>
-      </c>
-      <c r="AA20" s="1" t="n">
-        <v>4049696.71186313</v>
-      </c>
-      <c r="AB20" s="1" t="n">
-        <v>6458060.16696659</v>
-      </c>
-      <c r="AC20" s="1" t="n">
-        <v>33122408.6952138</v>
-      </c>
-      <c r="AD20" s="1" t="n">
-        <v>3656697.85013401</v>
-      </c>
-      <c r="AE20" s="1" t="n">
-        <v>7905728.93608956</v>
-      </c>
-      <c r="AF20" s="1" t="n">
-        <v>6592281.31230227</v>
-      </c>
-      <c r="AG20" s="1" t="n">
-        <v>151974504.240596</v>
-      </c>
-      <c r="AH20" s="1" t="n">
-        <v>174588868.074616</v>
-      </c>
-      <c r="AI20" s="1" t="n">
-        <v>165423648.662791</v>
-      </c>
-      <c r="AJ20" s="1" t="n">
+      <c r="O20" s="4" t="n">
         <v>3453813110.08952</v>
       </c>
-      <c r="AK20" s="1" t="n">
+      <c r="P20" s="4" t="n">
         <v>3965491537.44432</v>
       </c>
-      <c r="AL20" s="1" t="n">
+      <c r="Q20" s="4" t="n">
         <v>3629118310.82659</v>
       </c>
-      <c r="AM20" s="1" t="n">
+      <c r="R20" s="4" t="n">
         <v>2708032486.85803</v>
       </c>
-      <c r="AN20" s="1" t="n">
+      <c r="S20" s="4" t="n">
         <v>2350318647.64675</v>
       </c>
-      <c r="AO20" s="1" t="n">
+      <c r="T20" s="4" t="n">
+        <v>1183085803.20192</v>
+      </c>
+      <c r="U20" s="4" t="n">
+        <v>723111496.120964</v>
+      </c>
+      <c r="V20" s="4" t="n">
+        <v>513631826.161622</v>
+      </c>
+      <c r="W20" s="4" t="n">
+        <v>268098756.597283</v>
+      </c>
+      <c r="X20" s="4" t="n">
+        <v>171947034.577903</v>
+      </c>
+      <c r="Y20" s="4" t="n">
+        <v>86415120.7678814</v>
+      </c>
+      <c r="Z20" s="4" t="n">
+        <v>9474910.51667184</v>
+      </c>
+      <c r="AA20" s="4" t="n">
+        <v>47676754.9490738</v>
+      </c>
+      <c r="AB20" s="4" t="n">
+        <v>2618926.71728299</v>
+      </c>
+      <c r="AC20" s="4" t="n">
+        <v>7288096.25533019</v>
+      </c>
+      <c r="AD20" s="4" t="n">
+        <v>22798848.5573329</v>
+      </c>
+      <c r="AE20" s="4" t="n">
+        <v>7572298.72589084</v>
+      </c>
+      <c r="AF20" s="4" t="n">
+        <v>2538954.59986841</v>
+      </c>
+      <c r="AG20" s="4" t="n">
+        <v>894847.817592846</v>
+      </c>
+      <c r="AH20" s="4" t="n">
+        <v>459811.989007678</v>
+      </c>
+      <c r="AI20" s="4" t="n">
+        <v>410551.302448127</v>
+      </c>
+      <c r="AJ20" s="4" t="n">
+        <v>-8098345.0194715</v>
+      </c>
+      <c r="AK20" s="4" t="n">
+        <v>19869.185299654</v>
+      </c>
+      <c r="AL20" s="4" t="n">
+        <v>50115.8203</v>
+      </c>
+      <c r="AM20" s="4" t="n">
+        <v>52983.7661763009</v>
+      </c>
+      <c r="AN20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="4" t="n">
         <v>1183085803.20192</v>
       </c>
       <c r="AP20" s="1" t="n">
@@ -3306,69 +3414,81 @@
       </c>
       <c r="M21"/>
       <c r="N21"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1" t="n">
-        <v>-393774.193279186</v>
-      </c>
-      <c r="X21" s="1" t="n">
-        <v>4594631.82666494</v>
-      </c>
-      <c r="Y21" s="1" t="n">
-        <v>281101816.340287</v>
-      </c>
-      <c r="Z21" s="1" t="n">
-        <v>40750200551.9922</v>
-      </c>
-      <c r="AA21" s="1" t="n">
-        <v>38579533040.0956</v>
-      </c>
-      <c r="AB21" s="1" t="n">
-        <v>37771221399.0292</v>
-      </c>
-      <c r="AC21" s="1" t="n">
-        <v>34724386857.361</v>
-      </c>
-      <c r="AD21" s="1" t="n">
-        <v>32898656783.6698</v>
-      </c>
-      <c r="AE21" s="1" t="n">
-        <v>34128996983.7346</v>
-      </c>
-      <c r="AF21" s="1" t="n">
-        <v>32568514487.4155</v>
-      </c>
-      <c r="AG21" s="1" t="n">
-        <v>32435038512.61</v>
-      </c>
-      <c r="AH21" s="1" t="n">
-        <v>30380873712.047</v>
-      </c>
-      <c r="AI21" s="1" t="n">
-        <v>33603899563.8176</v>
-      </c>
-      <c r="AJ21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="1" t="n">
+      <c r="O21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4" t="n">
         <v>3081254.61475134</v>
       </c>
-      <c r="AO21" s="1" t="n">
+      <c r="T21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4" t="n">
+        <v>321236.841987522</v>
+      </c>
+      <c r="Z21" s="4" t="n">
+        <v>330928.727802499</v>
+      </c>
+      <c r="AA21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4" t="n">
+        <v>-10479.814603147</v>
+      </c>
+      <c r="AE21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4" t="n">
+        <v>2209788.97921449</v>
+      </c>
+      <c r="AG21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="4" t="n">
+        <v>355369.506231028</v>
+      </c>
+      <c r="AN21" s="4" t="n">
+        <v>-29603.6905382691</v>
+      </c>
+      <c r="AO21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AP21" s="1" t="n">
@@ -3436,33 +3556,33 @@
       <c r="B22" t="str">
         <f>N22</f>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>

--- a/Output/FedAcqTrends/Platform/Electronics_Comms_and_Sensors/Fed_Electronics_Comms_and_Sensors_Contracts.xlsx
+++ b/Output/FedAcqTrends/Platform/Electronics_Comms_and_Sensors/Fed_Electronics_Comms_and_Sensors_Contracts.xlsx
@@ -9,12 +9,13 @@
     <sheet name="FYQ" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Veh" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="PSR" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -234,16 +235,32 @@
   <si>
     <t xml:space="preserve">Incentive</t>
   </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products (All)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services (Non-R&amp;D)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlabeled</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -279,12 +296,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,85 +770,85 @@
       <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="O2" s="2" t="n">
         <v>10072839383.8344</v>
       </c>
-      <c r="P2" s="4" t="n">
+      <c r="P2" s="2" t="n">
         <v>9817086220.22</v>
       </c>
-      <c r="Q2" s="4" t="n">
+      <c r="Q2" s="2" t="n">
         <v>10874743943.14</v>
       </c>
-      <c r="R2" s="4" t="n">
+      <c r="R2" s="2" t="n">
         <v>11546708570.19</v>
       </c>
-      <c r="S2" s="4" t="n">
+      <c r="S2" s="2" t="n">
         <v>14282880642.79</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="T2" s="2" t="n">
         <v>15577844730.04</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="2" t="n">
         <v>14607001236.64</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="V2" s="2" t="n">
         <v>16933899095.58</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="2" t="n">
         <v>17170170285.67</v>
       </c>
-      <c r="X2" s="4" t="n">
+      <c r="X2" s="2" t="n">
         <v>16946725461.77</v>
       </c>
-      <c r="Y2" s="4" t="n">
+      <c r="Y2" s="2" t="n">
         <v>17754996441.3538</v>
       </c>
-      <c r="Z2" s="4" t="n">
+      <c r="Z2" s="2" t="n">
         <v>17781772614.1039</v>
       </c>
-      <c r="AA2" s="4" t="n">
+      <c r="AA2" s="2" t="n">
         <v>18187791891.5274</v>
       </c>
-      <c r="AB2" s="4" t="n">
+      <c r="AB2" s="2" t="n">
         <v>15977659307.3254</v>
       </c>
-      <c r="AC2" s="4" t="n">
+      <c r="AC2" s="2" t="n">
         <v>15763663503.1713</v>
       </c>
-      <c r="AD2" s="4" t="n">
+      <c r="AD2" s="2" t="n">
         <v>15512925649.0854</v>
       </c>
-      <c r="AE2" s="4" t="n">
+      <c r="AE2" s="2" t="n">
         <v>16047939845.7225</v>
       </c>
-      <c r="AF2" s="4" t="n">
+      <c r="AF2" s="2" t="n">
         <v>15966417108.2005</v>
       </c>
-      <c r="AG2" s="4" t="n">
+      <c r="AG2" s="2" t="n">
         <v>17077753975.83</v>
       </c>
-      <c r="AH2" s="4" t="n">
+      <c r="AH2" s="2" t="n">
         <v>17567020054.19</v>
       </c>
-      <c r="AI2" s="4" t="n">
+      <c r="AI2" s="2" t="n">
         <v>17546672181.27</v>
       </c>
-      <c r="AJ2" s="4" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>16176194780.42</v>
       </c>
-      <c r="AK2" s="4" t="n">
+      <c r="AK2" s="2" t="n">
         <v>17222609729.85</v>
       </c>
-      <c r="AL2" s="4" t="n">
+      <c r="AL2" s="2" t="n">
         <v>16908797626.95</v>
       </c>
-      <c r="AM2" s="4" t="n">
+      <c r="AM2" s="2" t="n">
         <v>17635398813.76</v>
       </c>
-      <c r="AN2" s="4" t="n">
+      <c r="AN2" s="2" t="n">
         <v>6730597375.9</v>
       </c>
-      <c r="AO2" s="4" t="n">
+      <c r="AO2" s="2" t="n">
         <v>14282880642.79</v>
       </c>
       <c r="AP2" s="1" t="n">
@@ -911,85 +929,85 @@
       <c r="N3" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="O3" s="2" t="n">
         <v>1450699942.0516</v>
       </c>
-      <c r="P3" s="4" t="n">
+      <c r="P3" s="2" t="n">
         <v>1527999782.26</v>
       </c>
-      <c r="Q3" s="4" t="n">
+      <c r="Q3" s="2" t="n">
         <v>1608767664.83</v>
       </c>
-      <c r="R3" s="4" t="n">
+      <c r="R3" s="2" t="n">
         <v>2582137089.6</v>
       </c>
-      <c r="S3" s="4" t="n">
+      <c r="S3" s="2" t="n">
         <v>2525495641.4</v>
       </c>
-      <c r="T3" s="4" t="n">
+      <c r="T3" s="2" t="n">
         <v>2968219706</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="2" t="n">
         <v>3003664704.71</v>
       </c>
-      <c r="V3" s="4" t="n">
+      <c r="V3" s="2" t="n">
         <v>3319029384.35</v>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="W3" s="2" t="n">
         <v>3496763724.18</v>
       </c>
-      <c r="X3" s="4" t="n">
+      <c r="X3" s="2" t="n">
         <v>3609710283.63</v>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Y3" s="2" t="n">
         <v>4194449798.4403</v>
       </c>
-      <c r="Z3" s="4" t="n">
+      <c r="Z3" s="2" t="n">
         <v>3757377069.6606</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="2" t="n">
         <v>3106977692.7088</v>
       </c>
-      <c r="AB3" s="4" t="n">
+      <c r="AB3" s="2" t="n">
         <v>2859840836.5541</v>
       </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AC3" s="2" t="n">
         <v>3136724721.812</v>
       </c>
-      <c r="AD3" s="4" t="n">
+      <c r="AD3" s="2" t="n">
         <v>3137629676.2549</v>
       </c>
-      <c r="AE3" s="4" t="n">
+      <c r="AE3" s="2" t="n">
         <v>3233496783.2393</v>
       </c>
-      <c r="AF3" s="4" t="n">
+      <c r="AF3" s="2" t="n">
         <v>3150141350.2824</v>
       </c>
-      <c r="AG3" s="4" t="n">
+      <c r="AG3" s="2" t="n">
         <v>3575655285.58</v>
       </c>
-      <c r="AH3" s="4" t="n">
+      <c r="AH3" s="2" t="n">
         <v>3727943011.03</v>
       </c>
-      <c r="AI3" s="4" t="n">
+      <c r="AI3" s="2" t="n">
         <v>3544090671.3</v>
       </c>
-      <c r="AJ3" s="4" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>3356068305.19</v>
       </c>
-      <c r="AK3" s="4" t="n">
+      <c r="AK3" s="2" t="n">
         <v>3571244215.92</v>
       </c>
-      <c r="AL3" s="4" t="n">
+      <c r="AL3" s="2" t="n">
         <v>3639989639.37</v>
       </c>
-      <c r="AM3" s="4" t="n">
+      <c r="AM3" s="2" t="n">
         <v>4067312234.83</v>
       </c>
-      <c r="AN3" s="4" t="n">
+      <c r="AN3" s="2" t="n">
         <v>1375408283.44</v>
       </c>
-      <c r="AO3" s="4" t="n">
+      <c r="AO3" s="2" t="n">
         <v>2525495641.4</v>
       </c>
       <c r="AP3" s="1" t="n">
@@ -1070,85 +1088,85 @@
       <c r="N4" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="O4" s="2" t="n">
         <v>218729865.0995</v>
       </c>
-      <c r="P4" s="4" t="n">
+      <c r="P4" s="2" t="n">
         <v>210876624.8381</v>
       </c>
-      <c r="Q4" s="4" t="n">
+      <c r="Q4" s="2" t="n">
         <v>666115923.2688</v>
       </c>
-      <c r="R4" s="4" t="n">
+      <c r="R4" s="2" t="n">
         <v>420077655.0412</v>
       </c>
-      <c r="S4" s="4" t="n">
+      <c r="S4" s="2" t="n">
         <v>968762260.0305</v>
       </c>
-      <c r="T4" s="4" t="n">
+      <c r="T4" s="2" t="n">
         <v>1342218719.0591</v>
       </c>
-      <c r="U4" s="4" t="n">
+      <c r="U4" s="2" t="n">
         <v>1498281538.9096</v>
       </c>
-      <c r="V4" s="4" t="n">
+      <c r="V4" s="2" t="n">
         <v>1510153887.1767</v>
       </c>
-      <c r="W4" s="4" t="n">
+      <c r="W4" s="2" t="n">
         <v>1486588500.8591</v>
       </c>
-      <c r="X4" s="4" t="n">
+      <c r="X4" s="2" t="n">
         <v>1971206354.158</v>
       </c>
-      <c r="Y4" s="4" t="n">
+      <c r="Y4" s="2" t="n">
         <v>2507642688.7302</v>
       </c>
-      <c r="Z4" s="4" t="n">
+      <c r="Z4" s="2" t="n">
         <v>3027753056.4936</v>
       </c>
-      <c r="AA4" s="4" t="n">
+      <c r="AA4" s="2" t="n">
         <v>4231405071.6753</v>
       </c>
-      <c r="AB4" s="4" t="n">
+      <c r="AB4" s="2" t="n">
         <v>4025683961.6315</v>
       </c>
-      <c r="AC4" s="4" t="n">
+      <c r="AC4" s="2" t="n">
         <v>5002151896.4255</v>
       </c>
-      <c r="AD4" s="4" t="n">
+      <c r="AD4" s="2" t="n">
         <v>5787702455.7844</v>
       </c>
-      <c r="AE4" s="4" t="n">
+      <c r="AE4" s="2" t="n">
         <v>6156964898.1525</v>
       </c>
-      <c r="AF4" s="4" t="n">
+      <c r="AF4" s="2" t="n">
         <v>7058399054.5767</v>
       </c>
-      <c r="AG4" s="4" t="n">
+      <c r="AG4" s="2" t="n">
         <v>6876741175.1143</v>
       </c>
-      <c r="AH4" s="4" t="n">
+      <c r="AH4" s="2" t="n">
         <v>7421368540.379</v>
       </c>
-      <c r="AI4" s="4" t="n">
+      <c r="AI4" s="2" t="n">
         <v>9290974118.0568</v>
       </c>
-      <c r="AJ4" s="4" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>9756469993.2564</v>
       </c>
-      <c r="AK4" s="4" t="n">
+      <c r="AK4" s="2" t="n">
         <v>11178091502.4477</v>
       </c>
-      <c r="AL4" s="4" t="n">
+      <c r="AL4" s="2" t="n">
         <v>12985115874.5924</v>
       </c>
-      <c r="AM4" s="4" t="n">
+      <c r="AM4" s="2" t="n">
         <v>14586171167.71</v>
       </c>
-      <c r="AN4" s="4" t="n">
+      <c r="AN4" s="2" t="n">
         <v>5289733472.63</v>
       </c>
-      <c r="AO4" s="4" t="n">
+      <c r="AO4" s="2" t="n">
         <v>968762260.0305</v>
       </c>
       <c r="AP4" s="1" t="n">
@@ -1229,85 +1247,85 @@
       <c r="N5" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="O5" s="2" t="n">
         <v>8252587012.1779</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="P5" s="2" t="n">
         <v>10729897668.9633</v>
       </c>
-      <c r="Q5" s="4" t="n">
+      <c r="Q5" s="2" t="n">
         <v>13744560275.3797</v>
       </c>
-      <c r="R5" s="4" t="n">
+      <c r="R5" s="2" t="n">
         <v>16684514722.2965</v>
       </c>
-      <c r="S5" s="4" t="n">
+      <c r="S5" s="2" t="n">
         <v>15912250341.5154</v>
       </c>
-      <c r="T5" s="4" t="n">
+      <c r="T5" s="2" t="n">
         <v>14916116100.4392</v>
       </c>
-      <c r="U5" s="4" t="n">
+      <c r="U5" s="2" t="n">
         <v>13757617443.8876</v>
       </c>
-      <c r="V5" s="4" t="n">
+      <c r="V5" s="2" t="n">
         <v>12718080992.4991</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="W5" s="2" t="n">
         <v>12157970443.1929</v>
       </c>
-      <c r="X5" s="4" t="n">
+      <c r="X5" s="2" t="n">
         <v>12769235301.5787</v>
       </c>
-      <c r="Y5" s="4" t="n">
+      <c r="Y5" s="2" t="n">
         <v>13261830508.272</v>
       </c>
-      <c r="Z5" s="4" t="n">
+      <c r="Z5" s="2" t="n">
         <v>12873878381.4937</v>
       </c>
-      <c r="AA5" s="4" t="n">
+      <c r="AA5" s="2" t="n">
         <v>12843643518.0069</v>
       </c>
-      <c r="AB5" s="4" t="n">
+      <c r="AB5" s="2" t="n">
         <v>12038456984.5758</v>
       </c>
-      <c r="AC5" s="4" t="n">
+      <c r="AC5" s="2" t="n">
         <v>13900898747.7926</v>
       </c>
-      <c r="AD5" s="4" t="n">
+      <c r="AD5" s="2" t="n">
         <v>13813541438.0412</v>
       </c>
-      <c r="AE5" s="4" t="n">
+      <c r="AE5" s="2" t="n">
         <v>15422749342.8683</v>
       </c>
-      <c r="AF5" s="4" t="n">
+      <c r="AF5" s="2" t="n">
         <v>16746013659.1383</v>
       </c>
-      <c r="AG5" s="4" t="n">
+      <c r="AG5" s="2" t="n">
         <v>18801648636.4727</v>
       </c>
-      <c r="AH5" s="4" t="n">
+      <c r="AH5" s="2" t="n">
         <v>21655287191.5622</v>
       </c>
-      <c r="AI5" s="4" t="n">
+      <c r="AI5" s="2" t="n">
         <v>25216329308.6351</v>
       </c>
-      <c r="AJ5" s="4" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>26723221962.8182</v>
       </c>
-      <c r="AK5" s="4" t="n">
+      <c r="AK5" s="2" t="n">
         <v>28602784406.9759</v>
       </c>
-      <c r="AL5" s="4" t="n">
+      <c r="AL5" s="2" t="n">
         <v>31262689054.7069</v>
       </c>
-      <c r="AM5" s="4" t="n">
+      <c r="AM5" s="2" t="n">
         <v>33009613644.7544</v>
       </c>
-      <c r="AN5" s="4" t="n">
+      <c r="AN5" s="2" t="n">
         <v>12250058008.67</v>
       </c>
-      <c r="AO5" s="4" t="n">
+      <c r="AO5" s="2" t="n">
         <v>15912250341.5154</v>
       </c>
       <c r="AP5" s="1" t="n">
@@ -1388,85 +1406,85 @@
       <c r="N6" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="O6" s="2" t="n">
         <v>2469115876.5578</v>
       </c>
-      <c r="P6" s="4" t="n">
+      <c r="P6" s="2" t="n">
         <v>2957079941.9691</v>
       </c>
-      <c r="Q6" s="4" t="n">
+      <c r="Q6" s="2" t="n">
         <v>3372195978.8545</v>
       </c>
-      <c r="R6" s="4" t="n">
+      <c r="R6" s="2" t="n">
         <v>4722912985.9254</v>
       </c>
-      <c r="S6" s="4" t="n">
+      <c r="S6" s="2" t="n">
         <v>5950105051.1956</v>
       </c>
-      <c r="T6" s="4" t="n">
+      <c r="T6" s="2" t="n">
         <v>7481083982.2187</v>
       </c>
-      <c r="U6" s="4" t="n">
+      <c r="U6" s="2" t="n">
         <v>8915518635.0487</v>
       </c>
-      <c r="V6" s="4" t="n">
+      <c r="V6" s="2" t="n">
         <v>13392530403.0344</v>
       </c>
-      <c r="W6" s="4" t="n">
+      <c r="W6" s="2" t="n">
         <v>16210147013.8808</v>
       </c>
-      <c r="X6" s="4" t="n">
+      <c r="X6" s="2" t="n">
         <v>17382929075.1794</v>
       </c>
-      <c r="Y6" s="4" t="n">
+      <c r="Y6" s="2" t="n">
         <v>17871194253.6597</v>
       </c>
-      <c r="Z6" s="4" t="n">
+      <c r="Z6" s="2" t="n">
         <v>17167866922.7434</v>
       </c>
-      <c r="AA6" s="4" t="n">
+      <c r="AA6" s="2" t="n">
         <v>16535675154.3662</v>
       </c>
-      <c r="AB6" s="4" t="n">
+      <c r="AB6" s="2" t="n">
         <v>14731386587.0295</v>
       </c>
-      <c r="AC6" s="4" t="n">
+      <c r="AC6" s="2" t="n">
         <v>15145398585.0443</v>
       </c>
-      <c r="AD6" s="4" t="n">
+      <c r="AD6" s="2" t="n">
         <v>15592872419.5479</v>
       </c>
-      <c r="AE6" s="4" t="n">
+      <c r="AE6" s="2" t="n">
         <v>16972053903.0648</v>
       </c>
-      <c r="AF6" s="4" t="n">
+      <c r="AF6" s="2" t="n">
         <v>18366218993.1074</v>
       </c>
-      <c r="AG6" s="4" t="n">
+      <c r="AG6" s="2" t="n">
         <v>19084208895.6813</v>
       </c>
-      <c r="AH6" s="4" t="n">
+      <c r="AH6" s="2" t="n">
         <v>19069745171.6557</v>
       </c>
-      <c r="AI6" s="4" t="n">
+      <c r="AI6" s="2" t="n">
         <v>18528849455.7907</v>
       </c>
-      <c r="AJ6" s="4" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>16512253065.582</v>
       </c>
-      <c r="AK6" s="4" t="n">
+      <c r="AK6" s="2" t="n">
         <v>16596310651.8013</v>
       </c>
-      <c r="AL6" s="4" t="n">
+      <c r="AL6" s="2" t="n">
         <v>17630851869.4813</v>
       </c>
-      <c r="AM6" s="4" t="n">
+      <c r="AM6" s="2" t="n">
         <v>17666969989.6125</v>
       </c>
-      <c r="AN6" s="4" t="n">
+      <c r="AN6" s="2" t="n">
         <v>6208913818.51</v>
       </c>
-      <c r="AO6" s="4" t="n">
+      <c r="AO6" s="2" t="n">
         <v>5950105051.1956</v>
       </c>
       <c r="AP6" s="1" t="n">
@@ -1547,85 +1565,85 @@
       <c r="N7" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="O7" s="2" t="n">
         <v>9333619396.5111</v>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="P7" s="2" t="n">
         <v>9759002592.0137</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="Q7" s="2" t="n">
         <v>11372629962.698</v>
       </c>
-      <c r="R7" s="4" t="n">
+      <c r="R7" s="2" t="n">
         <v>14021861727.3539</v>
       </c>
-      <c r="S7" s="4" t="n">
+      <c r="S7" s="2" t="n">
         <v>18721996221.3565</v>
       </c>
-      <c r="T7" s="4" t="n">
+      <c r="T7" s="2" t="n">
         <v>19829547583.9476</v>
       </c>
-      <c r="U7" s="4" t="n">
+      <c r="U7" s="2" t="n">
         <v>22863910210.5971</v>
       </c>
-      <c r="V7" s="4" t="n">
+      <c r="V7" s="2" t="n">
         <v>25971624472.5273</v>
       </c>
-      <c r="W7" s="4" t="n">
+      <c r="W7" s="2" t="n">
         <v>28610520750.5389</v>
       </c>
-      <c r="X7" s="4" t="n">
+      <c r="X7" s="2" t="n">
         <v>26982168897.6875</v>
       </c>
-      <c r="Y7" s="4" t="n">
+      <c r="Y7" s="2" t="n">
         <v>26736769140.7311</v>
       </c>
-      <c r="Z7" s="4" t="n">
+      <c r="Z7" s="2" t="n">
         <v>23796568649.6446</v>
       </c>
-      <c r="AA7" s="4" t="n">
+      <c r="AA7" s="2" t="n">
         <v>20274444113.9638</v>
       </c>
-      <c r="AB7" s="4" t="n">
+      <c r="AB7" s="2" t="n">
         <v>17247758473.2576</v>
       </c>
-      <c r="AC7" s="4" t="n">
+      <c r="AC7" s="2" t="n">
         <v>16829872433.4924</v>
       </c>
-      <c r="AD7" s="4" t="n">
+      <c r="AD7" s="2" t="n">
         <v>15933021165.6062</v>
       </c>
-      <c r="AE7" s="4" t="n">
+      <c r="AE7" s="2" t="n">
         <v>17658634442.5864</v>
       </c>
-      <c r="AF7" s="4" t="n">
+      <c r="AF7" s="2" t="n">
         <v>18235285684.2313</v>
       </c>
-      <c r="AG7" s="4" t="n">
+      <c r="AG7" s="2" t="n">
         <v>21690787138.7769</v>
       </c>
-      <c r="AH7" s="4" t="n">
+      <c r="AH7" s="2" t="n">
         <v>24020628963.9968</v>
       </c>
-      <c r="AI7" s="4" t="n">
+      <c r="AI7" s="2" t="n">
         <v>23909810775.4842</v>
       </c>
-      <c r="AJ7" s="4" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>21746728397.8181</v>
       </c>
-      <c r="AK7" s="4" t="n">
+      <c r="AK7" s="2" t="n">
         <v>23937628224.6384</v>
       </c>
-      <c r="AL7" s="4" t="n">
+      <c r="AL7" s="2" t="n">
         <v>24769555515.7009</v>
       </c>
-      <c r="AM7" s="4" t="n">
+      <c r="AM7" s="2" t="n">
         <v>25292364242.83</v>
       </c>
-      <c r="AN7" s="4" t="n">
+      <c r="AN7" s="2" t="n">
         <v>9496289623.93</v>
       </c>
-      <c r="AO7" s="4" t="n">
+      <c r="AO7" s="2" t="n">
         <v>18721996221.3565</v>
       </c>
       <c r="AP7" s="1" t="n">
@@ -1706,85 +1724,85 @@
       <c r="N8" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="4" t="n">
+      <c r="O8" s="2" t="n">
         <v>2054406242.5715</v>
       </c>
-      <c r="P8" s="4" t="n">
+      <c r="P8" s="2" t="n">
         <v>2415938443.5675</v>
       </c>
-      <c r="Q8" s="4" t="n">
+      <c r="Q8" s="2" t="n">
         <v>2245790096.7845</v>
       </c>
-      <c r="R8" s="4" t="n">
+      <c r="R8" s="2" t="n">
         <v>1707966095.6414</v>
       </c>
-      <c r="S8" s="4" t="n">
+      <c r="S8" s="2" t="n">
         <v>1518551910.6403</v>
       </c>
-      <c r="T8" s="4" t="n">
+      <c r="T8" s="2" t="n">
         <v>787657763.3674</v>
       </c>
-      <c r="U8" s="4" t="n">
+      <c r="U8" s="2" t="n">
         <v>497061404.6351</v>
       </c>
-      <c r="V8" s="4" t="n">
+      <c r="V8" s="2" t="n">
         <v>362786401.5815</v>
       </c>
-      <c r="W8" s="4" t="n">
+      <c r="W8" s="2" t="n">
         <v>193293778.7964</v>
       </c>
-      <c r="X8" s="4" t="n">
+      <c r="X8" s="2" t="n">
         <v>125238067.1179</v>
       </c>
-      <c r="Y8" s="4" t="n">
+      <c r="Y8" s="2" t="n">
         <v>63485770.7324</v>
       </c>
-      <c r="Z8" s="4" t="n">
+      <c r="Z8" s="2" t="n">
         <v>7100555.5297</v>
       </c>
-      <c r="AA8" s="4" t="n">
+      <c r="AA8" s="2" t="n">
         <v>36377594.4479</v>
       </c>
-      <c r="AB8" s="4" t="n">
+      <c r="AB8" s="2" t="n">
         <v>2034511.5154</v>
       </c>
-      <c r="AC8" s="4" t="n">
+      <c r="AC8" s="2" t="n">
         <v>5765041.16</v>
       </c>
-      <c r="AD8" s="4" t="n">
+      <c r="AD8" s="2" t="n">
         <v>18221149.0562</v>
       </c>
-      <c r="AE8" s="4" t="n">
+      <c r="AE8" s="2" t="n">
         <v>6100269.1602</v>
       </c>
-      <c r="AF8" s="4" t="n">
+      <c r="AF8" s="2" t="n">
         <v>2079916.9324</v>
       </c>
-      <c r="AG8" s="4" t="n">
+      <c r="AG8" s="2" t="n">
         <v>749335.1679</v>
       </c>
-      <c r="AH8" s="4" t="n">
+      <c r="AH8" s="2" t="n">
         <v>392160.4502</v>
       </c>
-      <c r="AI8" s="4" t="n">
+      <c r="AI8" s="2" t="n">
         <v>354721.4375</v>
       </c>
-      <c r="AJ8" s="4" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>-7237891.7148</v>
       </c>
-      <c r="AK8" s="4" t="n">
+      <c r="AK8" s="2" t="n">
         <v>19000</v>
       </c>
-      <c r="AL8" s="4" t="n">
+      <c r="AL8" s="2" t="n">
         <v>50115.8203</v>
       </c>
-      <c r="AM8" s="4" t="n">
+      <c r="AM8" s="2" t="n">
         <v>54398.75</v>
       </c>
-      <c r="AN8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="4" t="n">
+      <c r="AN8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2" t="n">
         <v>1518551910.6403</v>
       </c>
       <c r="AP8" s="1" t="n">
@@ -1861,81 +1879,81 @@
       </c>
       <c r="M9"/>
       <c r="N9"/>
-      <c r="O9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="n">
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2" t="n">
         <v>1990813.07</v>
       </c>
-      <c r="T9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4" t="n">
+      <c r="T9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2" t="n">
         <v>236000</v>
       </c>
-      <c r="Z9" s="4" t="n">
+      <c r="Z9" s="2" t="n">
         <v>248000</v>
       </c>
-      <c r="AA9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4" t="n">
+      <c r="AA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2" t="n">
         <v>-8375.61</v>
       </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
+      <c r="AE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2" t="n">
         <v>1810263.7657</v>
       </c>
-      <c r="AG9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="4" t="n">
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
         <v>364860</v>
       </c>
-      <c r="AN9" s="4" t="n">
+      <c r="AN9" s="2" t="n">
         <v>-31061.2</v>
       </c>
-      <c r="AO9" s="4" t="n">
+      <c r="AO9" s="2" t="n">
         <v>1990813.07</v>
       </c>
       <c r="AP9" s="1" t="n">
@@ -2012,85 +2030,85 @@
       <c r="N10" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="4" t="str">
+      <c r="O10" s="2" t="str">
         <f>Sum(O2:O9)</f>
       </c>
-      <c r="P10" s="4" t="str">
+      <c r="P10" s="2" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="4" t="str">
+      <c r="Q10" s="2" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="4" t="str">
+      <c r="R10" s="2" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="4" t="str">
+      <c r="S10" s="2" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="4" t="str">
+      <c r="T10" s="2" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="4" t="str">
+      <c r="U10" s="2" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="4" t="str">
+      <c r="V10" s="2" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="4" t="str">
+      <c r="W10" s="2" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="4" t="str">
+      <c r="X10" s="2" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="4" t="str">
+      <c r="Y10" s="2" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="4" t="str">
+      <c r="Z10" s="2" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="4" t="str">
+      <c r="AA10" s="2" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="4" t="str">
+      <c r="AB10" s="2" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="4" t="str">
+      <c r="AC10" s="2" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="4" t="str">
+      <c r="AD10" s="2" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="4" t="str">
+      <c r="AE10" s="2" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="4" t="str">
+      <c r="AF10" s="2" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="4" t="str">
+      <c r="AG10" s="2" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="4" t="str">
+      <c r="AH10" s="2" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="4" t="str">
+      <c r="AI10" s="2" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="4" t="str">
+      <c r="AJ10" s="2" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="4" t="str">
+      <c r="AK10" s="2" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="4" t="str">
+      <c r="AL10" s="2" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="4" t="str">
+      <c r="AM10" s="2" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="4" t="str">
+      <c r="AN10" s="2" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="4" t="str">
+      <c r="AO10" s="2" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
       <c r="AP10" s="1" t="str">
@@ -2326,85 +2344,85 @@
       <c r="N14" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="4" t="n">
+      <c r="O14" s="2" t="n">
         <v>16934189547.7143</v>
       </c>
-      <c r="P14" s="4" t="n">
+      <c r="P14" s="2" t="n">
         <v>16113644133.7298</v>
       </c>
-      <c r="Q14" s="4" t="n">
+      <c r="Q14" s="2" t="n">
         <v>17573206162.9921</v>
       </c>
-      <c r="R14" s="4" t="n">
+      <c r="R14" s="2" t="n">
         <v>18307659621.6707</v>
       </c>
-      <c r="S14" s="4" t="n">
+      <c r="S14" s="2" t="n">
         <v>22106139725.3833</v>
       </c>
-      <c r="T14" s="4" t="n">
+      <c r="T14" s="2" t="n">
         <v>23398394330.302</v>
       </c>
-      <c r="U14" s="4" t="n">
+      <c r="U14" s="2" t="n">
         <v>21249870578.5085</v>
       </c>
-      <c r="V14" s="4" t="n">
+      <c r="V14" s="2" t="n">
         <v>23974960137.9296</v>
       </c>
-      <c r="W14" s="4" t="n">
+      <c r="W14" s="2" t="n">
         <v>23815051538.7279</v>
       </c>
-      <c r="X14" s="4" t="n">
+      <c r="X14" s="2" t="n">
         <v>23267200269.1801</v>
       </c>
-      <c r="Y14" s="4" t="n">
+      <c r="Y14" s="2" t="n">
         <v>24167622823.3906</v>
       </c>
-      <c r="Z14" s="4" t="n">
+      <c r="Z14" s="2" t="n">
         <v>23727820117.9787</v>
       </c>
-      <c r="AA14" s="4" t="n">
+      <c r="AA14" s="2" t="n">
         <v>23837059878.135</v>
       </c>
-      <c r="AB14" s="4" t="n">
+      <c r="AB14" s="2" t="n">
         <v>20567255836.5308</v>
       </c>
-      <c r="AC14" s="4" t="n">
+      <c r="AC14" s="2" t="n">
         <v>19928235334.1859</v>
       </c>
-      <c r="AD14" s="4" t="n">
+      <c r="AD14" s="2" t="n">
         <v>19410238150.3937</v>
       </c>
-      <c r="AE14" s="4" t="n">
+      <c r="AE14" s="2" t="n">
         <v>19920398798.1004</v>
       </c>
-      <c r="AF14" s="4" t="n">
+      <c r="AF14" s="2" t="n">
         <v>19490205367.7244</v>
       </c>
-      <c r="AG14" s="4" t="n">
+      <c r="AG14" s="2" t="n">
         <v>20394066005.8523</v>
       </c>
-      <c r="AH14" s="4" t="n">
+      <c r="AH14" s="2" t="n">
         <v>20597503975.5676</v>
       </c>
-      <c r="AI14" s="4" t="n">
+      <c r="AI14" s="2" t="n">
         <v>20308355673.1773</v>
       </c>
-      <c r="AJ14" s="4" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>18099249283.6203</v>
       </c>
-      <c r="AK14" s="4" t="n">
+      <c r="AK14" s="2" t="n">
         <v>18010485477.1586</v>
       </c>
-      <c r="AL14" s="4" t="n">
+      <c r="AL14" s="2" t="n">
         <v>16908797626.95</v>
       </c>
-      <c r="AM14" s="4" t="n">
+      <c r="AM14" s="2" t="n">
         <v>17176678640.1172</v>
       </c>
-      <c r="AN14" s="4" t="n">
+      <c r="AN14" s="2" t="n">
         <v>6414772186.96733</v>
       </c>
-      <c r="AO14" s="4" t="n">
+      <c r="AO14" s="2" t="n">
         <v>23398394330.302</v>
       </c>
       <c r="AP14" s="1" t="n">
@@ -2482,85 +2500,85 @@
       <c r="N15" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="4" t="n">
+      <c r="O15" s="2" t="n">
         <v>2438878141.44896</v>
       </c>
-      <c r="P15" s="4" t="n">
+      <c r="P15" s="2" t="n">
         <v>2508039980.03416</v>
       </c>
-      <c r="Q15" s="4" t="n">
+      <c r="Q15" s="2" t="n">
         <v>2599712323.36435</v>
       </c>
-      <c r="R15" s="4" t="n">
+      <c r="R15" s="2" t="n">
         <v>4094057336.38519</v>
       </c>
-      <c r="S15" s="4" t="n">
+      <c r="S15" s="2" t="n">
         <v>3908802497.26215</v>
       </c>
-      <c r="T15" s="4" t="n">
+      <c r="T15" s="2" t="n">
         <v>4458355847.26505</v>
       </c>
-      <c r="U15" s="4" t="n">
+      <c r="U15" s="2" t="n">
         <v>4369650224.73042</v>
       </c>
-      <c r="V15" s="4" t="n">
+      <c r="V15" s="2" t="n">
         <v>4699071178.89809</v>
       </c>
-      <c r="W15" s="4" t="n">
+      <c r="W15" s="2" t="n">
         <v>4850016448.56147</v>
       </c>
-      <c r="X15" s="4" t="n">
+      <c r="X15" s="2" t="n">
         <v>4955992959.96183</v>
       </c>
-      <c r="Y15" s="4" t="n">
+      <c r="Y15" s="2" t="n">
         <v>5709372064.09389</v>
       </c>
-      <c r="Z15" s="4" t="n">
+      <c r="Z15" s="2" t="n">
         <v>5013806506.19783</v>
       </c>
-      <c r="AA15" s="4" t="n">
+      <c r="AA15" s="2" t="n">
         <v>4072028850.05684</v>
       </c>
-      <c r="AB15" s="4" t="n">
+      <c r="AB15" s="2" t="n">
         <v>3681332603.59352</v>
       </c>
-      <c r="AC15" s="4" t="n">
+      <c r="AC15" s="2" t="n">
         <v>3965409970.99137</v>
       </c>
-      <c r="AD15" s="4" t="n">
+      <c r="AD15" s="2" t="n">
         <v>3925896418.34846</v>
       </c>
-      <c r="AE15" s="4" t="n">
+      <c r="AE15" s="2" t="n">
         <v>4013757906.23185</v>
       </c>
-      <c r="AF15" s="4" t="n">
+      <c r="AF15" s="2" t="n">
         <v>3845377547.02842</v>
       </c>
-      <c r="AG15" s="4" t="n">
+      <c r="AG15" s="2" t="n">
         <v>4270008223.06606</v>
       </c>
-      <c r="AH15" s="4" t="n">
+      <c r="AH15" s="2" t="n">
         <v>4371049885.15483</v>
       </c>
-      <c r="AI15" s="4" t="n">
+      <c r="AI15" s="2" t="n">
         <v>4101897678.78484</v>
       </c>
-      <c r="AJ15" s="4" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>3755043611.49352</v>
       </c>
-      <c r="AK15" s="4" t="n">
+      <c r="AK15" s="2" t="n">
         <v>3734616477.70695</v>
       </c>
-      <c r="AL15" s="4" t="n">
+      <c r="AL15" s="2" t="n">
         <v>3639989639.37</v>
       </c>
-      <c r="AM15" s="4" t="n">
+      <c r="AM15" s="2" t="n">
         <v>3961516035.13391</v>
       </c>
-      <c r="AN15" s="4" t="n">
+      <c r="AN15" s="2" t="n">
         <v>1310868903.54299</v>
       </c>
-      <c r="AO15" s="4" t="n">
+      <c r="AO15" s="2" t="n">
         <v>4458355847.26505</v>
       </c>
       <c r="AP15" s="1" t="n">
@@ -2638,85 +2656,85 @@
       <c r="N16" t="s">
         <v>54</v>
       </c>
-      <c r="O16" s="4" t="n">
+      <c r="O16" s="2" t="n">
         <v>367722829.104708</v>
       </c>
-      <c r="P16" s="4" t="n">
+      <c r="P16" s="2" t="n">
         <v>346130288.818736</v>
       </c>
-      <c r="Q16" s="4" t="n">
+      <c r="Q16" s="2" t="n">
         <v>1076420052.67064</v>
       </c>
-      <c r="R16" s="4" t="n">
+      <c r="R16" s="2" t="n">
         <v>666045971.145293</v>
       </c>
-      <c r="S16" s="4" t="n">
+      <c r="S16" s="2" t="n">
         <v>1499388982.97263</v>
       </c>
-      <c r="T16" s="4" t="n">
+      <c r="T16" s="2" t="n">
         <v>2016053145.36839</v>
       </c>
-      <c r="U16" s="4" t="n">
+      <c r="U16" s="2" t="n">
         <v>2179659484.9417</v>
       </c>
-      <c r="V16" s="4" t="n">
+      <c r="V16" s="2" t="n">
         <v>2138071039.80271</v>
       </c>
-      <c r="W16" s="4" t="n">
+      <c r="W16" s="2" t="n">
         <v>2061900445.70419</v>
       </c>
-      <c r="X16" s="4" t="n">
+      <c r="X16" s="2" t="n">
         <v>2706390276.84373</v>
       </c>
-      <c r="Y16" s="4" t="n">
+      <c r="Y16" s="2" t="n">
         <v>3413335670.17283</v>
       </c>
-      <c r="Z16" s="4" t="n">
+      <c r="Z16" s="2" t="n">
         <v>4040203496.31272</v>
       </c>
-      <c r="AA16" s="4" t="n">
+      <c r="AA16" s="2" t="n">
         <v>5545712017.36451</v>
       </c>
-      <c r="AB16" s="4" t="n">
+      <c r="AB16" s="2" t="n">
         <v>5182065180.09388</v>
       </c>
-      <c r="AC16" s="4" t="n">
+      <c r="AC16" s="2" t="n">
         <v>6323660749.87945</v>
       </c>
-      <c r="AD16" s="4" t="n">
+      <c r="AD16" s="2" t="n">
         <v>7241747014.82032</v>
       </c>
-      <c r="AE16" s="4" t="n">
+      <c r="AE16" s="2" t="n">
         <v>7642675467.14385</v>
       </c>
-      <c r="AF16" s="4" t="n">
+      <c r="AF16" s="2" t="n">
         <v>8616187727.57695</v>
       </c>
-      <c r="AG16" s="4" t="n">
+      <c r="AG16" s="2" t="n">
         <v>8212128692.62144</v>
       </c>
-      <c r="AH16" s="4" t="n">
+      <c r="AH16" s="2" t="n">
         <v>8701627683.18516</v>
       </c>
-      <c r="AI16" s="4" t="n">
+      <c r="AI16" s="2" t="n">
         <v>10753287289.4948</v>
       </c>
-      <c r="AJ16" s="4" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>10916336315.9951</v>
       </c>
-      <c r="AK16" s="4" t="n">
+      <c r="AK16" s="2" t="n">
         <v>11689451124.138</v>
       </c>
-      <c r="AL16" s="4" t="n">
+      <c r="AL16" s="2" t="n">
         <v>12985115874.5924</v>
       </c>
-      <c r="AM16" s="4" t="n">
+      <c r="AM16" s="2" t="n">
         <v>14206765459.8212</v>
       </c>
-      <c r="AN16" s="4" t="n">
+      <c r="AN16" s="2" t="n">
         <v>5041519089.85043</v>
       </c>
-      <c r="AO16" s="4" t="n">
+      <c r="AO16" s="2" t="n">
         <v>2016053145.36839</v>
       </c>
       <c r="AP16" s="1" t="n">
@@ -2794,85 +2812,85 @@
       <c r="N17" t="s">
         <v>55</v>
       </c>
-      <c r="O17" s="4" t="n">
+      <c r="O17" s="2" t="n">
         <v>13874029694.895</v>
       </c>
-      <c r="P17" s="4" t="n">
+      <c r="P17" s="2" t="n">
         <v>17611921577.3921</v>
       </c>
-      <c r="Q17" s="4" t="n">
+      <c r="Q17" s="2" t="n">
         <v>22210729061.9274</v>
       </c>
-      <c r="R17" s="4" t="n">
+      <c r="R17" s="2" t="n">
         <v>26453808427.8966</v>
       </c>
-      <c r="S17" s="4" t="n">
+      <c r="S17" s="2" t="n">
         <v>24627975139.7618</v>
       </c>
-      <c r="T17" s="4" t="n">
+      <c r="T17" s="2" t="n">
         <v>22404457897.9281</v>
       </c>
-      <c r="U17" s="4" t="n">
+      <c r="U17" s="2" t="n">
         <v>20014209995.2673</v>
       </c>
-      <c r="V17" s="4" t="n">
+      <c r="V17" s="2" t="n">
         <v>18006218361.4708</v>
       </c>
-      <c r="W17" s="4" t="n">
+      <c r="W17" s="2" t="n">
         <v>16863122956.481</v>
       </c>
-      <c r="X17" s="4" t="n">
+      <c r="X17" s="2" t="n">
         <v>17531667443.1501</v>
       </c>
-      <c r="Y17" s="4" t="n">
+      <c r="Y17" s="2" t="n">
         <v>18051646404.4537</v>
       </c>
-      <c r="Z17" s="4" t="n">
+      <c r="Z17" s="2" t="n">
         <v>17178774978.5153</v>
       </c>
-      <c r="AA17" s="4" t="n">
+      <c r="AA17" s="2" t="n">
         <v>16832977934.7635</v>
       </c>
-      <c r="AB17" s="4" t="n">
+      <c r="AB17" s="2" t="n">
         <v>15496514221.2867</v>
       </c>
-      <c r="AC17" s="4" t="n">
+      <c r="AC17" s="2" t="n">
         <v>17573350353.9308</v>
       </c>
-      <c r="AD17" s="4" t="n">
+      <c r="AD17" s="2" t="n">
         <v>17283917623.1415</v>
       </c>
-      <c r="AE17" s="4" t="n">
+      <c r="AE17" s="2" t="n">
         <v>19144346279.1249</v>
       </c>
-      <c r="AF17" s="4" t="n">
+      <c r="AF17" s="2" t="n">
         <v>20441858877.637</v>
       </c>
-      <c r="AG17" s="4" t="n">
+      <c r="AG17" s="2" t="n">
         <v>22452722053.1312</v>
       </c>
-      <c r="AH17" s="4" t="n">
+      <c r="AH17" s="2" t="n">
         <v>25391037446.5515</v>
       </c>
-      <c r="AI17" s="4" t="n">
+      <c r="AI17" s="2" t="n">
         <v>29185145712.0378</v>
       </c>
-      <c r="AJ17" s="4" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>29900125618.6658</v>
       </c>
-      <c r="AK17" s="4" t="n">
+      <c r="AK17" s="2" t="n">
         <v>29911264393.0662</v>
       </c>
-      <c r="AL17" s="4" t="n">
+      <c r="AL17" s="2" t="n">
         <v>31262689054.7069</v>
       </c>
-      <c r="AM17" s="4" t="n">
+      <c r="AM17" s="2" t="n">
         <v>32150989699.6475</v>
       </c>
-      <c r="AN17" s="4" t="n">
+      <c r="AN17" s="2" t="n">
         <v>11675238766.1942</v>
       </c>
-      <c r="AO17" s="4" t="n">
+      <c r="AO17" s="2" t="n">
         <v>22404457897.9281</v>
       </c>
       <c r="AP17" s="1" t="n">
@@ -2950,85 +2968,85 @@
       <c r="N18" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="4" t="n">
+      <c r="O18" s="2" t="n">
         <v>4151011911.89489</v>
       </c>
-      <c r="P18" s="4" t="n">
+      <c r="P18" s="2" t="n">
         <v>4853714512.73782</v>
       </c>
-      <c r="Q18" s="4" t="n">
+      <c r="Q18" s="2" t="n">
         <v>5449350850.76698</v>
       </c>
-      <c r="R18" s="4" t="n">
+      <c r="R18" s="2" t="n">
         <v>7488323000.74824</v>
       </c>
-      <c r="S18" s="4" t="n">
+      <c r="S18" s="2" t="n">
         <v>9209196445.17487</v>
       </c>
-      <c r="T18" s="4" t="n">
+      <c r="T18" s="2" t="n">
         <v>11236814595.8282</v>
       </c>
-      <c r="U18" s="4" t="n">
+      <c r="U18" s="2" t="n">
         <v>12970055527.8823</v>
       </c>
-      <c r="V18" s="4" t="n">
+      <c r="V18" s="2" t="n">
         <v>18961101678.1462</v>
       </c>
-      <c r="W18" s="4" t="n">
+      <c r="W18" s="2" t="n">
         <v>22483497843.2402</v>
       </c>
-      <c r="X18" s="4" t="n">
+      <c r="X18" s="2" t="n">
         <v>23866091002.0377</v>
       </c>
-      <c r="Y18" s="4" t="n">
+      <c r="Y18" s="2" t="n">
         <v>24325788155.0474</v>
       </c>
-      <c r="Z18" s="4" t="n">
+      <c r="Z18" s="2" t="n">
         <v>22908630483.1696</v>
       </c>
-      <c r="AA18" s="4" t="n">
+      <c r="AA18" s="2" t="n">
         <v>21671782981.1783</v>
       </c>
-      <c r="AB18" s="4" t="n">
+      <c r="AB18" s="2" t="n">
         <v>18962990193.6489</v>
       </c>
-      <c r="AC18" s="4" t="n">
+      <c r="AC18" s="2" t="n">
         <v>19146632200.8262</v>
       </c>
-      <c r="AD18" s="4" t="n">
+      <c r="AD18" s="2" t="n">
         <v>19510269948.9812</v>
       </c>
-      <c r="AE18" s="4" t="n">
+      <c r="AE18" s="2" t="n">
         <v>21067506821.5703</v>
       </c>
-      <c r="AF18" s="4" t="n">
+      <c r="AF18" s="2" t="n">
         <v>22419643529.193</v>
       </c>
-      <c r="AG18" s="4" t="n">
+      <c r="AG18" s="2" t="n">
         <v>22790152407.5611</v>
       </c>
-      <c r="AH18" s="4" t="n">
+      <c r="AH18" s="2" t="n">
         <v>22359463971.3839</v>
       </c>
-      <c r="AI18" s="4" t="n">
+      <c r="AI18" s="2" t="n">
         <v>21445118543.0262</v>
       </c>
-      <c r="AJ18" s="4" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>18475258769.1351</v>
       </c>
-      <c r="AK18" s="4" t="n">
+      <c r="AK18" s="2" t="n">
         <v>17355535349.0138</v>
       </c>
-      <c r="AL18" s="4" t="n">
+      <c r="AL18" s="2" t="n">
         <v>17630851869.4813</v>
       </c>
-      <c r="AM18" s="4" t="n">
+      <c r="AM18" s="2" t="n">
         <v>17207428607.7043</v>
       </c>
-      <c r="AN18" s="4" t="n">
+      <c r="AN18" s="2" t="n">
         <v>5917568003.23081</v>
       </c>
-      <c r="AO18" s="4" t="n">
+      <c r="AO18" s="2" t="n">
         <v>11236814595.8282</v>
       </c>
       <c r="AP18" s="1" t="n">
@@ -3106,85 +3124,85 @@
       <c r="N19" t="s">
         <v>57</v>
       </c>
-      <c r="O19" s="4" t="n">
+      <c r="O19" s="2" t="n">
         <v>15691432574.6525</v>
       </c>
-      <c r="P19" s="4" t="n">
+      <c r="P19" s="2" t="n">
         <v>16018306383.4119</v>
       </c>
-      <c r="Q19" s="4" t="n">
+      <c r="Q19" s="2" t="n">
         <v>18377772570.5426</v>
       </c>
-      <c r="R19" s="4" t="n">
+      <c r="R19" s="2" t="n">
         <v>22232090660.8196</v>
       </c>
-      <c r="S19" s="4" t="n">
+      <c r="S19" s="2" t="n">
         <v>28976722186.3838</v>
       </c>
-      <c r="T19" s="4" t="n">
+      <c r="T19" s="2" t="n">
         <v>29784580717.1234</v>
       </c>
-      <c r="U19" s="4" t="n">
+      <c r="U19" s="2" t="n">
         <v>33261798573.3523</v>
       </c>
-      <c r="V19" s="4" t="n">
+      <c r="V19" s="2" t="n">
         <v>36770542798.8906</v>
       </c>
-      <c r="W19" s="4" t="n">
+      <c r="W19" s="2" t="n">
         <v>39682834525.6764</v>
       </c>
-      <c r="X19" s="4" t="n">
+      <c r="X19" s="2" t="n">
         <v>37045476948.0739</v>
       </c>
-      <c r="Y19" s="4" t="n">
+      <c r="Y19" s="2" t="n">
         <v>36393369846.2622</v>
       </c>
-      <c r="Z19" s="4" t="n">
+      <c r="Z19" s="2" t="n">
         <v>31753903989.0795</v>
       </c>
-      <c r="AA19" s="4" t="n">
+      <c r="AA19" s="2" t="n">
         <v>26571842322.739</v>
       </c>
-      <c r="AB19" s="4" t="n">
+      <c r="AB19" s="2" t="n">
         <v>22202192092.2761</v>
       </c>
-      <c r="AC19" s="4" t="n">
+      <c r="AC19" s="2" t="n">
         <v>21276123943.6182</v>
       </c>
-      <c r="AD19" s="4" t="n">
+      <c r="AD19" s="2" t="n">
         <v>19935874268.6885</v>
       </c>
-      <c r="AE19" s="4" t="n">
+      <c r="AE19" s="2" t="n">
         <v>21919763141.4324</v>
       </c>
-      <c r="AF19" s="4" t="n">
+      <c r="AF19" s="2" t="n">
         <v>22259813239.0173</v>
       </c>
-      <c r="AG19" s="4" t="n">
+      <c r="AG19" s="2" t="n">
         <v>25902899482.7529</v>
       </c>
-      <c r="AH19" s="4" t="n">
+      <c r="AH19" s="2" t="n">
         <v>28164423963.5025</v>
       </c>
-      <c r="AI19" s="4" t="n">
+      <c r="AI19" s="2" t="n">
         <v>27672993277.0508</v>
       </c>
-      <c r="AJ19" s="4" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>24332017740.7678</v>
       </c>
-      <c r="AK19" s="4" t="n">
+      <c r="AK19" s="2" t="n">
         <v>25032693201.5562</v>
       </c>
-      <c r="AL19" s="4" t="n">
+      <c r="AL19" s="2" t="n">
         <v>24769555515.7009</v>
       </c>
-      <c r="AM19" s="4" t="n">
+      <c r="AM19" s="2" t="n">
         <v>24634476216.6031</v>
       </c>
-      <c r="AN19" s="4" t="n">
+      <c r="AN19" s="2" t="n">
         <v>9050687651.75201</v>
       </c>
-      <c r="AO19" s="4" t="n">
+      <c r="AO19" s="2" t="n">
         <v>29784580717.1234</v>
       </c>
       <c r="AP19" s="1" t="n">
@@ -3262,85 +3280,85 @@
       <c r="N20" t="s">
         <v>58</v>
       </c>
-      <c r="O20" s="4" t="n">
+      <c r="O20" s="2" t="n">
         <v>3453813110.08952</v>
       </c>
-      <c r="P20" s="4" t="n">
+      <c r="P20" s="2" t="n">
         <v>3965491537.44432</v>
       </c>
-      <c r="Q20" s="4" t="n">
+      <c r="Q20" s="2" t="n">
         <v>3629118310.82659</v>
       </c>
-      <c r="R20" s="4" t="n">
+      <c r="R20" s="2" t="n">
         <v>2708032486.85803</v>
       </c>
-      <c r="S20" s="4" t="n">
+      <c r="S20" s="2" t="n">
         <v>2350318647.64675</v>
       </c>
-      <c r="T20" s="4" t="n">
+      <c r="T20" s="2" t="n">
         <v>1183085803.20192</v>
       </c>
-      <c r="U20" s="4" t="n">
+      <c r="U20" s="2" t="n">
         <v>723111496.120964</v>
       </c>
-      <c r="V20" s="4" t="n">
+      <c r="V20" s="2" t="n">
         <v>513631826.161622</v>
       </c>
-      <c r="W20" s="4" t="n">
+      <c r="W20" s="2" t="n">
         <v>268098756.597283</v>
       </c>
-      <c r="X20" s="4" t="n">
+      <c r="X20" s="2" t="n">
         <v>171947034.577903</v>
       </c>
-      <c r="Y20" s="4" t="n">
+      <c r="Y20" s="2" t="n">
         <v>86415120.7678814</v>
       </c>
-      <c r="Z20" s="4" t="n">
+      <c r="Z20" s="2" t="n">
         <v>9474910.51667184</v>
       </c>
-      <c r="AA20" s="4" t="n">
+      <c r="AA20" s="2" t="n">
         <v>47676754.9490738</v>
       </c>
-      <c r="AB20" s="4" t="n">
+      <c r="AB20" s="2" t="n">
         <v>2618926.71728299</v>
       </c>
-      <c r="AC20" s="4" t="n">
+      <c r="AC20" s="2" t="n">
         <v>7288096.25533019</v>
       </c>
-      <c r="AD20" s="4" t="n">
+      <c r="AD20" s="2" t="n">
         <v>22798848.5573329</v>
       </c>
-      <c r="AE20" s="4" t="n">
+      <c r="AE20" s="2" t="n">
         <v>7572298.72589084</v>
       </c>
-      <c r="AF20" s="4" t="n">
+      <c r="AF20" s="2" t="n">
         <v>2538954.59986841</v>
       </c>
-      <c r="AG20" s="4" t="n">
+      <c r="AG20" s="2" t="n">
         <v>894847.817592846</v>
       </c>
-      <c r="AH20" s="4" t="n">
+      <c r="AH20" s="2" t="n">
         <v>459811.989007678</v>
       </c>
-      <c r="AI20" s="4" t="n">
+      <c r="AI20" s="2" t="n">
         <v>410551.302448127</v>
       </c>
-      <c r="AJ20" s="4" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>-8098345.0194715</v>
       </c>
-      <c r="AK20" s="4" t="n">
+      <c r="AK20" s="2" t="n">
         <v>19869.185299654</v>
       </c>
-      <c r="AL20" s="4" t="n">
+      <c r="AL20" s="2" t="n">
         <v>50115.8203</v>
       </c>
-      <c r="AM20" s="4" t="n">
+      <c r="AM20" s="2" t="n">
         <v>52983.7661763009</v>
       </c>
-      <c r="AN20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="4" t="n">
+      <c r="AN20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="2" t="n">
         <v>1183085803.20192</v>
       </c>
       <c r="AP20" s="1" t="n">
@@ -3414,81 +3432,81 @@
       </c>
       <c r="M21"/>
       <c r="N21"/>
-      <c r="O21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4" t="n">
+      <c r="O21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2" t="n">
         <v>3081254.61475134</v>
       </c>
-      <c r="T21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4" t="n">
+      <c r="T21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2" t="n">
         <v>321236.841987522</v>
       </c>
-      <c r="Z21" s="4" t="n">
+      <c r="Z21" s="2" t="n">
         <v>330928.727802499</v>
       </c>
-      <c r="AA21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4" t="n">
+      <c r="AA21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2" t="n">
         <v>-10479.814603147</v>
       </c>
-      <c r="AE21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="4" t="n">
+      <c r="AE21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2" t="n">
         <v>2209788.97921449</v>
       </c>
-      <c r="AG21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="4" t="n">
+      <c r="AG21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2" t="n">
         <v>355369.506231028</v>
       </c>
-      <c r="AN21" s="4" t="n">
+      <c r="AN21" s="2" t="n">
         <v>-29603.6905382691</v>
       </c>
-      <c r="AO21" s="4" t="n">
+      <c r="AO21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AP21" s="1" t="n">
@@ -3556,33 +3574,33 @@
       <c r="B22" t="str">
         <f>N22</f>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
@@ -3727,1884 +3745,83 @@
       <c r="O2" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="3" t="n">
         <v>10072839383.8344</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>9817086220.22</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="3" t="n">
         <v>10874743943.14</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="S2" s="3" t="n">
         <v>11546708570.19</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>14282880642.79</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="3" t="n">
         <v>15577844730.04</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>14607001236.64</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>16933899095.58</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="X2" s="3" t="n">
         <v>17170170285.67</v>
       </c>
-      <c r="Y2" s="2" t="n">
+      <c r="Y2" s="3" t="n">
         <v>16946725461.77</v>
       </c>
-      <c r="Z2" s="2" t="n">
+      <c r="Z2" s="3" t="n">
         <v>17754996441.3538</v>
       </c>
-      <c r="AA2" s="2" t="n">
+      <c r="AA2" s="3" t="n">
         <v>17781772614.1039</v>
       </c>
-      <c r="AB2" s="2" t="n">
+      <c r="AB2" s="3" t="n">
         <v>18187791891.5274</v>
       </c>
-      <c r="AC2" s="2" t="n">
+      <c r="AC2" s="3" t="n">
         <v>15977659307.3254</v>
       </c>
-      <c r="AD2" s="2" t="n">
+      <c r="AD2" s="3" t="n">
         <v>15763663503.1713</v>
       </c>
-      <c r="AE2" s="2" t="n">
+      <c r="AE2" s="3" t="n">
         <v>15512925649.0854</v>
       </c>
-      <c r="AF2" s="2" t="n">
+      <c r="AF2" s="3" t="n">
         <v>16047939845.7225</v>
       </c>
-      <c r="AG2" s="2" t="n">
+      <c r="AG2" s="3" t="n">
         <v>15966417108.2005</v>
       </c>
-      <c r="AH2" s="2" t="n">
+      <c r="AH2" s="3" t="n">
         <v>17077753975.83</v>
       </c>
-      <c r="AI2" s="2" t="n">
+      <c r="AI2" s="3" t="n">
         <v>17567020054.19</v>
       </c>
-      <c r="AJ2" s="2" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>17546672181.27</v>
       </c>
-      <c r="AK2" s="2" t="n">
+      <c r="AK2" s="3" t="n">
         <v>16176194780.42</v>
       </c>
-      <c r="AL2" s="2" t="n">
+      <c r="AL2" s="3" t="n">
         <v>17222609729.85</v>
       </c>
-      <c r="AM2" s="2" t="n">
+      <c r="AM2" s="3" t="n">
         <v>16908797626.95</v>
       </c>
-      <c r="AN2" s="2" t="n">
+      <c r="AN2" s="3" t="n">
         <v>17635398813.76</v>
       </c>
-      <c r="AO2" s="2" t="n">
+      <c r="AO2" s="3" t="n">
         <v>6730597375.9</v>
-      </c>
-      <c r="AP2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <f>N3</f>
-      </c>
-      <c r="B3" t="str">
-        <f>O3</f>
-      </c>
-      <c r="N3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>1450699942.0516</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>1527999782.26</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>1608767664.83</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>2582137089.6</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>2525495641.4</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>2968219706</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>3003664704.71</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>3319029384.35</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>3496763724.18</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>3609710283.63</v>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>4194449798.4403</v>
-      </c>
-      <c r="AA3" s="2" t="n">
-        <v>3757377069.6606</v>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>3106977692.7088</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>2859840836.5541</v>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>3136724721.812</v>
-      </c>
-      <c r="AE3" s="2" t="n">
-        <v>3137629676.2549</v>
-      </c>
-      <c r="AF3" s="2" t="n">
-        <v>3233496783.2393</v>
-      </c>
-      <c r="AG3" s="2" t="n">
-        <v>3150141350.2824</v>
-      </c>
-      <c r="AH3" s="2" t="n">
-        <v>3575655285.58</v>
-      </c>
-      <c r="AI3" s="2" t="n">
-        <v>3727943011.03</v>
-      </c>
-      <c r="AJ3" s="2" t="n">
-        <v>3544090671.3</v>
-      </c>
-      <c r="AK3" s="2" t="n">
-        <v>3356068305.19</v>
-      </c>
-      <c r="AL3" s="2" t="n">
-        <v>3571244215.92</v>
-      </c>
-      <c r="AM3" s="2" t="n">
-        <v>3639989639.37</v>
-      </c>
-      <c r="AN3" s="2" t="n">
-        <v>4067312234.83</v>
-      </c>
-      <c r="AO3" s="2" t="n">
-        <v>1375408283.44</v>
-      </c>
-      <c r="AP3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <f>N4</f>
-      </c>
-      <c r="B4" t="str">
-        <f>O4</f>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>218729865.0995</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>210876624.8381</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>666115923.2688</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>420077655.0412</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>968762260.0305</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>1342218719.0591</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>1498281538.9096</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>1510153887.1767</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>1486588500.8591</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>1971206354.158</v>
-      </c>
-      <c r="Z4" s="2" t="n">
-        <v>2507642688.7302</v>
-      </c>
-      <c r="AA4" s="2" t="n">
-        <v>3027753056.4936</v>
-      </c>
-      <c r="AB4" s="2" t="n">
-        <v>4231405071.6753</v>
-      </c>
-      <c r="AC4" s="2" t="n">
-        <v>4025683961.6315</v>
-      </c>
-      <c r="AD4" s="2" t="n">
-        <v>5002151896.4255</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>5787702455.7844</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>6156964898.1525</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>7058399054.5767</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>6876741175.1143</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>7421368540.379</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>9290974118.0568</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>9756469993.2564</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>11178091502.4477</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>12985115874.5924</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>14586171167.71</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>5289733472.63</v>
-      </c>
-      <c r="AP4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <f>N5</f>
-      </c>
-      <c r="B5" t="str">
-        <f>O5</f>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>8252587012.1779</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>10729897668.9633</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>13744560275.3797</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>16684514722.2965</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>15912250341.5154</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>14916116100.4392</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>13757617443.8876</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>12718080992.4991</v>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>12157970443.1929</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>12769235301.5787</v>
-      </c>
-      <c r="Z5" s="2" t="n">
-        <v>13261830508.272</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>12873878381.4937</v>
-      </c>
-      <c r="AB5" s="2" t="n">
-        <v>12843643518.0069</v>
-      </c>
-      <c r="AC5" s="2" t="n">
-        <v>12038456984.5758</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>13900898747.7926</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>13813541438.0412</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>15422749342.8683</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>16746013659.1383</v>
-      </c>
-      <c r="AH5" s="2" t="n">
-        <v>18801648636.4727</v>
-      </c>
-      <c r="AI5" s="2" t="n">
-        <v>21655287191.5622</v>
-      </c>
-      <c r="AJ5" s="2" t="n">
-        <v>25216329308.6351</v>
-      </c>
-      <c r="AK5" s="2" t="n">
-        <v>26723221962.8182</v>
-      </c>
-      <c r="AL5" s="2" t="n">
-        <v>28602784406.9759</v>
-      </c>
-      <c r="AM5" s="2" t="n">
-        <v>31262689054.7069</v>
-      </c>
-      <c r="AN5" s="2" t="n">
-        <v>33009613644.7544</v>
-      </c>
-      <c r="AO5" s="2" t="n">
-        <v>12250058008.67</v>
-      </c>
-      <c r="AP5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <f>N6</f>
-      </c>
-      <c r="B6" t="str">
-        <f>O6</f>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>2469115876.5578</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>2957079941.9691</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>3372195978.8545</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>4722912985.9254</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>5950105051.1956</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>7481083982.2187</v>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>8915518635.0487</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>13392530403.0344</v>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>16210147013.8808</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>17382929075.1794</v>
-      </c>
-      <c r="Z6" s="2" t="n">
-        <v>17871194253.6597</v>
-      </c>
-      <c r="AA6" s="2" t="n">
-        <v>17167866922.7434</v>
-      </c>
-      <c r="AB6" s="2" t="n">
-        <v>16535675154.3662</v>
-      </c>
-      <c r="AC6" s="2" t="n">
-        <v>14731386587.0295</v>
-      </c>
-      <c r="AD6" s="2" t="n">
-        <v>15145398585.0443</v>
-      </c>
-      <c r="AE6" s="2" t="n">
-        <v>15592872419.5479</v>
-      </c>
-      <c r="AF6" s="2" t="n">
-        <v>16972053903.0648</v>
-      </c>
-      <c r="AG6" s="2" t="n">
-        <v>18366218993.1074</v>
-      </c>
-      <c r="AH6" s="2" t="n">
-        <v>19084208895.6813</v>
-      </c>
-      <c r="AI6" s="2" t="n">
-        <v>19069745171.6557</v>
-      </c>
-      <c r="AJ6" s="2" t="n">
-        <v>18528849455.7907</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <v>16512253065.582</v>
-      </c>
-      <c r="AL6" s="2" t="n">
-        <v>16596310651.8013</v>
-      </c>
-      <c r="AM6" s="2" t="n">
-        <v>17630851869.4813</v>
-      </c>
-      <c r="AN6" s="2" t="n">
-        <v>17666969989.6125</v>
-      </c>
-      <c r="AO6" s="2" t="n">
-        <v>6208913818.51</v>
-      </c>
-      <c r="AP6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <f>N7</f>
-      </c>
-      <c r="B7" t="str">
-        <f>O7</f>
-      </c>
-      <c r="N7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>9333619396.5111</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>9759002592.0137</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>11372629962.698</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>14021861727.3539</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>18721996221.3565</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>19829547583.9476</v>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>22863910210.5971</v>
-      </c>
-      <c r="W7" s="2" t="n">
-        <v>25971624472.5273</v>
-      </c>
-      <c r="X7" s="2" t="n">
-        <v>28610520750.5389</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>26982168897.6875</v>
-      </c>
-      <c r="Z7" s="2" t="n">
-        <v>26736769140.7311</v>
-      </c>
-      <c r="AA7" s="2" t="n">
-        <v>23796568649.6446</v>
-      </c>
-      <c r="AB7" s="2" t="n">
-        <v>20274444113.9638</v>
-      </c>
-      <c r="AC7" s="2" t="n">
-        <v>17247758473.2576</v>
-      </c>
-      <c r="AD7" s="2" t="n">
-        <v>16829872433.4924</v>
-      </c>
-      <c r="AE7" s="2" t="n">
-        <v>15933021165.6062</v>
-      </c>
-      <c r="AF7" s="2" t="n">
-        <v>17658634442.5864</v>
-      </c>
-      <c r="AG7" s="2" t="n">
-        <v>18235285684.2313</v>
-      </c>
-      <c r="AH7" s="2" t="n">
-        <v>21690787138.7769</v>
-      </c>
-      <c r="AI7" s="2" t="n">
-        <v>24020628963.9968</v>
-      </c>
-      <c r="AJ7" s="2" t="n">
-        <v>23909810775.4842</v>
-      </c>
-      <c r="AK7" s="2" t="n">
-        <v>21746728397.8181</v>
-      </c>
-      <c r="AL7" s="2" t="n">
-        <v>23937628224.6384</v>
-      </c>
-      <c r="AM7" s="2" t="n">
-        <v>24769555515.7009</v>
-      </c>
-      <c r="AN7" s="2" t="n">
-        <v>25292364242.83</v>
-      </c>
-      <c r="AO7" s="2" t="n">
-        <v>9496289623.93</v>
-      </c>
-      <c r="AP7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <f>N8</f>
-      </c>
-      <c r="B8" t="str">
-        <f>O8</f>
-      </c>
-      <c r="N8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>2054406242.5715</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>2415938443.5675</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>2245790096.7845</v>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>1707966095.6414</v>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>1518551910.6403</v>
-      </c>
-      <c r="U8" s="2" t="n">
-        <v>787657763.3674</v>
-      </c>
-      <c r="V8" s="2" t="n">
-        <v>497061404.6351</v>
-      </c>
-      <c r="W8" s="2" t="n">
-        <v>362786401.5815</v>
-      </c>
-      <c r="X8" s="2" t="n">
-        <v>193293778.7964</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>125238067.1179</v>
-      </c>
-      <c r="Z8" s="2" t="n">
-        <v>63485770.7324</v>
-      </c>
-      <c r="AA8" s="2" t="n">
-        <v>7100555.5297</v>
-      </c>
-      <c r="AB8" s="2" t="n">
-        <v>36377594.4479</v>
-      </c>
-      <c r="AC8" s="2" t="n">
-        <v>2034511.5154</v>
-      </c>
-      <c r="AD8" s="2" t="n">
-        <v>5765041.16</v>
-      </c>
-      <c r="AE8" s="2" t="n">
-        <v>18221149.0562</v>
-      </c>
-      <c r="AF8" s="2" t="n">
-        <v>6100269.1602</v>
-      </c>
-      <c r="AG8" s="2" t="n">
-        <v>2079916.9324</v>
-      </c>
-      <c r="AH8" s="2" t="n">
-        <v>749335.1679</v>
-      </c>
-      <c r="AI8" s="2" t="n">
-        <v>392160.4502</v>
-      </c>
-      <c r="AJ8" s="2" t="n">
-        <v>354721.4375</v>
-      </c>
-      <c r="AK8" s="2" t="n">
-        <v>-7237891.7148</v>
-      </c>
-      <c r="AL8" s="2" t="n">
-        <v>19000</v>
-      </c>
-      <c r="AM8" s="2" t="n">
-        <v>50115.8203</v>
-      </c>
-      <c r="AN8" s="2" t="n">
-        <v>54398.75</v>
-      </c>
-      <c r="AO8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <f>N9</f>
-      </c>
-      <c r="B9" t="str">
-        <f>O9</f>
-      </c>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>1990813.07</v>
-      </c>
-      <c r="U9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2" t="n">
-        <v>236000</v>
-      </c>
-      <c r="AA9" s="2" t="n">
-        <v>248000</v>
-      </c>
-      <c r="AB9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2" t="n">
-        <v>-8375.61</v>
-      </c>
-      <c r="AF9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="2" t="n">
-        <v>1810263.7657</v>
-      </c>
-      <c r="AH9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="2" t="n">
-        <v>364860</v>
-      </c>
-      <c r="AO9" s="2" t="n">
-        <v>-31061.2</v>
-      </c>
-      <c r="AP9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <f>N10</f>
-      </c>
-      <c r="B10" t="str">
-        <f>O10</f>
-      </c>
-      <c r="N10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" s="2" t="str">
-        <f>Sum(P2:P9)</f>
-      </c>
-      <c r="Q10" s="2" t="str">
-        <f>Sum(Q2:Q9)</f>
-      </c>
-      <c r="R10" s="2" t="str">
-        <f>Sum(R2:R9)</f>
-      </c>
-      <c r="S10" s="2" t="str">
-        <f>Sum(S2:S9)</f>
-      </c>
-      <c r="T10" s="2" t="str">
-        <f>Sum(T2:T9)</f>
-      </c>
-      <c r="U10" s="2" t="str">
-        <f>Sum(U2:U9)</f>
-      </c>
-      <c r="V10" s="2" t="str">
-        <f>Sum(V2:V9)</f>
-      </c>
-      <c r="W10" s="2" t="str">
-        <f>Sum(W2:W9)</f>
-      </c>
-      <c r="X10" s="2" t="str">
-        <f>Sum(X2:X9)</f>
-      </c>
-      <c r="Y10" s="2" t="str">
-        <f>Sum(Y2:Y9)</f>
-      </c>
-      <c r="Z10" s="2" t="str">
-        <f>Sum(Z2:Z9)</f>
-      </c>
-      <c r="AA10" s="2" t="str">
-        <f>Sum(AA2:AA9)</f>
-      </c>
-      <c r="AB10" s="2" t="str">
-        <f>Sum(AB2:AB9)</f>
-      </c>
-      <c r="AC10" s="2" t="str">
-        <f>Sum(AC2:AC9)</f>
-      </c>
-      <c r="AD10" s="2" t="str">
-        <f>Sum(AD2:AD9)</f>
-      </c>
-      <c r="AE10" s="2" t="str">
-        <f>Sum(AE2:AE9)</f>
-      </c>
-      <c r="AF10" s="2" t="str">
-        <f>Sum(AF2:AF9)</f>
-      </c>
-      <c r="AG10" s="2" t="str">
-        <f>Sum(AG2:AG9)</f>
-      </c>
-      <c r="AH10" s="2" t="str">
-        <f>Sum(AH2:AH9)</f>
-      </c>
-      <c r="AI10" s="2" t="str">
-        <f>Sum(AI2:AI9)</f>
-      </c>
-      <c r="AJ10" s="2" t="str">
-        <f>Sum(AJ2:AJ9)</f>
-      </c>
-      <c r="AK10" s="2" t="str">
-        <f>Sum(AK2:AK9)</f>
-      </c>
-      <c r="AL10" s="2" t="str">
-        <f>Sum(AL2:AL9)</f>
-      </c>
-      <c r="AM10" s="2" t="str">
-        <f>Sum(AM2:AM9)</f>
-      </c>
-      <c r="AN10" s="2" t="str">
-        <f>Sum(AN2:AN9)</f>
-      </c>
-      <c r="AO10" s="2" t="str">
-        <f>Sum(AO2:AO9)</f>
-      </c>
-      <c r="AP10" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <f>N13</f>
-      </c>
-      <c r="B13" t="str">
-        <f>O13</f>
-      </c>
-      <c r="N13" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>25</v>
-      </c>
-      <c r="R13" t="s">
-        <v>26</v>
-      </c>
-      <c r="S13" t="s">
-        <v>27</v>
-      </c>
-      <c r="T13" t="s">
-        <v>28</v>
-      </c>
-      <c r="U13" t="s">
-        <v>29</v>
-      </c>
-      <c r="V13" t="s">
-        <v>30</v>
-      </c>
-      <c r="W13" t="s">
-        <v>31</v>
-      </c>
-      <c r="X13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <f>N14</f>
-      </c>
-      <c r="B14" t="str">
-        <f>O14</f>
-      </c>
-      <c r="N14" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" t="s">
-        <v>51</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>16934189547.7143</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>16113644133.7298</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>17573206162.9921</v>
-      </c>
-      <c r="S14" s="2" t="n">
-        <v>18307659621.6707</v>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>22106139725.3833</v>
-      </c>
-      <c r="U14" s="2" t="n">
-        <v>23398394330.302</v>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>21249870578.5085</v>
-      </c>
-      <c r="W14" s="2" t="n">
-        <v>23974960137.9296</v>
-      </c>
-      <c r="X14" s="2" t="n">
-        <v>23815051538.7279</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>23267200269.1801</v>
-      </c>
-      <c r="Z14" s="2" t="n">
-        <v>24167622823.3906</v>
-      </c>
-      <c r="AA14" s="2" t="n">
-        <v>23727820117.9787</v>
-      </c>
-      <c r="AB14" s="2" t="n">
-        <v>23837059878.135</v>
-      </c>
-      <c r="AC14" s="2" t="n">
-        <v>20567255836.5308</v>
-      </c>
-      <c r="AD14" s="2" t="n">
-        <v>19928235334.1859</v>
-      </c>
-      <c r="AE14" s="2" t="n">
-        <v>19410238150.3937</v>
-      </c>
-      <c r="AF14" s="2" t="n">
-        <v>19920398798.1004</v>
-      </c>
-      <c r="AG14" s="2" t="n">
-        <v>19490205367.7244</v>
-      </c>
-      <c r="AH14" s="2" t="n">
-        <v>20394066005.8523</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>20597503975.5676</v>
-      </c>
-      <c r="AJ14" s="2" t="n">
-        <v>20308355673.1773</v>
-      </c>
-      <c r="AK14" s="2" t="n">
-        <v>18099249283.6203</v>
-      </c>
-      <c r="AL14" s="2" t="n">
-        <v>18010485477.1586</v>
-      </c>
-      <c r="AM14" s="2" t="n">
-        <v>16908797626.95</v>
-      </c>
-      <c r="AN14" s="2" t="n">
-        <v>17176678640.1172</v>
-      </c>
-      <c r="AO14" s="2" t="n">
-        <v>6414772186.96733</v>
-      </c>
-      <c r="AP14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <f>N15</f>
-      </c>
-      <c r="B15" t="str">
-        <f>O15</f>
-      </c>
-      <c r="N15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O15" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>2438878141.44896</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>2508039980.03416</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>2599712323.36435</v>
-      </c>
-      <c r="S15" s="2" t="n">
-        <v>4094057336.38519</v>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>3908802497.26215</v>
-      </c>
-      <c r="U15" s="2" t="n">
-        <v>4458355847.26505</v>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>4369650224.73042</v>
-      </c>
-      <c r="W15" s="2" t="n">
-        <v>4699071178.89809</v>
-      </c>
-      <c r="X15" s="2" t="n">
-        <v>4850016448.56147</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>4955992959.96183</v>
-      </c>
-      <c r="Z15" s="2" t="n">
-        <v>5709372064.09389</v>
-      </c>
-      <c r="AA15" s="2" t="n">
-        <v>5013806506.19783</v>
-      </c>
-      <c r="AB15" s="2" t="n">
-        <v>4072028850.05684</v>
-      </c>
-      <c r="AC15" s="2" t="n">
-        <v>3681332603.59352</v>
-      </c>
-      <c r="AD15" s="2" t="n">
-        <v>3965409970.99137</v>
-      </c>
-      <c r="AE15" s="2" t="n">
-        <v>3925896418.34846</v>
-      </c>
-      <c r="AF15" s="2" t="n">
-        <v>4013757906.23185</v>
-      </c>
-      <c r="AG15" s="2" t="n">
-        <v>3845377547.02842</v>
-      </c>
-      <c r="AH15" s="2" t="n">
-        <v>4270008223.06606</v>
-      </c>
-      <c r="AI15" s="2" t="n">
-        <v>4371049885.15483</v>
-      </c>
-      <c r="AJ15" s="2" t="n">
-        <v>4101897678.78484</v>
-      </c>
-      <c r="AK15" s="2" t="n">
-        <v>3755043611.49352</v>
-      </c>
-      <c r="AL15" s="2" t="n">
-        <v>3734616477.70695</v>
-      </c>
-      <c r="AM15" s="2" t="n">
-        <v>3639989639.37</v>
-      </c>
-      <c r="AN15" s="2" t="n">
-        <v>3961516035.13391</v>
-      </c>
-      <c r="AO15" s="2" t="n">
-        <v>1310868903.54299</v>
-      </c>
-      <c r="AP15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <f>N16</f>
-      </c>
-      <c r="B16" t="str">
-        <f>O16</f>
-      </c>
-      <c r="N16" t="s">
-        <v>53</v>
-      </c>
-      <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" s="2" t="n">
-        <v>367722829.104708</v>
-      </c>
-      <c r="Q16" s="2" t="n">
-        <v>346130288.818736</v>
-      </c>
-      <c r="R16" s="2" t="n">
-        <v>1076420052.67064</v>
-      </c>
-      <c r="S16" s="2" t="n">
-        <v>666045971.145293</v>
-      </c>
-      <c r="T16" s="2" t="n">
-        <v>1499388982.97263</v>
-      </c>
-      <c r="U16" s="2" t="n">
-        <v>2016053145.36839</v>
-      </c>
-      <c r="V16" s="2" t="n">
-        <v>2179659484.9417</v>
-      </c>
-      <c r="W16" s="2" t="n">
-        <v>2138071039.80271</v>
-      </c>
-      <c r="X16" s="2" t="n">
-        <v>2061900445.70419</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>2706390276.84373</v>
-      </c>
-      <c r="Z16" s="2" t="n">
-        <v>3413335670.17283</v>
-      </c>
-      <c r="AA16" s="2" t="n">
-        <v>4040203496.31272</v>
-      </c>
-      <c r="AB16" s="2" t="n">
-        <v>5545712017.36451</v>
-      </c>
-      <c r="AC16" s="2" t="n">
-        <v>5182065180.09388</v>
-      </c>
-      <c r="AD16" s="2" t="n">
-        <v>6323660749.87945</v>
-      </c>
-      <c r="AE16" s="2" t="n">
-        <v>7241747014.82032</v>
-      </c>
-      <c r="AF16" s="2" t="n">
-        <v>7642675467.14385</v>
-      </c>
-      <c r="AG16" s="2" t="n">
-        <v>8616187727.57695</v>
-      </c>
-      <c r="AH16" s="2" t="n">
-        <v>8212128692.62144</v>
-      </c>
-      <c r="AI16" s="2" t="n">
-        <v>8701627683.18516</v>
-      </c>
-      <c r="AJ16" s="2" t="n">
-        <v>10753287289.4948</v>
-      </c>
-      <c r="AK16" s="2" t="n">
-        <v>10916336315.9951</v>
-      </c>
-      <c r="AL16" s="2" t="n">
-        <v>11689451124.138</v>
-      </c>
-      <c r="AM16" s="2" t="n">
-        <v>12985115874.5924</v>
-      </c>
-      <c r="AN16" s="2" t="n">
-        <v>14206765459.8212</v>
-      </c>
-      <c r="AO16" s="2" t="n">
-        <v>5041519089.85043</v>
-      </c>
-      <c r="AP16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <f>N17</f>
-      </c>
-      <c r="B17" t="str">
-        <f>O17</f>
-      </c>
-      <c r="N17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O17" t="s">
-        <v>55</v>
-      </c>
-      <c r="P17" s="2" t="n">
-        <v>13874029694.895</v>
-      </c>
-      <c r="Q17" s="2" t="n">
-        <v>17611921577.3921</v>
-      </c>
-      <c r="R17" s="2" t="n">
-        <v>22210729061.9274</v>
-      </c>
-      <c r="S17" s="2" t="n">
-        <v>26453808427.8966</v>
-      </c>
-      <c r="T17" s="2" t="n">
-        <v>24627975139.7618</v>
-      </c>
-      <c r="U17" s="2" t="n">
-        <v>22404457897.9281</v>
-      </c>
-      <c r="V17" s="2" t="n">
-        <v>20014209995.2673</v>
-      </c>
-      <c r="W17" s="2" t="n">
-        <v>18006218361.4708</v>
-      </c>
-      <c r="X17" s="2" t="n">
-        <v>16863122956.481</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>17531667443.1501</v>
-      </c>
-      <c r="Z17" s="2" t="n">
-        <v>18051646404.4537</v>
-      </c>
-      <c r="AA17" s="2" t="n">
-        <v>17178774978.5153</v>
-      </c>
-      <c r="AB17" s="2" t="n">
-        <v>16832977934.7635</v>
-      </c>
-      <c r="AC17" s="2" t="n">
-        <v>15496514221.2867</v>
-      </c>
-      <c r="AD17" s="2" t="n">
-        <v>17573350353.9308</v>
-      </c>
-      <c r="AE17" s="2" t="n">
-        <v>17283917623.1415</v>
-      </c>
-      <c r="AF17" s="2" t="n">
-        <v>19144346279.1249</v>
-      </c>
-      <c r="AG17" s="2" t="n">
-        <v>20441858877.637</v>
-      </c>
-      <c r="AH17" s="2" t="n">
-        <v>22452722053.1312</v>
-      </c>
-      <c r="AI17" s="2" t="n">
-        <v>25391037446.5515</v>
-      </c>
-      <c r="AJ17" s="2" t="n">
-        <v>29185145712.0378</v>
-      </c>
-      <c r="AK17" s="2" t="n">
-        <v>29900125618.6658</v>
-      </c>
-      <c r="AL17" s="2" t="n">
-        <v>29911264393.0662</v>
-      </c>
-      <c r="AM17" s="2" t="n">
-        <v>31262689054.7069</v>
-      </c>
-      <c r="AN17" s="2" t="n">
-        <v>32150989699.6475</v>
-      </c>
-      <c r="AO17" s="2" t="n">
-        <v>11675238766.1942</v>
-      </c>
-      <c r="AP17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <f>N18</f>
-      </c>
-      <c r="B18" t="str">
-        <f>O18</f>
-      </c>
-      <c r="N18" t="s">
-        <v>53</v>
-      </c>
-      <c r="O18" t="s">
-        <v>56</v>
-      </c>
-      <c r="P18" s="2" t="n">
-        <v>4151011911.89489</v>
-      </c>
-      <c r="Q18" s="2" t="n">
-        <v>4853714512.73782</v>
-      </c>
-      <c r="R18" s="2" t="n">
-        <v>5449350850.76698</v>
-      </c>
-      <c r="S18" s="2" t="n">
-        <v>7488323000.74824</v>
-      </c>
-      <c r="T18" s="2" t="n">
-        <v>9209196445.17487</v>
-      </c>
-      <c r="U18" s="2" t="n">
-        <v>11236814595.8282</v>
-      </c>
-      <c r="V18" s="2" t="n">
-        <v>12970055527.8823</v>
-      </c>
-      <c r="W18" s="2" t="n">
-        <v>18961101678.1462</v>
-      </c>
-      <c r="X18" s="2" t="n">
-        <v>22483497843.2402</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>23866091002.0377</v>
-      </c>
-      <c r="Z18" s="2" t="n">
-        <v>24325788155.0474</v>
-      </c>
-      <c r="AA18" s="2" t="n">
-        <v>22908630483.1696</v>
-      </c>
-      <c r="AB18" s="2" t="n">
-        <v>21671782981.1783</v>
-      </c>
-      <c r="AC18" s="2" t="n">
-        <v>18962990193.6489</v>
-      </c>
-      <c r="AD18" s="2" t="n">
-        <v>19146632200.8262</v>
-      </c>
-      <c r="AE18" s="2" t="n">
-        <v>19510269948.9812</v>
-      </c>
-      <c r="AF18" s="2" t="n">
-        <v>21067506821.5703</v>
-      </c>
-      <c r="AG18" s="2" t="n">
-        <v>22419643529.193</v>
-      </c>
-      <c r="AH18" s="2" t="n">
-        <v>22790152407.5611</v>
-      </c>
-      <c r="AI18" s="2" t="n">
-        <v>22359463971.3839</v>
-      </c>
-      <c r="AJ18" s="2" t="n">
-        <v>21445118543.0262</v>
-      </c>
-      <c r="AK18" s="2" t="n">
-        <v>18475258769.1351</v>
-      </c>
-      <c r="AL18" s="2" t="n">
-        <v>17355535349.0138</v>
-      </c>
-      <c r="AM18" s="2" t="n">
-        <v>17630851869.4813</v>
-      </c>
-      <c r="AN18" s="2" t="n">
-        <v>17207428607.7043</v>
-      </c>
-      <c r="AO18" s="2" t="n">
-        <v>5917568003.23081</v>
-      </c>
-      <c r="AP18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <f>N19</f>
-      </c>
-      <c r="B19" t="str">
-        <f>O19</f>
-      </c>
-      <c r="N19" t="s">
-        <v>53</v>
-      </c>
-      <c r="O19" t="s">
-        <v>57</v>
-      </c>
-      <c r="P19" s="2" t="n">
-        <v>15691432574.6525</v>
-      </c>
-      <c r="Q19" s="2" t="n">
-        <v>16018306383.4119</v>
-      </c>
-      <c r="R19" s="2" t="n">
-        <v>18377772570.5426</v>
-      </c>
-      <c r="S19" s="2" t="n">
-        <v>22232090660.8196</v>
-      </c>
-      <c r="T19" s="2" t="n">
-        <v>28976722186.3838</v>
-      </c>
-      <c r="U19" s="2" t="n">
-        <v>29784580717.1234</v>
-      </c>
-      <c r="V19" s="2" t="n">
-        <v>33261798573.3523</v>
-      </c>
-      <c r="W19" s="2" t="n">
-        <v>36770542798.8906</v>
-      </c>
-      <c r="X19" s="2" t="n">
-        <v>39682834525.6764</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>37045476948.0739</v>
-      </c>
-      <c r="Z19" s="2" t="n">
-        <v>36393369846.2622</v>
-      </c>
-      <c r="AA19" s="2" t="n">
-        <v>31753903989.0795</v>
-      </c>
-      <c r="AB19" s="2" t="n">
-        <v>26571842322.739</v>
-      </c>
-      <c r="AC19" s="2" t="n">
-        <v>22202192092.2761</v>
-      </c>
-      <c r="AD19" s="2" t="n">
-        <v>21276123943.6182</v>
-      </c>
-      <c r="AE19" s="2" t="n">
-        <v>19935874268.6885</v>
-      </c>
-      <c r="AF19" s="2" t="n">
-        <v>21919763141.4324</v>
-      </c>
-      <c r="AG19" s="2" t="n">
-        <v>22259813239.0173</v>
-      </c>
-      <c r="AH19" s="2" t="n">
-        <v>25902899482.7529</v>
-      </c>
-      <c r="AI19" s="2" t="n">
-        <v>28164423963.5025</v>
-      </c>
-      <c r="AJ19" s="2" t="n">
-        <v>27672993277.0508</v>
-      </c>
-      <c r="AK19" s="2" t="n">
-        <v>24332017740.7678</v>
-      </c>
-      <c r="AL19" s="2" t="n">
-        <v>25032693201.5562</v>
-      </c>
-      <c r="AM19" s="2" t="n">
-        <v>24769555515.7009</v>
-      </c>
-      <c r="AN19" s="2" t="n">
-        <v>24634476216.6031</v>
-      </c>
-      <c r="AO19" s="2" t="n">
-        <v>9050687651.75201</v>
-      </c>
-      <c r="AP19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <f>N20</f>
-      </c>
-      <c r="B20" t="str">
-        <f>O20</f>
-      </c>
-      <c r="N20" t="s">
-        <v>53</v>
-      </c>
-      <c r="O20" t="s">
-        <v>58</v>
-      </c>
-      <c r="P20" s="2" t="n">
-        <v>3453813110.08952</v>
-      </c>
-      <c r="Q20" s="2" t="n">
-        <v>3965491537.44432</v>
-      </c>
-      <c r="R20" s="2" t="n">
-        <v>3629118310.82659</v>
-      </c>
-      <c r="S20" s="2" t="n">
-        <v>2708032486.85803</v>
-      </c>
-      <c r="T20" s="2" t="n">
-        <v>2350318647.64675</v>
-      </c>
-      <c r="U20" s="2" t="n">
-        <v>1183085803.20192</v>
-      </c>
-      <c r="V20" s="2" t="n">
-        <v>723111496.120964</v>
-      </c>
-      <c r="W20" s="2" t="n">
-        <v>513631826.161622</v>
-      </c>
-      <c r="X20" s="2" t="n">
-        <v>268098756.597283</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>171947034.577903</v>
-      </c>
-      <c r="Z20" s="2" t="n">
-        <v>86415120.7678814</v>
-      </c>
-      <c r="AA20" s="2" t="n">
-        <v>9474910.51667184</v>
-      </c>
-      <c r="AB20" s="2" t="n">
-        <v>47676754.9490738</v>
-      </c>
-      <c r="AC20" s="2" t="n">
-        <v>2618926.71728299</v>
-      </c>
-      <c r="AD20" s="2" t="n">
-        <v>7288096.25533019</v>
-      </c>
-      <c r="AE20" s="2" t="n">
-        <v>22798848.5573329</v>
-      </c>
-      <c r="AF20" s="2" t="n">
-        <v>7572298.72589084</v>
-      </c>
-      <c r="AG20" s="2" t="n">
-        <v>2538954.59986841</v>
-      </c>
-      <c r="AH20" s="2" t="n">
-        <v>894847.817592846</v>
-      </c>
-      <c r="AI20" s="2" t="n">
-        <v>459811.989007678</v>
-      </c>
-      <c r="AJ20" s="2" t="n">
-        <v>410551.302448127</v>
-      </c>
-      <c r="AK20" s="2" t="n">
-        <v>-8098345.0194715</v>
-      </c>
-      <c r="AL20" s="2" t="n">
-        <v>19869.185299654</v>
-      </c>
-      <c r="AM20" s="2" t="n">
-        <v>50115.8203</v>
-      </c>
-      <c r="AN20" s="2" t="n">
-        <v>52983.7661763009</v>
-      </c>
-      <c r="AO20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <f>N21</f>
-      </c>
-      <c r="B21" t="str">
-        <f>O21</f>
-      </c>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="2" t="n">
-        <v>3081254.61475134</v>
-      </c>
-      <c r="U21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="2" t="n">
-        <v>321236.841987522</v>
-      </c>
-      <c r="AA21" s="2" t="n">
-        <v>330928.727802499</v>
-      </c>
-      <c r="AB21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2" t="n">
-        <v>-10479.814603147</v>
-      </c>
-      <c r="AF21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="2" t="n">
-        <v>2209788.97921449</v>
-      </c>
-      <c r="AH21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="2" t="n">
-        <v>355369.506231028</v>
-      </c>
-      <c r="AO21" s="2" t="n">
-        <v>-29603.6905382691</v>
-      </c>
-      <c r="AP21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <f>N22</f>
-      </c>
-      <c r="B22" t="str">
-        <f>O22</f>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
-      <c r="AN22" s="2"/>
-      <c r="AO22" s="2"/>
-      <c r="AP22" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
-      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <f>N1</f>
-      </c>
-      <c r="B1" t="str">
-        <f>O1</f>
-      </c>
-      <c r="N1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <f>N2</f>
-      </c>
-      <c r="B2" t="str">
-        <f>O2</f>
-      </c>
-      <c r="N2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>6918789242.2811</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>7328811918.684</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>8801334701.4989</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>10191426190.9468</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>12056670402.8457</v>
-      </c>
-      <c r="U2" s="3" t="n">
-        <v>12506041123.9648</v>
-      </c>
-      <c r="V2" s="3" t="n">
-        <v>12765068830.9666</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>14564575290.2307</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>15234083827.3575</v>
-      </c>
-      <c r="Y2" s="3" t="n">
-        <v>14888759317.5961</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>16989478929.6331</v>
-      </c>
-      <c r="AA2" s="3" t="n">
-        <v>18542196714.3724</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>18215313797.6679</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>15320174653.9432</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>14280701012.5827</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>14936155509.08</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>16011755012.2443</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>16834165955.4099</v>
-      </c>
-      <c r="AH2" s="3" t="n">
-        <v>18816123575.3623</v>
-      </c>
-      <c r="AI2" s="3" t="n">
-        <v>20794372181.3065</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
-        <v>21213565861.872</v>
-      </c>
-      <c r="AK2" s="3" t="n">
-        <v>19442163054.9524</v>
-      </c>
-      <c r="AL2" s="3" t="n">
-        <v>19426786572.2741</v>
-      </c>
-      <c r="AM2" s="3" t="n">
-        <v>18788237669.7315</v>
-      </c>
-      <c r="AN2" s="3" t="n">
-        <v>17548507150.21</v>
-      </c>
-      <c r="AO2" s="3" t="n">
-        <v>7091149254.66</v>
       </c>
       <c r="AP2" s="3"/>
     </row>
@@ -5616,88 +3833,88 @@
         <f>O3</f>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>3041119469.5999</v>
+        <v>1450699942.0516</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>3279808089.6754</v>
+        <v>1527999782.26</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>4761782578.4417</v>
+        <v>1608767664.83</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>6294583121.5448</v>
+        <v>2582137089.6</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>8842928516.1165</v>
+        <v>2525495641.4</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>10167884920.3271</v>
+        <v>2968219706</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>10417502072.1175</v>
+        <v>3003664704.71</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>11790122460.4632</v>
+        <v>3319029384.35</v>
       </c>
       <c r="X3" s="3" t="n">
-        <v>12202864055.484</v>
+        <v>3496763724.18</v>
       </c>
       <c r="Y3" s="3" t="n">
-        <v>11517680997.1795</v>
+        <v>3609710283.63</v>
       </c>
       <c r="Z3" s="3" t="n">
-        <v>11758090594.4095</v>
+        <v>4194449798.4403</v>
       </c>
       <c r="AA3" s="3" t="n">
-        <v>8915124511.1751</v>
+        <v>3757377069.6606</v>
       </c>
       <c r="AB3" s="3" t="n">
-        <v>6544009983.3115</v>
+        <v>3106977692.7088</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5655507714.3218</v>
+        <v>2859840836.5541</v>
       </c>
       <c r="AD3" s="3" t="n">
-        <v>5583393364.0216</v>
+        <v>3136724721.812</v>
       </c>
       <c r="AE3" s="3" t="n">
-        <v>5985298791.8516</v>
+        <v>3137629676.2549</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>6536507292.7104</v>
+        <v>3233496783.2393</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>7100980877.8463</v>
+        <v>3150141350.2824</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>7251540800.4414</v>
+        <v>3575655285.58</v>
       </c>
       <c r="AI3" s="3" t="n">
-        <v>7596491671.9512</v>
+        <v>3727943011.03</v>
       </c>
       <c r="AJ3" s="3" t="n">
-        <v>8547154885.9735</v>
+        <v>3544090671.3</v>
       </c>
       <c r="AK3" s="3" t="n">
-        <v>9367504941.9228</v>
+        <v>3356068305.19</v>
       </c>
       <c r="AL3" s="3" t="n">
-        <v>9987859909.2942</v>
+        <v>3571244215.92</v>
       </c>
       <c r="AM3" s="3" t="n">
-        <v>11541637846.9642</v>
+        <v>3639989639.37</v>
       </c>
       <c r="AN3" s="3" t="n">
-        <v>12058523558.67</v>
+        <v>4067312234.83</v>
       </c>
       <c r="AO3" s="3" t="n">
-        <v>3826890441.24</v>
+        <v>1375408283.44</v>
       </c>
       <c r="AP3" s="3"/>
     </row>
@@ -5709,88 +3926,88 @@
         <f>O4</f>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>630815.8438</v>
+        <v>218729865.0995</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>6008281.4071</v>
+        <v>210876624.8381</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>44386050.126</v>
+        <v>666115923.2688</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>132835758.6085</v>
+        <v>420077655.0412</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>460825642.3191</v>
+        <v>968762260.0305</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>616787906.101</v>
+        <v>1342218719.0591</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>1286628728.7187</v>
+        <v>1498281538.9096</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>3978287594.4896</v>
+        <v>1510153887.1767</v>
       </c>
       <c r="X4" s="3" t="n">
-        <v>5773226793.5366</v>
+        <v>1486588500.8591</v>
       </c>
       <c r="Y4" s="3" t="n">
-        <v>6304849880.9476</v>
+        <v>1971206354.158</v>
       </c>
       <c r="Z4" s="3" t="n">
-        <v>984380993.0201</v>
+        <v>2507642688.7302</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>804174743.2634</v>
+        <v>3027753056.4936</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>391575678.1137</v>
+        <v>4231405071.6753</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>210087773.9602</v>
+        <v>4025683961.6315</v>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>83130824.485</v>
+        <v>5002151896.4255</v>
       </c>
       <c r="AE4" s="3" t="n">
-        <v>10024694.7481</v>
+        <v>5787702455.7844</v>
       </c>
       <c r="AF4" s="3" t="n">
-        <v>-6545384.1236</v>
+        <v>6156964898.1525</v>
       </c>
       <c r="AG4" s="3" t="n">
-        <v>-66580414.6766</v>
+        <v>7058399054.5767</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>4520799.7674</v>
+        <v>6876741175.1143</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>205139.0282</v>
+        <v>7421368540.379</v>
       </c>
       <c r="AJ4" s="3" t="n">
-        <v>-2989121.3231</v>
+        <v>9290974118.0568</v>
       </c>
       <c r="AK4" s="3" t="n">
-        <v>-996051.1824</v>
+        <v>9756469993.2564</v>
       </c>
       <c r="AL4" s="3" t="n">
-        <v>467098.33</v>
+        <v>11178091502.4477</v>
       </c>
       <c r="AM4" s="3" t="n">
-        <v>-1278170.5078</v>
+        <v>12985115874.5924</v>
       </c>
       <c r="AN4" s="3" t="n">
-        <v>-3759268.97</v>
+        <v>14586171167.71</v>
       </c>
       <c r="AO4" s="3" t="n">
-        <v>0</v>
+        <v>5289733472.63</v>
       </c>
       <c r="AP4" s="3"/>
     </row>
@@ -5802,88 +4019,88 @@
         <f>O5</f>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>611351615</v>
+        <v>8252587012.1779</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>774664931.8175</v>
+        <v>10729897668.9633</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>800010636</v>
+        <v>13744560275.3797</v>
       </c>
       <c r="S5" s="3" t="n">
-        <v>861850560.2735</v>
+        <v>16684514722.2965</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>1451240233.71</v>
+        <v>15912250341.5154</v>
       </c>
       <c r="U5" s="3" t="n">
-        <v>2179549780.18</v>
+        <v>14916116100.4392</v>
       </c>
       <c r="V5" s="3" t="n">
-        <v>1664412436.0801</v>
+        <v>13757617443.8876</v>
       </c>
       <c r="W5" s="3" t="n">
-        <v>1857414062.3182</v>
+        <v>12718080992.4991</v>
       </c>
       <c r="X5" s="3" t="n">
-        <v>1323787184.981</v>
+        <v>12157970443.1929</v>
       </c>
       <c r="Y5" s="3" t="n">
-        <v>2033108166.5168</v>
+        <v>12769235301.5787</v>
       </c>
       <c r="Z5" s="3" t="n">
-        <v>3233095754.0634</v>
+        <v>13261830508.272</v>
       </c>
       <c r="AA5" s="3" t="n">
-        <v>2614836970.005</v>
+        <v>12873878381.4937</v>
       </c>
       <c r="AB5" s="3" t="n">
-        <v>2157846107.0138</v>
+        <v>12843643518.0069</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>1268517774.2107</v>
+        <v>12038456984.5758</v>
       </c>
       <c r="AD5" s="3" t="n">
-        <v>1032514047.7267</v>
+        <v>13900898747.7926</v>
       </c>
       <c r="AE5" s="3" t="n">
-        <v>988679287.7834</v>
+        <v>13813541438.0412</v>
       </c>
       <c r="AF5" s="3" t="n">
-        <v>1186801832.8577</v>
+        <v>15422749342.8683</v>
       </c>
       <c r="AG5" s="3" t="n">
-        <v>1638143214.8508</v>
+        <v>16746013659.1383</v>
       </c>
       <c r="AH5" s="3" t="n">
-        <v>1330391196.7454</v>
+        <v>18801648636.4727</v>
       </c>
       <c r="AI5" s="3" t="n">
-        <v>1383161106.3994</v>
+        <v>21655287191.5622</v>
       </c>
       <c r="AJ5" s="3" t="n">
-        <v>1199239428.1991</v>
+        <v>25216329308.6351</v>
       </c>
       <c r="AK5" s="3" t="n">
-        <v>1054511145.9681</v>
+        <v>26723221962.8182</v>
       </c>
       <c r="AL5" s="3" t="n">
-        <v>1162215850.7902</v>
+        <v>28602784406.9759</v>
       </c>
       <c r="AM5" s="3" t="n">
-        <v>1651438438.9315</v>
+        <v>31262689054.7069</v>
       </c>
       <c r="AN5" s="3" t="n">
-        <v>2090055428.14</v>
+        <v>33009613644.7544</v>
       </c>
       <c r="AO5" s="3" t="n">
-        <v>1206398164.49</v>
+        <v>12250058008.67</v>
       </c>
       <c r="AP5" s="3"/>
     </row>
@@ -5895,86 +4112,88 @@
         <f>O6</f>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6"/>
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
       <c r="P6" s="3" t="n">
-        <v>4990619405.1543</v>
+        <v>2469115876.5578</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>4264398501.1687</v>
+        <v>2957079941.9691</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>4969426672.9604</v>
+        <v>3372195978.8545</v>
       </c>
       <c r="S6" s="3" t="n">
-        <v>4593897424.5095</v>
+        <v>4722912985.9254</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>4918515091.6977</v>
+        <v>5950105051.1956</v>
       </c>
       <c r="U6" s="3" t="n">
-        <v>4112680362.099</v>
+        <v>7481083982.2187</v>
       </c>
       <c r="V6" s="3" t="n">
-        <v>3163552845.0163</v>
+        <v>8915518635.0487</v>
       </c>
       <c r="W6" s="3" t="n">
-        <v>1543572171.0603</v>
+        <v>13392530403.0344</v>
       </c>
       <c r="X6" s="3" t="n">
-        <v>2540071117.7356</v>
+        <v>16210147013.8808</v>
       </c>
       <c r="Y6" s="3" t="n">
-        <v>1894104799.3087</v>
+        <v>17382929075.1794</v>
       </c>
       <c r="Z6" s="3" t="n">
-        <v>847181280.5773</v>
+        <v>17871194253.6597</v>
       </c>
       <c r="AA6" s="3" t="n">
-        <v>674187259.1721</v>
+        <v>17167866922.7434</v>
       </c>
       <c r="AB6" s="3" t="n">
-        <v>540710272.5713</v>
+        <v>16535675154.3662</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>661488448.8229</v>
+        <v>14731386587.0295</v>
       </c>
       <c r="AD6" s="3" t="n">
-        <v>752281810.5223</v>
+        <v>15145398585.0443</v>
       </c>
       <c r="AE6" s="3" t="n">
-        <v>496566244.6641</v>
+        <v>15592872419.5479</v>
       </c>
       <c r="AF6" s="3" t="n">
-        <v>173458894.2083</v>
+        <v>16972053903.0648</v>
       </c>
       <c r="AG6" s="3" t="n">
-        <v>497293339.7439</v>
+        <v>18366218993.1074</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>3284694.2986</v>
+        <v>19084208895.6813</v>
       </c>
       <c r="AI6" s="3" t="n">
-        <v>5258807.4986</v>
+        <v>19069745171.6557</v>
       </c>
       <c r="AJ6" s="3" t="n">
-        <v>6763464.5315</v>
+        <v>18528849455.7907</v>
       </c>
       <c r="AK6" s="3" t="n">
-        <v>2393995.9493</v>
+        <v>16512253065.582</v>
       </c>
       <c r="AL6" s="3" t="n">
-        <v>14021740.1137</v>
+        <v>16596310651.8013</v>
       </c>
       <c r="AM6" s="3" t="n">
-        <v>1703277.3334</v>
+        <v>17630851869.4813</v>
       </c>
       <c r="AN6" s="3" t="n">
-        <v>5381460.71</v>
+        <v>17666969989.6125</v>
       </c>
       <c r="AO6" s="3" t="n">
-        <v>533655.97</v>
+        <v>6208913818.51</v>
       </c>
       <c r="AP6" s="3"/>
     </row>
@@ -5986,88 +4205,88 @@
         <f>O7</f>
       </c>
       <c r="N7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>16495369703.8513</v>
+        <v>9333619396.5111</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>19452899468.9072</v>
+        <v>9759002592.0137</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>21644476951.7152</v>
+        <v>11372629962.698</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>26687680851.6815</v>
+        <v>14021861727.3539</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>29167937162.0295</v>
+        <v>18721996221.3565</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>30369772021.7494</v>
+        <v>19829547583.9476</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>33458010886.3928</v>
+        <v>22863910210.5971</v>
       </c>
       <c r="W7" s="3" t="n">
-        <v>37910003029.6511</v>
+        <v>25971624472.5273</v>
       </c>
       <c r="X7" s="3" t="n">
-        <v>39696242465.3777</v>
+        <v>28610520750.5389</v>
       </c>
       <c r="Y7" s="3" t="n">
-        <v>40755415108.8484</v>
+        <v>26982168897.6875</v>
       </c>
       <c r="Z7" s="3" t="n">
-        <v>44934841454.8649</v>
+        <v>26736769140.7311</v>
       </c>
       <c r="AA7" s="3" t="n">
-        <v>42599498756.9165</v>
+        <v>23796568649.6446</v>
       </c>
       <c r="AB7" s="3" t="n">
-        <v>44243110359.4534</v>
+        <v>20274444113.9638</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>40581538226.1632</v>
+        <v>17247758473.2576</v>
       </c>
       <c r="AD7" s="3" t="n">
-        <v>43899552068.3007</v>
+        <v>16829872433.4924</v>
       </c>
       <c r="AE7" s="3" t="n">
-        <v>44003463928.0671</v>
+        <v>15933021165.6062</v>
       </c>
       <c r="AF7" s="3" t="n">
-        <v>46343781190.277</v>
+        <v>17658634442.5864</v>
       </c>
       <c r="AG7" s="3" t="n">
-        <v>48836622855.4158</v>
+        <v>18235285684.2313</v>
       </c>
       <c r="AH7" s="3" t="n">
-        <v>55836351296.2406</v>
+        <v>21690787138.7769</v>
       </c>
       <c r="AI7" s="3" t="n">
-        <v>59220029561.8483</v>
+        <v>24020628963.9968</v>
       </c>
       <c r="AJ7" s="3" t="n">
-        <v>62438288566.3127</v>
+        <v>23909810775.4842</v>
       </c>
       <c r="AK7" s="3" t="n">
-        <v>60408072857.4224</v>
+        <v>21746728397.8181</v>
       </c>
       <c r="AL7" s="3" t="n">
-        <v>64973703808.5551</v>
+        <v>23937628224.6384</v>
       </c>
       <c r="AM7" s="3" t="n">
-        <v>69744978193.2427</v>
+        <v>24769555515.7009</v>
       </c>
       <c r="AN7" s="3" t="n">
-        <v>74460088744.1869</v>
+        <v>25292364242.83</v>
       </c>
       <c r="AO7" s="3" t="n">
-        <v>26575121195.92</v>
+        <v>9496289623.93</v>
       </c>
       <c r="AP7" s="3"/>
     </row>
@@ -6079,88 +4298,88 @@
         <f>O8</f>
       </c>
       <c r="N8" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>1096781880.3751</v>
+        <v>2054406242.5715</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>1675103707.3359</v>
+        <v>2415938443.5675</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>1454198027.7734</v>
+        <v>2245790096.7845</v>
       </c>
       <c r="S8" s="3" t="n">
-        <v>1606018999.2881</v>
+        <v>1707966095.6414</v>
       </c>
       <c r="T8" s="3" t="n">
-        <v>1350010844.0872</v>
+        <v>1518551910.6403</v>
       </c>
       <c r="U8" s="3" t="n">
-        <v>1290124006.3546</v>
+        <v>787657763.3674</v>
       </c>
       <c r="V8" s="3" t="n">
-        <v>705242710.9975</v>
+        <v>497061404.6351</v>
       </c>
       <c r="W8" s="3" t="n">
-        <v>565419820.3181</v>
+        <v>362786401.5815</v>
       </c>
       <c r="X8" s="3" t="n">
-        <v>777671110.6487</v>
+        <v>193293778.7964</v>
       </c>
       <c r="Y8" s="3" t="n">
-        <v>666825686.2541</v>
+        <v>125238067.1179</v>
       </c>
       <c r="Z8" s="3" t="n">
-        <v>868034016.8932</v>
+        <v>63485770.7324</v>
       </c>
       <c r="AA8" s="3" t="n">
-        <v>1330922387.1969</v>
+        <v>7100555.5297</v>
       </c>
       <c r="AB8" s="3" t="n">
-        <v>617359191.1929</v>
+        <v>36377594.4479</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>356809449.9391</v>
+        <v>2034511.5154</v>
       </c>
       <c r="AD8" s="3" t="n">
-        <v>330975400.9327</v>
+        <v>5765041.16</v>
       </c>
       <c r="AE8" s="3" t="n">
-        <v>307629890.0933</v>
+        <v>18221149.0562</v>
       </c>
       <c r="AF8" s="3" t="n">
-        <v>385758605.7755</v>
+        <v>6100269.1602</v>
       </c>
       <c r="AG8" s="3" t="n">
-        <v>368363439.1102</v>
+        <v>2079916.9324</v>
       </c>
       <c r="AH8" s="3" t="n">
-        <v>361647710.7579</v>
+        <v>749335.1679</v>
       </c>
       <c r="AI8" s="3" t="n">
-        <v>286402561.5562</v>
+        <v>392160.4502</v>
       </c>
       <c r="AJ8" s="3" t="n">
-        <v>260818944.4949</v>
+        <v>354721.4375</v>
       </c>
       <c r="AK8" s="3" t="n">
-        <v>481717897.985</v>
+        <v>-7237891.7148</v>
       </c>
       <c r="AL8" s="3" t="n">
-        <v>606620716.3202</v>
+        <v>19000</v>
       </c>
       <c r="AM8" s="3" t="n">
-        <v>1166239742.1677</v>
+        <v>50115.8203</v>
       </c>
       <c r="AN8" s="3" t="n">
-        <v>1456866819.42</v>
+        <v>54398.75</v>
       </c>
       <c r="AO8" s="3" t="n">
-        <v>718993574.42</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="3"/>
     </row>
@@ -6171,89 +4390,81 @@
       <c r="B9" t="str">
         <f>O9</f>
       </c>
-      <c r="N9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9" t="s">
-        <v>72</v>
-      </c>
+      <c r="N9"/>
+      <c r="O9"/>
       <c r="P9" s="3" t="n">
-        <v>697335586.6983</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>636186374.8359</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>1409188226.4399</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>1317885939.1957</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>1633904989.1926</v>
+        <v>1990813.07</v>
       </c>
       <c r="U9" s="3" t="n">
-        <v>1659848464.2961</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3" t="n">
-        <v>1682636664.1386</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>1998710208.2178</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3" t="n">
-        <v>1777507941.997</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3" t="n">
-        <v>1726469484.4703</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="3" t="n">
-        <v>2775501578.458</v>
+        <v>236000</v>
       </c>
       <c r="AA9" s="3" t="n">
-        <v>2931623907.5681</v>
+        <v>248000</v>
       </c>
       <c r="AB9" s="3" t="n">
-        <v>2506389647.3718</v>
-      </c>
-      <c r="AC9" s="3" t="n">
-        <v>2828696620.5282</v>
-      </c>
-      <c r="AD9" s="3" t="n">
-        <v>3821926400.3264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
       <c r="AE9" s="3" t="n">
-        <v>3068087231.4786</v>
+        <v>-8375.61</v>
       </c>
       <c r="AF9" s="3" t="n">
-        <v>4866422040.8444</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="3" t="n">
-        <v>4317376762.5344</v>
+        <v>1810263.7657</v>
       </c>
       <c r="AH9" s="3" t="n">
-        <v>3503684369.0095</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="3" t="n">
-        <v>4176464063.6755</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="3" t="n">
-        <v>4374239201.9137</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="3" t="n">
-        <v>3508330770.3523</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="3" t="n">
-        <v>4937012035.9558</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="3" t="n">
-        <v>4304092698.7586</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="3" t="n">
-        <v>4642585459.88</v>
+        <v>364860</v>
       </c>
       <c r="AO9" s="3" t="n">
-        <v>1931883235.18</v>
+        <v>-31061.2</v>
       </c>
       <c r="AP9" s="3"/>
     </row>
@@ -6358,10 +4569,10 @@
         <f>O13</f>
       </c>
       <c r="N13" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
         <v>24</v>
@@ -6450,88 +4661,88 @@
         <f>O14</f>
       </c>
       <c r="N14" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="O14" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>11631684374.6668</v>
+        <v>16934189547.7143</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>12029421411.9742</v>
+        <v>16113644133.7298</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>14222649289.7337</v>
+        <v>17573206162.9921</v>
       </c>
       <c r="S14" s="3" t="n">
-        <v>16158817954.835</v>
+        <v>18307659621.6707</v>
       </c>
       <c r="T14" s="3" t="n">
-        <v>18660552252.3037</v>
+        <v>22106139725.3833</v>
       </c>
       <c r="U14" s="3" t="n">
-        <v>18784452329.6099</v>
+        <v>23398394330.302</v>
       </c>
       <c r="V14" s="3" t="n">
-        <v>18570277101.3244</v>
+        <v>21249870578.5085</v>
       </c>
       <c r="W14" s="3" t="n">
-        <v>20620479077.9873</v>
+        <v>23974960137.9296</v>
       </c>
       <c r="X14" s="3" t="n">
-        <v>21129696762.3326</v>
+        <v>23815051538.7279</v>
       </c>
       <c r="Y14" s="3" t="n">
-        <v>20441692147.7612</v>
+        <v>23267200269.1801</v>
       </c>
       <c r="Z14" s="3" t="n">
-        <v>23125621010.0376</v>
+        <v>24167622823.3906</v>
       </c>
       <c r="AA14" s="3" t="n">
-        <v>24742522457.0602</v>
+        <v>23727820117.9787</v>
       </c>
       <c r="AB14" s="3" t="n">
-        <v>23873130299.9072</v>
+        <v>23837059878.135</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>19720908144.7569</v>
+        <v>20567255836.5308</v>
       </c>
       <c r="AD14" s="3" t="n">
-        <v>18053491845.8924</v>
+        <v>19928235334.1859</v>
       </c>
       <c r="AE14" s="3" t="n">
-        <v>18688566041.0324</v>
+        <v>19410238150.3937</v>
       </c>
       <c r="AF14" s="3" t="n">
-        <v>19875482358.9651</v>
+        <v>19920398798.1004</v>
       </c>
       <c r="AG14" s="3" t="n">
-        <v>20549466385.7164</v>
+        <v>19490205367.7244</v>
       </c>
       <c r="AH14" s="3" t="n">
-        <v>22470007865.9824</v>
+        <v>20394066005.8523</v>
       </c>
       <c r="AI14" s="3" t="n">
-        <v>24381606120.5972</v>
+        <v>20597503975.5676</v>
       </c>
       <c r="AJ14" s="3" t="n">
-        <v>24552384416.182</v>
+        <v>20308355673.1773</v>
       </c>
       <c r="AK14" s="3" t="n">
-        <v>21753481614.2489</v>
+        <v>18099249283.6203</v>
       </c>
       <c r="AL14" s="3" t="n">
-        <v>20315495904.2813</v>
+        <v>18010485477.1586</v>
       </c>
       <c r="AM14" s="3" t="n">
-        <v>18788237669.7315</v>
+        <v>16908797626.95</v>
       </c>
       <c r="AN14" s="3" t="n">
-        <v>17092047144.2794</v>
+        <v>17176678640.1172</v>
       </c>
       <c r="AO14" s="3" t="n">
-        <v>6758405602.34737</v>
+        <v>6414772186.96733</v>
       </c>
       <c r="AP14" s="3"/>
     </row>
@@ -6543,88 +4754,88 @@
         <f>O15</f>
       </c>
       <c r="N15" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="O15" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>5112649132.28917</v>
+        <v>2438878141.44896</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>5383436510.42856</v>
+        <v>2508039980.03416</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>7694874232.61003</v>
+        <v>2599712323.36435</v>
       </c>
       <c r="S15" s="3" t="n">
-        <v>9980254074.05422</v>
+        <v>4094057336.38519</v>
       </c>
       <c r="T15" s="3" t="n">
-        <v>13686525725.994</v>
+        <v>3908802497.26215</v>
       </c>
       <c r="U15" s="3" t="n">
-        <v>15272470935.0941</v>
+        <v>4458355847.26505</v>
       </c>
       <c r="V15" s="3" t="n">
-        <v>15155100434.2054</v>
+        <v>4369650224.73042</v>
       </c>
       <c r="W15" s="3" t="n">
-        <v>16692417642.0004</v>
+        <v>4699071178.89809</v>
       </c>
       <c r="X15" s="3" t="n">
-        <v>16925390463.0161</v>
+        <v>4850016448.56147</v>
       </c>
       <c r="Y15" s="3" t="n">
-        <v>15813331667.0792</v>
+        <v>4955992959.96183</v>
       </c>
       <c r="Z15" s="3" t="n">
-        <v>16004796145.5563</v>
+        <v>5709372064.09389</v>
       </c>
       <c r="AA15" s="3" t="n">
-        <v>11896253276.9518</v>
+        <v>5013806506.19783</v>
       </c>
       <c r="AB15" s="3" t="n">
-        <v>8576629793.52517</v>
+        <v>4072028850.05684</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>7280057222.93757</v>
+        <v>3681332603.59352</v>
       </c>
       <c r="AD15" s="3" t="n">
-        <v>7058459278.78184</v>
+        <v>3965409970.99137</v>
       </c>
       <c r="AE15" s="3" t="n">
-        <v>7488985480.82403</v>
+        <v>3925896418.34846</v>
       </c>
       <c r="AF15" s="3" t="n">
-        <v>8113803595.30634</v>
+        <v>4013757906.23185</v>
       </c>
       <c r="AG15" s="3" t="n">
-        <v>8668167359.25213</v>
+        <v>3845377547.02842</v>
       </c>
       <c r="AH15" s="3" t="n">
-        <v>8659710283.77843</v>
+        <v>4270008223.06606</v>
       </c>
       <c r="AI15" s="3" t="n">
-        <v>8906961279.18751</v>
+        <v>4371049885.15483</v>
       </c>
       <c r="AJ15" s="3" t="n">
-        <v>9892397807.68055</v>
+        <v>4101897678.78484</v>
       </c>
       <c r="AK15" s="3" t="n">
-        <v>10481130414.8381</v>
+        <v>3755043611.49352</v>
       </c>
       <c r="AL15" s="3" t="n">
-        <v>10444770488.6712</v>
+        <v>3734616477.70695</v>
       </c>
       <c r="AM15" s="3" t="n">
-        <v>11541637846.9642</v>
+        <v>3639989639.37</v>
       </c>
       <c r="AN15" s="3" t="n">
-        <v>11744865326.2067</v>
+        <v>3961516035.13391</v>
       </c>
       <c r="AO15" s="3" t="n">
-        <v>3647318208.77265</v>
+        <v>1310868903.54299</v>
       </c>
       <c r="AP15" s="3"/>
     </row>
@@ -6636,88 +4847,88 @@
         <f>O16</f>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>1060510.81145544</v>
+        <v>367722829.104708</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>9861918.93169956</v>
+        <v>346130288.818736</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>71726305.8057694</v>
+        <v>1076420052.67064</v>
       </c>
       <c r="S16" s="3" t="n">
-        <v>210615158.372427</v>
+        <v>666045971.145293</v>
       </c>
       <c r="T16" s="3" t="n">
-        <v>713236796.758359</v>
+        <v>1499388982.97263</v>
       </c>
       <c r="U16" s="3" t="n">
-        <v>926434105.3087</v>
+        <v>2016053145.36839</v>
       </c>
       <c r="V16" s="3" t="n">
-        <v>1871752697.55453</v>
+        <v>2179659484.9417</v>
       </c>
       <c r="W16" s="3" t="n">
-        <v>5632446842.67686</v>
+        <v>2138071039.80271</v>
       </c>
       <c r="X16" s="3" t="n">
-        <v>8007474087.05586</v>
+        <v>2061900445.70419</v>
       </c>
       <c r="Y16" s="3" t="n">
-        <v>8656315650.95303</v>
+        <v>2706390276.84373</v>
       </c>
       <c r="Z16" s="3" t="n">
-        <v>1339912887.75558</v>
+        <v>3413335670.17283</v>
       </c>
       <c r="AA16" s="3" t="n">
-        <v>1073082760.96394</v>
+        <v>4040203496.31272</v>
       </c>
       <c r="AB16" s="3" t="n">
-        <v>513202094.112686</v>
+        <v>5545712017.36451</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>270435669.709495</v>
+        <v>5182065180.09388</v>
       </c>
       <c r="AD16" s="3" t="n">
-        <v>105092996.531466</v>
+        <v>6323660749.87945</v>
       </c>
       <c r="AE16" s="3" t="n">
-        <v>12543198.9327619</v>
+        <v>7241747014.82032</v>
       </c>
       <c r="AF16" s="3" t="n">
-        <v>-8124822.45586315</v>
+        <v>7642675467.14385</v>
       </c>
       <c r="AG16" s="3" t="n">
-        <v>-81274712.2113385</v>
+        <v>8616187727.57695</v>
       </c>
       <c r="AH16" s="3" t="n">
-        <v>5398689.37016447</v>
+        <v>8212128692.62144</v>
       </c>
       <c r="AI16" s="3" t="n">
-        <v>240527.530330095</v>
+        <v>8701627683.18516</v>
       </c>
       <c r="AJ16" s="3" t="n">
-        <v>-3459581.30138152</v>
+        <v>10753287289.4948</v>
       </c>
       <c r="AK16" s="3" t="n">
-        <v>-1114463.49986608</v>
+        <v>10916336315.9951</v>
       </c>
       <c r="AL16" s="3" t="n">
-        <v>488466.48799626</v>
+        <v>11689451124.138</v>
       </c>
       <c r="AM16" s="3" t="n">
-        <v>-1278170.5078</v>
+        <v>12985115874.5924</v>
       </c>
       <c r="AN16" s="3" t="n">
-        <v>-3661485.38523962</v>
+        <v>14206765459.8212</v>
       </c>
       <c r="AO16" s="3" t="n">
-        <v>0</v>
+        <v>5041519089.85043</v>
       </c>
       <c r="AP16" s="3"/>
     </row>
@@ -6729,88 +4940,88 @@
         <f>O17</f>
       </c>
       <c r="N17" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="P17" s="3" t="n">
-        <v>1027788067.91321</v>
+        <v>13874029694.895</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>1271525456.14573</v>
+        <v>17611921577.3921</v>
       </c>
       <c r="R17" s="3" t="n">
-        <v>1292789229.10943</v>
+        <v>22210729061.9274</v>
       </c>
       <c r="S17" s="3" t="n">
-        <v>1366490425.06957</v>
+        <v>26453808427.8966</v>
       </c>
       <c r="T17" s="3" t="n">
-        <v>2246137889.39599</v>
+        <v>24627975139.7618</v>
       </c>
       <c r="U17" s="3" t="n">
-        <v>3273749745.42089</v>
+        <v>22404457897.9281</v>
       </c>
       <c r="V17" s="3" t="n">
-        <v>2421342223.70326</v>
+        <v>20014209995.2673</v>
       </c>
       <c r="W17" s="3" t="n">
-        <v>2629720884.26653</v>
+        <v>18006218361.4708</v>
       </c>
       <c r="X17" s="3" t="n">
-        <v>1836094780.19803</v>
+        <v>16863122956.481</v>
       </c>
       <c r="Y17" s="3" t="n">
-        <v>2791379077.09465</v>
+        <v>17531667443.1501</v>
       </c>
       <c r="Z17" s="3" t="n">
-        <v>4400802838.46861</v>
+        <v>18051646404.4537</v>
       </c>
       <c r="AA17" s="3" t="n">
-        <v>3489212386.67216</v>
+        <v>17178774978.5153</v>
       </c>
       <c r="AB17" s="3" t="n">
-        <v>2828089697.05936</v>
+        <v>16832977934.7635</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>1632900607.87668</v>
+        <v>15496514221.2867</v>
       </c>
       <c r="AD17" s="3" t="n">
-        <v>1305291940.84935</v>
+        <v>17573350353.9308</v>
       </c>
       <c r="AE17" s="3" t="n">
-        <v>1237065197.39356</v>
+        <v>17283917623.1415</v>
       </c>
       <c r="AF17" s="3" t="n">
-        <v>1473183849.89731</v>
+        <v>19144346279.1249</v>
       </c>
       <c r="AG17" s="3" t="n">
-        <v>1999681422.75251</v>
+        <v>20441858877.637</v>
       </c>
       <c r="AH17" s="3" t="n">
-        <v>1588738537.77437</v>
+        <v>22452722053.1312</v>
       </c>
       <c r="AI17" s="3" t="n">
-        <v>1621770015.63318</v>
+        <v>25391037446.5515</v>
       </c>
       <c r="AJ17" s="3" t="n">
-        <v>1387988593.70964</v>
+        <v>29185145712.0378</v>
       </c>
       <c r="AK17" s="3" t="n">
-        <v>1179873286.78403</v>
+        <v>29900125618.6658</v>
       </c>
       <c r="AL17" s="3" t="n">
-        <v>1215383268.29187</v>
+        <v>29911264393.0662</v>
       </c>
       <c r="AM17" s="3" t="n">
-        <v>1651438438.9315</v>
+        <v>31262689054.7069</v>
       </c>
       <c r="AN17" s="3" t="n">
-        <v>2035690307.22357</v>
+        <v>32150989699.6475</v>
       </c>
       <c r="AO17" s="3" t="n">
-        <v>1149789381.20542</v>
+        <v>11675238766.1942</v>
       </c>
       <c r="AP17" s="3"/>
     </row>
@@ -6822,86 +5033,88 @@
         <f>O18</f>
       </c>
       <c r="N18" t="s">
-        <v>66</v>
-      </c>
-      <c r="O18"/>
+        <v>53</v>
+      </c>
+      <c r="O18" t="s">
+        <v>56</v>
+      </c>
       <c r="P18" s="3" t="n">
-        <v>8390096550.43394</v>
+        <v>4151011911.89489</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>6999531057.46515</v>
+        <v>4853714512.73782</v>
       </c>
       <c r="R18" s="3" t="n">
-        <v>8030419832.63372</v>
+        <v>5449350850.76698</v>
       </c>
       <c r="S18" s="3" t="n">
-        <v>7283764881.87452</v>
+        <v>7488323000.74824</v>
       </c>
       <c r="T18" s="3" t="n">
-        <v>7612566720.80098</v>
+        <v>9209196445.17487</v>
       </c>
       <c r="U18" s="3" t="n">
-        <v>6177370395.87468</v>
+        <v>11236814595.8282</v>
       </c>
       <c r="V18" s="3" t="n">
-        <v>4602251169.5448</v>
+        <v>12970055527.8823</v>
       </c>
       <c r="W18" s="3" t="n">
-        <v>2185384539.16072</v>
+        <v>18961101678.1462</v>
       </c>
       <c r="X18" s="3" t="n">
-        <v>3523082390.82482</v>
+        <v>22483497843.2402</v>
       </c>
       <c r="Y18" s="3" t="n">
-        <v>2600532816.54612</v>
+        <v>23866091002.0377</v>
       </c>
       <c r="Z18" s="3" t="n">
-        <v>1153160335.43897</v>
+        <v>24325788155.0474</v>
       </c>
       <c r="AA18" s="3" t="n">
-        <v>899628757.977728</v>
+        <v>22908630483.1696</v>
       </c>
       <c r="AB18" s="3" t="n">
-        <v>708659040.133891</v>
+        <v>21671782981.1783</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>851501580.936383</v>
+        <v>18962990193.6489</v>
       </c>
       <c r="AD18" s="3" t="n">
-        <v>951025689.853113</v>
+        <v>19146632200.8262</v>
       </c>
       <c r="AE18" s="3" t="n">
-        <v>621318588.408571</v>
+        <v>19510269948.9812</v>
       </c>
       <c r="AF18" s="3" t="n">
-        <v>215315509.71185</v>
+        <v>21067506821.5703</v>
       </c>
       <c r="AG18" s="3" t="n">
-        <v>607045979.941992</v>
+        <v>22419643529.193</v>
       </c>
       <c r="AH18" s="3" t="n">
-        <v>3922545.81190847</v>
+        <v>22790152407.5611</v>
       </c>
       <c r="AI18" s="3" t="n">
-        <v>6166003.56947407</v>
+        <v>22359463971.3839</v>
       </c>
       <c r="AJ18" s="3" t="n">
-        <v>7827971.1314855</v>
+        <v>21445118543.0262</v>
       </c>
       <c r="AK18" s="3" t="n">
-        <v>2678598.40083064</v>
+        <v>18475258769.1351</v>
       </c>
       <c r="AL18" s="3" t="n">
-        <v>14663186.9759314</v>
+        <v>17355535349.0138</v>
       </c>
       <c r="AM18" s="3" t="n">
-        <v>1703277.3334</v>
+        <v>17630851869.4813</v>
       </c>
       <c r="AN18" s="3" t="n">
-        <v>5241481.76098881</v>
+        <v>17207428607.7043</v>
       </c>
       <c r="AO18" s="3" t="n">
-        <v>508614.805280537</v>
+        <v>5917568003.23081</v>
       </c>
       <c r="AP18" s="3"/>
     </row>
@@ -6913,88 +5126,88 @@
         <f>O19</f>
       </c>
       <c r="N19" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>27731576627.0372</v>
+        <v>15691432574.6525</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>31929749049.7304</v>
+        <v>16018306383.4119</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>34976718325.6358</v>
+        <v>18377772570.5426</v>
       </c>
       <c r="S19" s="3" t="n">
-        <v>42314134296.7421</v>
+        <v>22232090660.8196</v>
       </c>
       <c r="T19" s="3" t="n">
-        <v>45144289204.0489</v>
+        <v>28976722186.3838</v>
       </c>
       <c r="U19" s="3" t="n">
-        <v>45616316878.2874</v>
+        <v>29784580717.1234</v>
       </c>
       <c r="V19" s="3" t="n">
-        <v>48673809882.8093</v>
+        <v>33261798573.3523</v>
       </c>
       <c r="W19" s="3" t="n">
-        <v>53672860948.0088</v>
+        <v>36770542798.8906</v>
       </c>
       <c r="X19" s="3" t="n">
-        <v>55058746912.7084</v>
+        <v>39682834525.6764</v>
       </c>
       <c r="Y19" s="3" t="n">
-        <v>55955612636.2185</v>
+        <v>37045476948.0739</v>
       </c>
       <c r="Z19" s="3" t="n">
-        <v>61164095610.8931</v>
+        <v>36393369846.2622</v>
       </c>
       <c r="AA19" s="3" t="n">
-        <v>56844346486.4939</v>
+        <v>31753903989.0795</v>
       </c>
       <c r="AB19" s="3" t="n">
-        <v>57985360571.6982</v>
+        <v>26571842322.739</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>52238620368.8036</v>
+        <v>22202192092.2761</v>
       </c>
       <c r="AD19" s="3" t="n">
-        <v>55497289986.3312</v>
+        <v>21276123943.6182</v>
       </c>
       <c r="AE19" s="3" t="n">
-        <v>55058454711.0492</v>
+        <v>19935874268.6885</v>
       </c>
       <c r="AF19" s="3" t="n">
-        <v>57526798579.5881</v>
+        <v>21919763141.4324</v>
       </c>
       <c r="AG19" s="3" t="n">
-        <v>59614865531.0581</v>
+        <v>22259813239.0173</v>
       </c>
       <c r="AH19" s="3" t="n">
-        <v>66679156724.7732</v>
+        <v>25902899482.7529</v>
       </c>
       <c r="AI19" s="3" t="n">
-        <v>69436067732.0718</v>
+        <v>28164423963.5025</v>
       </c>
       <c r="AJ19" s="3" t="n">
-        <v>72265496199.4838</v>
+        <v>27672993277.0508</v>
       </c>
       <c r="AK19" s="3" t="n">
-        <v>67589490867.9628</v>
+        <v>24332017740.7678</v>
       </c>
       <c r="AL19" s="3" t="n">
-        <v>67946029504.0535</v>
+        <v>25032693201.5562</v>
       </c>
       <c r="AM19" s="3" t="n">
-        <v>69744978193.2427</v>
+        <v>24769555515.7009</v>
       </c>
       <c r="AN19" s="3" t="n">
-        <v>72523282823.385</v>
+        <v>24634476216.6031</v>
       </c>
       <c r="AO19" s="3" t="n">
-        <v>25328115587.9686</v>
+        <v>9050687651.75201</v>
       </c>
       <c r="AP19" s="3"/>
     </row>
@@ -7006,88 +5219,88 @@
         <f>O20</f>
       </c>
       <c r="N20" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="P20" s="3" t="n">
-        <v>1843880513.43079</v>
+        <v>3453813110.08952</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>2749494546.71258</v>
+        <v>3965491537.44432</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>2349933191.76025</v>
+        <v>3629118310.82659</v>
       </c>
       <c r="S20" s="3" t="n">
-        <v>2546392247.29467</v>
+        <v>2708032486.85803</v>
       </c>
       <c r="T20" s="3" t="n">
-        <v>2089461439.64588</v>
+        <v>2350318647.64675</v>
       </c>
       <c r="U20" s="3" t="n">
-        <v>1937805309.96449</v>
+        <v>1183085803.20192</v>
       </c>
       <c r="V20" s="3" t="n">
-        <v>1025968033.57159</v>
+        <v>723111496.120964</v>
       </c>
       <c r="W20" s="3" t="n">
-        <v>800519571.82502</v>
+        <v>513631826.161622</v>
       </c>
       <c r="X20" s="3" t="n">
-        <v>1078630978.73498</v>
+        <v>268098756.597283</v>
       </c>
       <c r="Y20" s="3" t="n">
-        <v>915525941.675761</v>
+        <v>171947034.577903</v>
       </c>
       <c r="Z20" s="3" t="n">
-        <v>1181544518.32421</v>
+        <v>86415120.7678814</v>
       </c>
       <c r="AA20" s="3" t="n">
-        <v>1775969566.12474</v>
+        <v>9474910.51667184</v>
       </c>
       <c r="AB20" s="3" t="n">
-        <v>809115702.1451</v>
+        <v>47676754.9490738</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>459303274.693354</v>
+        <v>2618926.71728299</v>
       </c>
       <c r="AD20" s="3" t="n">
-        <v>418415153.196238</v>
+        <v>7288096.25533019</v>
       </c>
       <c r="AE20" s="3" t="n">
-        <v>384915751.158934</v>
+        <v>22798848.5573329</v>
       </c>
       <c r="AF20" s="3" t="n">
-        <v>478844346.422163</v>
+        <v>7572298.72589084</v>
       </c>
       <c r="AG20" s="3" t="n">
-        <v>449661250.208201</v>
+        <v>2538954.59986841</v>
       </c>
       <c r="AH20" s="3" t="n">
-        <v>431875719.400832</v>
+        <v>894847.817592846</v>
       </c>
       <c r="AI20" s="3" t="n">
-        <v>335809823.297807</v>
+        <v>459811.989007678</v>
       </c>
       <c r="AJ20" s="3" t="n">
-        <v>301869427.797205</v>
+        <v>410551.302448127</v>
       </c>
       <c r="AK20" s="3" t="n">
-        <v>538985369.449521</v>
+        <v>-8098345.0194715</v>
       </c>
       <c r="AL20" s="3" t="n">
-        <v>634371548.377626</v>
+        <v>19869.185299654</v>
       </c>
       <c r="AM20" s="3" t="n">
-        <v>1166239742.1677</v>
+        <v>50115.8203</v>
       </c>
       <c r="AN20" s="3" t="n">
-        <v>1418971776.19266</v>
+        <v>52983.7661763009</v>
       </c>
       <c r="AO20" s="3" t="n">
-        <v>685255665.464748</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="3"/>
     </row>
@@ -7098,89 +5311,81 @@
       <c r="B21" t="str">
         <f>O21</f>
       </c>
-      <c r="N21" t="s">
-        <v>72</v>
-      </c>
-      <c r="O21" t="s">
-        <v>72</v>
-      </c>
+      <c r="N21"/>
+      <c r="O21"/>
       <c r="P21" s="3" t="n">
-        <v>1172342033.21729</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>1044228462.18046</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>2277198925.80194</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3" t="n">
-        <v>2089548467.28098</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>2528854850.25218</v>
+        <v>3081254.61475134</v>
       </c>
       <c r="U21" s="3" t="n">
-        <v>2493142637.45692</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3" t="n">
-        <v>2447854338.09023</v>
+        <v>0</v>
       </c>
       <c r="W21" s="3" t="n">
-        <v>2829767515.37408</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3" t="n">
-        <v>2465406140.11767</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="3" t="n">
-        <v>2370375996.49667</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="3" t="n">
-        <v>3777937974.55606</v>
+        <v>321236.841987522</v>
       </c>
       <c r="AA21" s="3" t="n">
-        <v>3911929718.25363</v>
+        <v>330928.727802499</v>
       </c>
       <c r="AB21" s="3" t="n">
-        <v>3284893540.60461</v>
-      </c>
-      <c r="AC21" s="3" t="n">
-        <v>3641242184.43311</v>
-      </c>
-      <c r="AD21" s="3" t="n">
-        <v>4831633758.25168</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
       <c r="AE21" s="3" t="n">
-        <v>3838882824.31707</v>
+        <v>-10479.814603147</v>
       </c>
       <c r="AF21" s="3" t="n">
-        <v>6040717294.89474</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="3" t="n">
-        <v>5270221815.03815</v>
+        <v>2209788.97921449</v>
       </c>
       <c r="AH21" s="3" t="n">
-        <v>4184061345.91127</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="3" t="n">
-        <v>4896945235.44721</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="3" t="n">
-        <v>5062703890.19081</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="3" t="n">
-        <v>3925407306.47367</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="3" t="n">
-        <v>5162863524.68568</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="3" t="n">
-        <v>4304092698.7586</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="3" t="n">
-        <v>4521825638.63648</v>
+        <v>355369.506231028</v>
       </c>
       <c r="AO21" s="3" t="n">
-        <v>1841231937.28313</v>
+        <v>-29603.6905382691</v>
       </c>
       <c r="AP21" s="3"/>
     </row>
@@ -7223,4 +5428,2745 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>O1</f>
+      </c>
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>O2</f>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>6918789242.2811</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>7328811918.684</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>8801334701.4989</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>10191426190.9468</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>12056670402.8457</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>12506041123.9648</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>12765068830.9666</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>14564575290.2307</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>15234083827.3575</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>14888759317.5961</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>16989478929.6331</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>18542196714.3724</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>18215313797.6679</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>15320174653.9432</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>14280701012.5827</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>14936155509.08</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>16011755012.2443</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>16834165955.4099</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>18816123575.3623</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>20794372181.3065</v>
+      </c>
+      <c r="AJ2" s="4" t="n">
+        <v>21213565861.872</v>
+      </c>
+      <c r="AK2" s="4" t="n">
+        <v>19442163054.9524</v>
+      </c>
+      <c r="AL2" s="4" t="n">
+        <v>19426786572.2741</v>
+      </c>
+      <c r="AM2" s="4" t="n">
+        <v>18788237669.7315</v>
+      </c>
+      <c r="AN2" s="4" t="n">
+        <v>17548507150.21</v>
+      </c>
+      <c r="AO2" s="4" t="n">
+        <v>7091149254.66</v>
+      </c>
+      <c r="AP2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>O3</f>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>3041119469.5999</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>3279808089.6754</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>4761782578.4417</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>6294583121.5448</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>8842928516.1165</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>10167884920.3271</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>10417502072.1175</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>11790122460.4632</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>12202864055.484</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>11517680997.1795</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>11758090594.4095</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>8915124511.1751</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>6544009983.3115</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>5655507714.3218</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>5583393364.0216</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>5985298791.8516</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>6536507292.7104</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>7100980877.8463</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>7251540800.4414</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>7596491671.9512</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
+        <v>8547154885.9735</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>9367504941.9228</v>
+      </c>
+      <c r="AL3" s="4" t="n">
+        <v>9987859909.2942</v>
+      </c>
+      <c r="AM3" s="4" t="n">
+        <v>11541637846.9642</v>
+      </c>
+      <c r="AN3" s="4" t="n">
+        <v>12058523558.67</v>
+      </c>
+      <c r="AO3" s="4" t="n">
+        <v>3826890441.24</v>
+      </c>
+      <c r="AP3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>O4</f>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>630815.8438</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>6008281.4071</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>44386050.126</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>132835758.6085</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>460825642.3191</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>616787906.101</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1286628728.7187</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>3978287594.4896</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>5773226793.5366</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>6304849880.9476</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>984380993.0201</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>804174743.2634</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>391575678.1137</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>210087773.9602</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>83130824.485</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>10024694.7481</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>-6545384.1236</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>-66580414.6766</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>4520799.7674</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>205139.0282</v>
+      </c>
+      <c r="AJ4" s="4" t="n">
+        <v>-2989121.3231</v>
+      </c>
+      <c r="AK4" s="4" t="n">
+        <v>-996051.1824</v>
+      </c>
+      <c r="AL4" s="4" t="n">
+        <v>467098.33</v>
+      </c>
+      <c r="AM4" s="4" t="n">
+        <v>-1278170.5078</v>
+      </c>
+      <c r="AN4" s="4" t="n">
+        <v>-3759268.97</v>
+      </c>
+      <c r="AO4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>O5</f>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>611351615</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>774664931.8175</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>800010636</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>861850560.2735</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>1451240233.71</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2179549780.18</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1664412436.0801</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1857414062.3182</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1323787184.981</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>2033108166.5168</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>3233095754.0634</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2614836970.005</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2157846107.0138</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1268517774.2107</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1032514047.7267</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>988679287.7834</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>1186801832.8577</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1638143214.8508</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>1330391196.7454</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>1383161106.3994</v>
+      </c>
+      <c r="AJ5" s="4" t="n">
+        <v>1199239428.1991</v>
+      </c>
+      <c r="AK5" s="4" t="n">
+        <v>1054511145.9681</v>
+      </c>
+      <c r="AL5" s="4" t="n">
+        <v>1162215850.7902</v>
+      </c>
+      <c r="AM5" s="4" t="n">
+        <v>1651438438.9315</v>
+      </c>
+      <c r="AN5" s="4" t="n">
+        <v>2090055428.14</v>
+      </c>
+      <c r="AO5" s="4" t="n">
+        <v>1206398164.49</v>
+      </c>
+      <c r="AP5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>O6</f>
+      </c>
+      <c r="N6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6" s="4" t="n">
+        <v>4990619405.1543</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4264398501.1687</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>4969426672.9604</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>4593897424.5095</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>4918515091.6977</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>4112680362.099</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3163552845.0163</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1543572171.0603</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2540071117.7356</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1894104799.3087</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>847181280.5773</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>674187259.1721</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>540710272.5713</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>661488448.8229</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>752281810.5223</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>496566244.6641</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>173458894.2083</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>497293339.7439</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3284694.2986</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>5258807.4986</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
+        <v>6763464.5315</v>
+      </c>
+      <c r="AK6" s="4" t="n">
+        <v>2393995.9493</v>
+      </c>
+      <c r="AL6" s="4" t="n">
+        <v>14021740.1137</v>
+      </c>
+      <c r="AM6" s="4" t="n">
+        <v>1703277.3334</v>
+      </c>
+      <c r="AN6" s="4" t="n">
+        <v>5381460.71</v>
+      </c>
+      <c r="AO6" s="4" t="n">
+        <v>533655.97</v>
+      </c>
+      <c r="AP6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>O7</f>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>16495369703.8513</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>19452899468.9072</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>21644476951.7152</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>26687680851.6815</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>29167937162.0295</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>30369772021.7494</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>33458010886.3928</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>37910003029.6511</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>39696242465.3777</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>40755415108.8484</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>44934841454.8649</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>42599498756.9165</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>44243110359.4534</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>40581538226.1632</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>43899552068.3007</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>44003463928.0671</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>46343781190.277</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>48836622855.4158</v>
+      </c>
+      <c r="AH7" s="4" t="n">
+        <v>55836351296.2406</v>
+      </c>
+      <c r="AI7" s="4" t="n">
+        <v>59220029561.8483</v>
+      </c>
+      <c r="AJ7" s="4" t="n">
+        <v>62438288566.3127</v>
+      </c>
+      <c r="AK7" s="4" t="n">
+        <v>60408072857.4224</v>
+      </c>
+      <c r="AL7" s="4" t="n">
+        <v>64973703808.5551</v>
+      </c>
+      <c r="AM7" s="4" t="n">
+        <v>69744978193.2427</v>
+      </c>
+      <c r="AN7" s="4" t="n">
+        <v>74460088744.1869</v>
+      </c>
+      <c r="AO7" s="4" t="n">
+        <v>26575121195.92</v>
+      </c>
+      <c r="AP7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>O8</f>
+      </c>
+      <c r="N8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>1096781880.3751</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>1675103707.3359</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>1454198027.7734</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>1606018999.2881</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>1350010844.0872</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>1290124006.3546</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>705242710.9975</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>565419820.3181</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>777671110.6487</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>666825686.2541</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>868034016.8932</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>1330922387.1969</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>617359191.1929</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>356809449.9391</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>330975400.9327</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>307629890.0933</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>385758605.7755</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>368363439.1102</v>
+      </c>
+      <c r="AH8" s="4" t="n">
+        <v>361647710.7579</v>
+      </c>
+      <c r="AI8" s="4" t="n">
+        <v>286402561.5562</v>
+      </c>
+      <c r="AJ8" s="4" t="n">
+        <v>260818944.4949</v>
+      </c>
+      <c r="AK8" s="4" t="n">
+        <v>481717897.985</v>
+      </c>
+      <c r="AL8" s="4" t="n">
+        <v>606620716.3202</v>
+      </c>
+      <c r="AM8" s="4" t="n">
+        <v>1166239742.1677</v>
+      </c>
+      <c r="AN8" s="4" t="n">
+        <v>1456866819.42</v>
+      </c>
+      <c r="AO8" s="4" t="n">
+        <v>718993574.42</v>
+      </c>
+      <c r="AP8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>O9</f>
+      </c>
+      <c r="N9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>697335586.6983</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>636186374.8359</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>1409188226.4399</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>1317885939.1957</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>1633904989.1926</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>1659848464.2961</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>1682636664.1386</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>1998710208.2178</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>1777507941.997</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>1726469484.4703</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>2775501578.458</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>2931623907.5681</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>2506389647.3718</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>2828696620.5282</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>3821926400.3264</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>3068087231.4786</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>4866422040.8444</v>
+      </c>
+      <c r="AG9" s="4" t="n">
+        <v>4317376762.5344</v>
+      </c>
+      <c r="AH9" s="4" t="n">
+        <v>3503684369.0095</v>
+      </c>
+      <c r="AI9" s="4" t="n">
+        <v>4176464063.6755</v>
+      </c>
+      <c r="AJ9" s="4" t="n">
+        <v>4374239201.9137</v>
+      </c>
+      <c r="AK9" s="4" t="n">
+        <v>3508330770.3523</v>
+      </c>
+      <c r="AL9" s="4" t="n">
+        <v>4937012035.9558</v>
+      </c>
+      <c r="AM9" s="4" t="n">
+        <v>4304092698.7586</v>
+      </c>
+      <c r="AN9" s="4" t="n">
+        <v>4642585459.88</v>
+      </c>
+      <c r="AO9" s="4" t="n">
+        <v>1931883235.18</v>
+      </c>
+      <c r="AP9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>O10</f>
+      </c>
+      <c r="N10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="4" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="4" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="4" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="4" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="4" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="4" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="4" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="4" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="4" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="4" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="4" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="4" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="4" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="4" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="4" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="4" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="4" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="4" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="4" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="4" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="4" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="4" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="4" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="4" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="4" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>O13</f>
+      </c>
+      <c r="N13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" t="s">
+        <v>29</v>
+      </c>
+      <c r="V13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W13" t="s">
+        <v>31</v>
+      </c>
+      <c r="X13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>O14</f>
+      </c>
+      <c r="N14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <v>11631684374.6668</v>
+      </c>
+      <c r="Q14" s="4" t="n">
+        <v>12029421411.9742</v>
+      </c>
+      <c r="R14" s="4" t="n">
+        <v>14222649289.7337</v>
+      </c>
+      <c r="S14" s="4" t="n">
+        <v>16158817954.835</v>
+      </c>
+      <c r="T14" s="4" t="n">
+        <v>18660552252.3037</v>
+      </c>
+      <c r="U14" s="4" t="n">
+        <v>18784452329.6099</v>
+      </c>
+      <c r="V14" s="4" t="n">
+        <v>18570277101.3244</v>
+      </c>
+      <c r="W14" s="4" t="n">
+        <v>20620479077.9873</v>
+      </c>
+      <c r="X14" s="4" t="n">
+        <v>21129696762.3326</v>
+      </c>
+      <c r="Y14" s="4" t="n">
+        <v>20441692147.7612</v>
+      </c>
+      <c r="Z14" s="4" t="n">
+        <v>23125621010.0376</v>
+      </c>
+      <c r="AA14" s="4" t="n">
+        <v>24742522457.0602</v>
+      </c>
+      <c r="AB14" s="4" t="n">
+        <v>23873130299.9072</v>
+      </c>
+      <c r="AC14" s="4" t="n">
+        <v>19720908144.7569</v>
+      </c>
+      <c r="AD14" s="4" t="n">
+        <v>18053491845.8924</v>
+      </c>
+      <c r="AE14" s="4" t="n">
+        <v>18688566041.0324</v>
+      </c>
+      <c r="AF14" s="4" t="n">
+        <v>19875482358.9651</v>
+      </c>
+      <c r="AG14" s="4" t="n">
+        <v>20549466385.7164</v>
+      </c>
+      <c r="AH14" s="4" t="n">
+        <v>22470007865.9824</v>
+      </c>
+      <c r="AI14" s="4" t="n">
+        <v>24381606120.5972</v>
+      </c>
+      <c r="AJ14" s="4" t="n">
+        <v>24552384416.182</v>
+      </c>
+      <c r="AK14" s="4" t="n">
+        <v>21753481614.2489</v>
+      </c>
+      <c r="AL14" s="4" t="n">
+        <v>20315495904.2813</v>
+      </c>
+      <c r="AM14" s="4" t="n">
+        <v>18788237669.7315</v>
+      </c>
+      <c r="AN14" s="4" t="n">
+        <v>17092047144.2794</v>
+      </c>
+      <c r="AO14" s="4" t="n">
+        <v>6758405602.34737</v>
+      </c>
+      <c r="AP14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>O15</f>
+      </c>
+      <c r="N15" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="4" t="n">
+        <v>5112649132.28917</v>
+      </c>
+      <c r="Q15" s="4" t="n">
+        <v>5383436510.42856</v>
+      </c>
+      <c r="R15" s="4" t="n">
+        <v>7694874232.61003</v>
+      </c>
+      <c r="S15" s="4" t="n">
+        <v>9980254074.05422</v>
+      </c>
+      <c r="T15" s="4" t="n">
+        <v>13686525725.994</v>
+      </c>
+      <c r="U15" s="4" t="n">
+        <v>15272470935.0941</v>
+      </c>
+      <c r="V15" s="4" t="n">
+        <v>15155100434.2054</v>
+      </c>
+      <c r="W15" s="4" t="n">
+        <v>16692417642.0004</v>
+      </c>
+      <c r="X15" s="4" t="n">
+        <v>16925390463.0161</v>
+      </c>
+      <c r="Y15" s="4" t="n">
+        <v>15813331667.0792</v>
+      </c>
+      <c r="Z15" s="4" t="n">
+        <v>16004796145.5563</v>
+      </c>
+      <c r="AA15" s="4" t="n">
+        <v>11896253276.9518</v>
+      </c>
+      <c r="AB15" s="4" t="n">
+        <v>8576629793.52517</v>
+      </c>
+      <c r="AC15" s="4" t="n">
+        <v>7280057222.93757</v>
+      </c>
+      <c r="AD15" s="4" t="n">
+        <v>7058459278.78184</v>
+      </c>
+      <c r="AE15" s="4" t="n">
+        <v>7488985480.82403</v>
+      </c>
+      <c r="AF15" s="4" t="n">
+        <v>8113803595.30634</v>
+      </c>
+      <c r="AG15" s="4" t="n">
+        <v>8668167359.25213</v>
+      </c>
+      <c r="AH15" s="4" t="n">
+        <v>8659710283.77843</v>
+      </c>
+      <c r="AI15" s="4" t="n">
+        <v>8906961279.18751</v>
+      </c>
+      <c r="AJ15" s="4" t="n">
+        <v>9892397807.68055</v>
+      </c>
+      <c r="AK15" s="4" t="n">
+        <v>10481130414.8381</v>
+      </c>
+      <c r="AL15" s="4" t="n">
+        <v>10444770488.6712</v>
+      </c>
+      <c r="AM15" s="4" t="n">
+        <v>11541637846.9642</v>
+      </c>
+      <c r="AN15" s="4" t="n">
+        <v>11744865326.2067</v>
+      </c>
+      <c r="AO15" s="4" t="n">
+        <v>3647318208.77265</v>
+      </c>
+      <c r="AP15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>O16</f>
+      </c>
+      <c r="N16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" s="4" t="n">
+        <v>1060510.81145544</v>
+      </c>
+      <c r="Q16" s="4" t="n">
+        <v>9861918.93169956</v>
+      </c>
+      <c r="R16" s="4" t="n">
+        <v>71726305.8057694</v>
+      </c>
+      <c r="S16" s="4" t="n">
+        <v>210615158.372427</v>
+      </c>
+      <c r="T16" s="4" t="n">
+        <v>713236796.758359</v>
+      </c>
+      <c r="U16" s="4" t="n">
+        <v>926434105.3087</v>
+      </c>
+      <c r="V16" s="4" t="n">
+        <v>1871752697.55453</v>
+      </c>
+      <c r="W16" s="4" t="n">
+        <v>5632446842.67686</v>
+      </c>
+      <c r="X16" s="4" t="n">
+        <v>8007474087.05586</v>
+      </c>
+      <c r="Y16" s="4" t="n">
+        <v>8656315650.95303</v>
+      </c>
+      <c r="Z16" s="4" t="n">
+        <v>1339912887.75558</v>
+      </c>
+      <c r="AA16" s="4" t="n">
+        <v>1073082760.96394</v>
+      </c>
+      <c r="AB16" s="4" t="n">
+        <v>513202094.112686</v>
+      </c>
+      <c r="AC16" s="4" t="n">
+        <v>270435669.709495</v>
+      </c>
+      <c r="AD16" s="4" t="n">
+        <v>105092996.531466</v>
+      </c>
+      <c r="AE16" s="4" t="n">
+        <v>12543198.9327619</v>
+      </c>
+      <c r="AF16" s="4" t="n">
+        <v>-8124822.45586315</v>
+      </c>
+      <c r="AG16" s="4" t="n">
+        <v>-81274712.2113385</v>
+      </c>
+      <c r="AH16" s="4" t="n">
+        <v>5398689.37016447</v>
+      </c>
+      <c r="AI16" s="4" t="n">
+        <v>240527.530330095</v>
+      </c>
+      <c r="AJ16" s="4" t="n">
+        <v>-3459581.30138152</v>
+      </c>
+      <c r="AK16" s="4" t="n">
+        <v>-1114463.49986608</v>
+      </c>
+      <c r="AL16" s="4" t="n">
+        <v>488466.48799626</v>
+      </c>
+      <c r="AM16" s="4" t="n">
+        <v>-1278170.5078</v>
+      </c>
+      <c r="AN16" s="4" t="n">
+        <v>-3661485.38523962</v>
+      </c>
+      <c r="AO16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>O17</f>
+      </c>
+      <c r="N17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <v>1027788067.91321</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <v>1271525456.14573</v>
+      </c>
+      <c r="R17" s="4" t="n">
+        <v>1292789229.10943</v>
+      </c>
+      <c r="S17" s="4" t="n">
+        <v>1366490425.06957</v>
+      </c>
+      <c r="T17" s="4" t="n">
+        <v>2246137889.39599</v>
+      </c>
+      <c r="U17" s="4" t="n">
+        <v>3273749745.42089</v>
+      </c>
+      <c r="V17" s="4" t="n">
+        <v>2421342223.70326</v>
+      </c>
+      <c r="W17" s="4" t="n">
+        <v>2629720884.26653</v>
+      </c>
+      <c r="X17" s="4" t="n">
+        <v>1836094780.19803</v>
+      </c>
+      <c r="Y17" s="4" t="n">
+        <v>2791379077.09465</v>
+      </c>
+      <c r="Z17" s="4" t="n">
+        <v>4400802838.46861</v>
+      </c>
+      <c r="AA17" s="4" t="n">
+        <v>3489212386.67216</v>
+      </c>
+      <c r="AB17" s="4" t="n">
+        <v>2828089697.05936</v>
+      </c>
+      <c r="AC17" s="4" t="n">
+        <v>1632900607.87668</v>
+      </c>
+      <c r="AD17" s="4" t="n">
+        <v>1305291940.84935</v>
+      </c>
+      <c r="AE17" s="4" t="n">
+        <v>1237065197.39356</v>
+      </c>
+      <c r="AF17" s="4" t="n">
+        <v>1473183849.89731</v>
+      </c>
+      <c r="AG17" s="4" t="n">
+        <v>1999681422.75251</v>
+      </c>
+      <c r="AH17" s="4" t="n">
+        <v>1588738537.77437</v>
+      </c>
+      <c r="AI17" s="4" t="n">
+        <v>1621770015.63318</v>
+      </c>
+      <c r="AJ17" s="4" t="n">
+        <v>1387988593.70964</v>
+      </c>
+      <c r="AK17" s="4" t="n">
+        <v>1179873286.78403</v>
+      </c>
+      <c r="AL17" s="4" t="n">
+        <v>1215383268.29187</v>
+      </c>
+      <c r="AM17" s="4" t="n">
+        <v>1651438438.9315</v>
+      </c>
+      <c r="AN17" s="4" t="n">
+        <v>2035690307.22357</v>
+      </c>
+      <c r="AO17" s="4" t="n">
+        <v>1149789381.20542</v>
+      </c>
+      <c r="AP17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>O18</f>
+      </c>
+      <c r="N18" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18"/>
+      <c r="P18" s="4" t="n">
+        <v>8390096550.43394</v>
+      </c>
+      <c r="Q18" s="4" t="n">
+        <v>6999531057.46515</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>8030419832.63372</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <v>7283764881.87452</v>
+      </c>
+      <c r="T18" s="4" t="n">
+        <v>7612566720.80098</v>
+      </c>
+      <c r="U18" s="4" t="n">
+        <v>6177370395.87468</v>
+      </c>
+      <c r="V18" s="4" t="n">
+        <v>4602251169.5448</v>
+      </c>
+      <c r="W18" s="4" t="n">
+        <v>2185384539.16072</v>
+      </c>
+      <c r="X18" s="4" t="n">
+        <v>3523082390.82482</v>
+      </c>
+      <c r="Y18" s="4" t="n">
+        <v>2600532816.54612</v>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v>1153160335.43897</v>
+      </c>
+      <c r="AA18" s="4" t="n">
+        <v>899628757.977728</v>
+      </c>
+      <c r="AB18" s="4" t="n">
+        <v>708659040.133891</v>
+      </c>
+      <c r="AC18" s="4" t="n">
+        <v>851501580.936383</v>
+      </c>
+      <c r="AD18" s="4" t="n">
+        <v>951025689.853113</v>
+      </c>
+      <c r="AE18" s="4" t="n">
+        <v>621318588.408571</v>
+      </c>
+      <c r="AF18" s="4" t="n">
+        <v>215315509.71185</v>
+      </c>
+      <c r="AG18" s="4" t="n">
+        <v>607045979.941992</v>
+      </c>
+      <c r="AH18" s="4" t="n">
+        <v>3922545.81190847</v>
+      </c>
+      <c r="AI18" s="4" t="n">
+        <v>6166003.56947407</v>
+      </c>
+      <c r="AJ18" s="4" t="n">
+        <v>7827971.1314855</v>
+      </c>
+      <c r="AK18" s="4" t="n">
+        <v>2678598.40083064</v>
+      </c>
+      <c r="AL18" s="4" t="n">
+        <v>14663186.9759314</v>
+      </c>
+      <c r="AM18" s="4" t="n">
+        <v>1703277.3334</v>
+      </c>
+      <c r="AN18" s="4" t="n">
+        <v>5241481.76098881</v>
+      </c>
+      <c r="AO18" s="4" t="n">
+        <v>508614.805280537</v>
+      </c>
+      <c r="AP18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>O19</f>
+      </c>
+      <c r="N19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="4" t="n">
+        <v>27731576627.0372</v>
+      </c>
+      <c r="Q19" s="4" t="n">
+        <v>31929749049.7304</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <v>34976718325.6358</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>42314134296.7421</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <v>45144289204.0489</v>
+      </c>
+      <c r="U19" s="4" t="n">
+        <v>45616316878.2874</v>
+      </c>
+      <c r="V19" s="4" t="n">
+        <v>48673809882.8093</v>
+      </c>
+      <c r="W19" s="4" t="n">
+        <v>53672860948.0088</v>
+      </c>
+      <c r="X19" s="4" t="n">
+        <v>55058746912.7084</v>
+      </c>
+      <c r="Y19" s="4" t="n">
+        <v>55955612636.2185</v>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v>61164095610.8931</v>
+      </c>
+      <c r="AA19" s="4" t="n">
+        <v>56844346486.4939</v>
+      </c>
+      <c r="AB19" s="4" t="n">
+        <v>57985360571.6982</v>
+      </c>
+      <c r="AC19" s="4" t="n">
+        <v>52238620368.8036</v>
+      </c>
+      <c r="AD19" s="4" t="n">
+        <v>55497289986.3312</v>
+      </c>
+      <c r="AE19" s="4" t="n">
+        <v>55058454711.0492</v>
+      </c>
+      <c r="AF19" s="4" t="n">
+        <v>57526798579.5881</v>
+      </c>
+      <c r="AG19" s="4" t="n">
+        <v>59614865531.0581</v>
+      </c>
+      <c r="AH19" s="4" t="n">
+        <v>66679156724.7732</v>
+      </c>
+      <c r="AI19" s="4" t="n">
+        <v>69436067732.0718</v>
+      </c>
+      <c r="AJ19" s="4" t="n">
+        <v>72265496199.4838</v>
+      </c>
+      <c r="AK19" s="4" t="n">
+        <v>67589490867.9628</v>
+      </c>
+      <c r="AL19" s="4" t="n">
+        <v>67946029504.0535</v>
+      </c>
+      <c r="AM19" s="4" t="n">
+        <v>69744978193.2427</v>
+      </c>
+      <c r="AN19" s="4" t="n">
+        <v>72523282823.385</v>
+      </c>
+      <c r="AO19" s="4" t="n">
+        <v>25328115587.9686</v>
+      </c>
+      <c r="AP19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>O20</f>
+      </c>
+      <c r="N20" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="4" t="n">
+        <v>1843880513.43079</v>
+      </c>
+      <c r="Q20" s="4" t="n">
+        <v>2749494546.71258</v>
+      </c>
+      <c r="R20" s="4" t="n">
+        <v>2349933191.76025</v>
+      </c>
+      <c r="S20" s="4" t="n">
+        <v>2546392247.29467</v>
+      </c>
+      <c r="T20" s="4" t="n">
+        <v>2089461439.64588</v>
+      </c>
+      <c r="U20" s="4" t="n">
+        <v>1937805309.96449</v>
+      </c>
+      <c r="V20" s="4" t="n">
+        <v>1025968033.57159</v>
+      </c>
+      <c r="W20" s="4" t="n">
+        <v>800519571.82502</v>
+      </c>
+      <c r="X20" s="4" t="n">
+        <v>1078630978.73498</v>
+      </c>
+      <c r="Y20" s="4" t="n">
+        <v>915525941.675761</v>
+      </c>
+      <c r="Z20" s="4" t="n">
+        <v>1181544518.32421</v>
+      </c>
+      <c r="AA20" s="4" t="n">
+        <v>1775969566.12474</v>
+      </c>
+      <c r="AB20" s="4" t="n">
+        <v>809115702.1451</v>
+      </c>
+      <c r="AC20" s="4" t="n">
+        <v>459303274.693354</v>
+      </c>
+      <c r="AD20" s="4" t="n">
+        <v>418415153.196238</v>
+      </c>
+      <c r="AE20" s="4" t="n">
+        <v>384915751.158934</v>
+      </c>
+      <c r="AF20" s="4" t="n">
+        <v>478844346.422163</v>
+      </c>
+      <c r="AG20" s="4" t="n">
+        <v>449661250.208201</v>
+      </c>
+      <c r="AH20" s="4" t="n">
+        <v>431875719.400832</v>
+      </c>
+      <c r="AI20" s="4" t="n">
+        <v>335809823.297807</v>
+      </c>
+      <c r="AJ20" s="4" t="n">
+        <v>301869427.797205</v>
+      </c>
+      <c r="AK20" s="4" t="n">
+        <v>538985369.449521</v>
+      </c>
+      <c r="AL20" s="4" t="n">
+        <v>634371548.377626</v>
+      </c>
+      <c r="AM20" s="4" t="n">
+        <v>1166239742.1677</v>
+      </c>
+      <c r="AN20" s="4" t="n">
+        <v>1418971776.19266</v>
+      </c>
+      <c r="AO20" s="4" t="n">
+        <v>685255665.464748</v>
+      </c>
+      <c r="AP20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>O21</f>
+      </c>
+      <c r="N21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" s="4" t="n">
+        <v>1172342033.21729</v>
+      </c>
+      <c r="Q21" s="4" t="n">
+        <v>1044228462.18046</v>
+      </c>
+      <c r="R21" s="4" t="n">
+        <v>2277198925.80194</v>
+      </c>
+      <c r="S21" s="4" t="n">
+        <v>2089548467.28098</v>
+      </c>
+      <c r="T21" s="4" t="n">
+        <v>2528854850.25218</v>
+      </c>
+      <c r="U21" s="4" t="n">
+        <v>2493142637.45692</v>
+      </c>
+      <c r="V21" s="4" t="n">
+        <v>2447854338.09023</v>
+      </c>
+      <c r="W21" s="4" t="n">
+        <v>2829767515.37408</v>
+      </c>
+      <c r="X21" s="4" t="n">
+        <v>2465406140.11767</v>
+      </c>
+      <c r="Y21" s="4" t="n">
+        <v>2370375996.49667</v>
+      </c>
+      <c r="Z21" s="4" t="n">
+        <v>3777937974.55606</v>
+      </c>
+      <c r="AA21" s="4" t="n">
+        <v>3911929718.25363</v>
+      </c>
+      <c r="AB21" s="4" t="n">
+        <v>3284893540.60461</v>
+      </c>
+      <c r="AC21" s="4" t="n">
+        <v>3641242184.43311</v>
+      </c>
+      <c r="AD21" s="4" t="n">
+        <v>4831633758.25168</v>
+      </c>
+      <c r="AE21" s="4" t="n">
+        <v>3838882824.31707</v>
+      </c>
+      <c r="AF21" s="4" t="n">
+        <v>6040717294.89474</v>
+      </c>
+      <c r="AG21" s="4" t="n">
+        <v>5270221815.03815</v>
+      </c>
+      <c r="AH21" s="4" t="n">
+        <v>4184061345.91127</v>
+      </c>
+      <c r="AI21" s="4" t="n">
+        <v>4896945235.44721</v>
+      </c>
+      <c r="AJ21" s="4" t="n">
+        <v>5062703890.19081</v>
+      </c>
+      <c r="AK21" s="4" t="n">
+        <v>3925407306.47367</v>
+      </c>
+      <c r="AL21" s="4" t="n">
+        <v>5162863524.68568</v>
+      </c>
+      <c r="AM21" s="4" t="n">
+        <v>4304092698.7586</v>
+      </c>
+      <c r="AN21" s="4" t="n">
+        <v>4521825638.63648</v>
+      </c>
+      <c r="AO21" s="4" t="n">
+        <v>1841231937.28313</v>
+      </c>
+      <c r="AP21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>O22</f>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>13307434816.6693</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>13449685718.5488</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>16121081122.2987</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>19565435463.531</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>22759921391.6004</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <v>24607739330.4269</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>26492791028.0924</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>30566619939.7104</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>32470736985.1652</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>31098655706.8263</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>32425946652.9486</v>
+      </c>
+      <c r="Y2" s="5" t="n">
+        <v>28598866920.5852</v>
+      </c>
+      <c r="Z2" s="5" t="n">
+        <v>28364735251.347</v>
+      </c>
+      <c r="AA2" s="5" t="n">
+        <v>24187407652.4206</v>
+      </c>
+      <c r="AB2" s="5" t="n">
+        <v>25569739707.6022</v>
+      </c>
+      <c r="AC2" s="5" t="n">
+        <v>25470704158.1304</v>
+      </c>
+      <c r="AD2" s="5" t="n">
+        <v>27793105903.6184</v>
+      </c>
+      <c r="AE2" s="5" t="n">
+        <v>28949805451.5667</v>
+      </c>
+      <c r="AF2" s="5" t="n">
+        <v>31468600461.4256</v>
+      </c>
+      <c r="AG2" s="5" t="n">
+        <v>33383846770.1047</v>
+      </c>
+      <c r="AH2" s="5" t="n">
+        <v>32842375317.9594</v>
+      </c>
+      <c r="AI2" s="5" t="n">
+        <v>30877902761.649</v>
+      </c>
+      <c r="AJ2" s="5" t="n">
+        <v>34313301388.4943</v>
+      </c>
+      <c r="AK2" s="5" t="n">
+        <v>38587932614.5887</v>
+      </c>
+      <c r="AL2" s="5" t="n">
+        <v>41490618840.97</v>
+      </c>
+      <c r="AM2" s="5" t="n">
+        <v>14679107892.48</v>
+      </c>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>3223051906.3086</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>3756668272</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>4391554985</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>4500679868.32</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>5046084809.6175</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>5924120628.8998</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>5431953907.1822</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>6858149207.7548</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>6835342740.2067</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>6919506191.032</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>7631910017.2104</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>7781907446.0351</v>
+      </c>
+      <c r="Z3" s="5" t="n">
+        <v>7249943122.6686</v>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>5500238230.4022</v>
+      </c>
+      <c r="AB3" s="5" t="n">
+        <v>6011983364.3665</v>
+      </c>
+      <c r="AC3" s="5" t="n">
+        <v>5491836706.3358</v>
+      </c>
+      <c r="AD3" s="5" t="n">
+        <v>5788819172.8747</v>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>6126484480.9038</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>6912329380.0982</v>
+      </c>
+      <c r="AG3" s="5" t="n">
+        <v>7476587125.7316</v>
+      </c>
+      <c r="AH3" s="5" t="n">
+        <v>7264307341.7361</v>
+      </c>
+      <c r="AI3" s="5" t="n">
+        <v>5917306488.6323</v>
+      </c>
+      <c r="AJ3" s="5" t="n">
+        <v>5909167984.2332</v>
+      </c>
+      <c r="AK3" s="5" t="n">
+        <v>4348703030.4778</v>
+      </c>
+      <c r="AL3" s="5" t="n">
+        <v>2659611933.55</v>
+      </c>
+      <c r="AM3" s="5" t="n">
+        <v>871535848.66</v>
+      </c>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>17321510995.8259</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>20211513941.2829</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>23372167737.6568</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>27620063514.1974</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>32076026680.7804</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>32370828625.7453</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>33218310239.1535</v>
+      </c>
+      <c r="U4" s="5" t="n">
+        <v>36783335489.2838</v>
+      </c>
+      <c r="V4" s="5" t="n">
+        <v>40019374771.7462</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>41769051543.2632</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>42332747931.7605</v>
+      </c>
+      <c r="Y4" s="5" t="n">
+        <v>42031790883.0492</v>
+      </c>
+      <c r="Z4" s="5" t="n">
+        <v>39601636662.6807</v>
+      </c>
+      <c r="AA4" s="5" t="n">
+        <v>37195174779.0665</v>
+      </c>
+      <c r="AB4" s="5" t="n">
+        <v>38202751856.9294</v>
+      </c>
+      <c r="AC4" s="5" t="n">
+        <v>38833364713.3</v>
+      </c>
+      <c r="AD4" s="5" t="n">
+        <v>41916014408.3009</v>
+      </c>
+      <c r="AE4" s="5" t="n">
+        <v>44450076097.7642</v>
+      </c>
+      <c r="AF4" s="5" t="n">
+        <v>48726614601.0993</v>
+      </c>
+      <c r="AG4" s="5" t="n">
+        <v>52601951197.4276</v>
+      </c>
+      <c r="AH4" s="5" t="n">
+        <v>57930398572.2788</v>
+      </c>
+      <c r="AI4" s="5" t="n">
+        <v>57468489363.0886</v>
+      </c>
+      <c r="AJ4" s="5" t="n">
+        <v>60886218358.9058</v>
+      </c>
+      <c r="AK4" s="5" t="n">
+        <v>64260414051.5553</v>
+      </c>
+      <c r="AL4" s="5" t="n">
+        <v>68108018577.7269</v>
+      </c>
+      <c r="AM4" s="5" t="n">
+        <v>25800325780.74</v>
+      </c>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5" t="n">
+        <v>13342</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="5" t="str">
+        <f>Sum(N2:N5)</f>
+      </c>
+      <c r="O6" s="5" t="str">
+        <f>Sum(O2:O5)</f>
+      </c>
+      <c r="P6" s="5" t="str">
+        <f>Sum(P2:P5)</f>
+      </c>
+      <c r="Q6" s="5" t="str">
+        <f>Sum(Q2:Q5)</f>
+      </c>
+      <c r="R6" s="5" t="str">
+        <f>Sum(R2:R5)</f>
+      </c>
+      <c r="S6" s="5" t="str">
+        <f>Sum(S2:S5)</f>
+      </c>
+      <c r="T6" s="5" t="str">
+        <f>Sum(T2:T5)</f>
+      </c>
+      <c r="U6" s="5" t="str">
+        <f>Sum(U2:U5)</f>
+      </c>
+      <c r="V6" s="5" t="str">
+        <f>Sum(V2:V5)</f>
+      </c>
+      <c r="W6" s="5" t="str">
+        <f>Sum(W2:W5)</f>
+      </c>
+      <c r="X6" s="5" t="str">
+        <f>Sum(X2:X5)</f>
+      </c>
+      <c r="Y6" s="5" t="str">
+        <f>Sum(Y2:Y5)</f>
+      </c>
+      <c r="Z6" s="5" t="str">
+        <f>Sum(Z2:Z5)</f>
+      </c>
+      <c r="AA6" s="5" t="str">
+        <f>Sum(AA2:AA5)</f>
+      </c>
+      <c r="AB6" s="5" t="str">
+        <f>Sum(AB2:AB5)</f>
+      </c>
+      <c r="AC6" s="5" t="str">
+        <f>Sum(AC2:AC5)</f>
+      </c>
+      <c r="AD6" s="5" t="str">
+        <f>Sum(AD2:AD5)</f>
+      </c>
+      <c r="AE6" s="5" t="str">
+        <f>Sum(AE2:AE5)</f>
+      </c>
+      <c r="AF6" s="5" t="str">
+        <f>Sum(AF2:AF5)</f>
+      </c>
+      <c r="AG6" s="5" t="str">
+        <f>Sum(AG2:AG5)</f>
+      </c>
+      <c r="AH6" s="5" t="str">
+        <f>Sum(AH2:AH5)</f>
+      </c>
+      <c r="AI6" s="5" t="str">
+        <f>Sum(AI2:AI5)</f>
+      </c>
+      <c r="AJ6" s="5" t="str">
+        <f>Sum(AJ2:AJ5)</f>
+      </c>
+      <c r="AK6" s="5" t="str">
+        <f>Sum(AK2:AK5)</f>
+      </c>
+      <c r="AL6" s="5" t="str">
+        <f>Sum(AL2:AL5)</f>
+      </c>
+      <c r="AM6" s="5" t="str">
+        <f>Sum(AM2:AM5)</f>
+      </c>
+      <c r="AN6" s="5" t="str">
+        <f>Sum(AN2:AN5)</f>
+      </c>
+      <c r="AO6" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>22372105321.2651</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>22076148107.2483</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>26051103696.2103</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>31021596382.9592</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>35226367495.7923</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>36961569357.5558</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>38540996299.6575</v>
+      </c>
+      <c r="U10" s="5" t="n">
+        <v>43276122673.7841</v>
+      </c>
+      <c r="V10" s="5" t="n">
+        <v>45036960142.8803</v>
+      </c>
+      <c r="W10" s="5" t="n">
+        <v>42697254526.5646</v>
+      </c>
+      <c r="X10" s="5" t="n">
+        <v>44137325005.2926</v>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>38162042929.9283</v>
+      </c>
+      <c r="Z10" s="5" t="n">
+        <v>37175040084.3752</v>
+      </c>
+      <c r="AA10" s="5" t="n">
+        <v>31135261532.4398</v>
+      </c>
+      <c r="AB10" s="5" t="n">
+        <v>32324959881.5949</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>31869709476.5411</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>34499740076.3246</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>35339027521.5161</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>37579456632.904</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>39142889029.8877</v>
+      </c>
+      <c r="AH10" s="5" t="n">
+        <v>38011460647.2817</v>
+      </c>
+      <c r="AI10" s="5" t="n">
+        <v>34548722182.4836</v>
+      </c>
+      <c r="AJ10" s="5" t="n">
+        <v>35883018080.572</v>
+      </c>
+      <c r="AK10" s="5" t="n">
+        <v>38587932614.5887</v>
+      </c>
+      <c r="AL10" s="5" t="n">
+        <v>40411392673.1768</v>
+      </c>
+      <c r="AM10" s="5" t="n">
+        <v>13990308404.9181</v>
+      </c>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>5418509103.91217</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>6166148927.0413</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>7096599380.27352</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>7135965595.25468</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>7810011065.5093</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>8898208509.42055</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>7902259720.94167</v>
+      </c>
+      <c r="U11" s="5" t="n">
+        <v>9709745696.9501</v>
+      </c>
+      <c r="V11" s="5" t="n">
+        <v>9480630473.34771</v>
+      </c>
+      <c r="W11" s="5" t="n">
+        <v>9500215051.79665</v>
+      </c>
+      <c r="X11" s="5" t="n">
+        <v>10388350306.1932</v>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>10384099721.7467</v>
+      </c>
+      <c r="Z11" s="5" t="n">
+        <v>9501831193.07791</v>
+      </c>
+      <c r="AA11" s="5" t="n">
+        <v>7080186444.7494</v>
+      </c>
+      <c r="AB11" s="5" t="n">
+        <v>7600277643.97555</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <v>6871550909.50471</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>7185694089.2317</v>
+      </c>
+      <c r="AE11" s="5" t="n">
+        <v>7478599607.27591</v>
+      </c>
+      <c r="AF11" s="5" t="n">
+        <v>8254627735.67468</v>
+      </c>
+      <c r="AG11" s="5" t="n">
+        <v>8766372018.18432</v>
+      </c>
+      <c r="AH11" s="5" t="n">
+        <v>8407641955.76211</v>
+      </c>
+      <c r="AI11" s="5" t="n">
+        <v>6620766297.58282</v>
+      </c>
+      <c r="AJ11" s="5" t="n">
+        <v>6179492297.13223</v>
+      </c>
+      <c r="AK11" s="5" t="n">
+        <v>4348703030.4778</v>
+      </c>
+      <c r="AL11" s="5" t="n">
+        <v>2590431890.56573</v>
+      </c>
+      <c r="AM11" s="5" t="n">
+        <v>830640076.904252</v>
+      </c>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="M12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>29120463384.6225</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>33174929479.8851</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>37768606256.6069</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>43792455527.3097</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>49645246317.8984</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>48621964470.0407</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>48325099860.2043</v>
+      </c>
+      <c r="U12" s="5" t="n">
+        <v>52077728650.5655</v>
+      </c>
+      <c r="V12" s="5" t="n">
+        <v>55506931898.7604</v>
+      </c>
+      <c r="W12" s="5" t="n">
+        <v>57347296355.4639</v>
+      </c>
+      <c r="X12" s="5" t="n">
+        <v>57622196009.5446</v>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>56086802758.8231</v>
+      </c>
+      <c r="Z12" s="5" t="n">
+        <v>51902209461.7331</v>
+      </c>
+      <c r="AA12" s="5" t="n">
+        <v>47879521076.9579</v>
+      </c>
+      <c r="AB12" s="5" t="n">
+        <v>48295463124.1168</v>
+      </c>
+      <c r="AC12" s="5" t="n">
+        <v>48589471407.0707</v>
+      </c>
+      <c r="AD12" s="5" t="n">
+        <v>52030586546.7734</v>
+      </c>
+      <c r="AE12" s="5" t="n">
+        <v>54260207902.9641</v>
+      </c>
+      <c r="AF12" s="5" t="n">
+        <v>58188787344.2239</v>
+      </c>
+      <c r="AG12" s="5" t="n">
+        <v>61676305689.2625</v>
+      </c>
+      <c r="AH12" s="5" t="n">
+        <v>67048106121.8303</v>
+      </c>
+      <c r="AI12" s="5" t="n">
+        <v>64300444514.5915</v>
+      </c>
+      <c r="AJ12" s="5" t="n">
+        <v>63671555514.1208</v>
+      </c>
+      <c r="AK12" s="5" t="n">
+        <v>64260414051.5553</v>
+      </c>
+      <c r="AL12" s="5" t="n">
+        <v>66336438448.557</v>
+      </c>
+      <c r="AM12" s="5" t="n">
+        <v>24589676516.0249</v>
+      </c>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="M13" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5" t="n">
+        <v>21899.3940981609</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>